--- a/default/data/Clean/NCASH.xlsx
+++ b/default/data/Clean/NCASH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="64">
   <si>
     <t>Cash_N500</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t>AMBER.NS</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>VIPIND.NS</t>
+  </si>
+  <si>
+    <t>SJVN.NS</t>
+  </si>
+  <si>
+    <t>RHIM.NS</t>
+  </si>
+  <si>
+    <t>JSL.NS</t>
+  </si>
+  <si>
+    <t>THERMAX.NS</t>
   </si>
 </sst>
 </file>
@@ -554,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,40 +639,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44539</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2228.5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2108.85</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1997.53</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2295.36</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2360.58</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2638.53</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2244.5500000000002</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>4</v>
+        <v>44575</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>499.65</v>
+      </c>
+      <c r="F2">
+        <v>468.25</v>
+      </c>
+      <c r="G2">
+        <v>464.03</v>
+      </c>
+      <c r="H2">
+        <v>514.64</v>
+      </c>
+      <c r="I2">
+        <v>515.6</v>
+      </c>
+      <c r="J2">
+        <v>529.22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2">
+        <v>504.2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -665,40 +683,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44533</v>
+        <v>44573</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>364.15</v>
+        <v>596.4</v>
       </c>
       <c r="F3">
-        <v>337.79</v>
+        <v>568.29</v>
       </c>
       <c r="G3">
-        <v>318.74</v>
+        <v>551.22</v>
       </c>
       <c r="H3">
-        <v>375.07</v>
+        <v>614.29</v>
       </c>
       <c r="I3">
-        <v>385.52</v>
+        <v>669</v>
       </c>
       <c r="J3">
-        <v>403.45</v>
+        <v>780.4</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="L3">
-        <v>421.05</v>
+        <v>588.15</v>
       </c>
       <c r="M3">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -709,40 +727,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44533</v>
+        <v>44571</v>
       </c>
       <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>31.8</v>
+      </c>
+      <c r="F4">
+        <v>29.37</v>
+      </c>
+      <c r="G4">
+        <v>28.98</v>
+      </c>
+      <c r="H4">
+        <v>32.75</v>
+      </c>
+      <c r="I4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J4">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <v>31.35</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>154.94999999999999</v>
-      </c>
-      <c r="F4">
-        <v>151.22</v>
-      </c>
-      <c r="G4">
-        <v>147.36000000000001</v>
-      </c>
-      <c r="H4">
-        <v>159.6</v>
-      </c>
-      <c r="I4">
-        <v>160.97999999999999</v>
-      </c>
-      <c r="J4">
-        <v>167.95</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>146.05000000000001</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -753,34 +771,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>44531</v>
+        <v>44571</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>5080.25</v>
+        <v>382.05</v>
       </c>
       <c r="F5">
-        <v>4957.96</v>
+        <v>367</v>
       </c>
       <c r="G5">
-        <v>4845.8599999999997</v>
+        <v>356.22</v>
       </c>
       <c r="H5">
-        <v>5220.53</v>
+        <v>391.12</v>
       </c>
       <c r="I5">
-        <v>5232.66</v>
+        <v>393.51</v>
       </c>
       <c r="J5">
-        <v>5311.9</v>
+        <v>403.35</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5">
-        <v>5060.1000000000004</v>
+        <v>421</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -797,37 +815,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>44526</v>
+        <v>44568</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>1810.1</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F6">
-        <v>1745.93</v>
+        <v>147.59</v>
       </c>
       <c r="G6">
-        <v>1715.01</v>
+        <v>147.49</v>
       </c>
       <c r="H6">
-        <v>1864.4</v>
+        <v>163.46</v>
       </c>
       <c r="I6">
-        <v>1887.2</v>
+        <v>166.75</v>
       </c>
       <c r="J6">
-        <v>2088.1999999999998</v>
+        <v>184.75</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>1974.55</v>
+        <v>176.2</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -841,37 +859,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>44522</v>
+        <v>44568</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>142.9</v>
+        <v>200.65</v>
       </c>
       <c r="F7">
-        <v>133.26</v>
+        <v>190.7</v>
       </c>
       <c r="G7">
-        <v>127.28</v>
+        <v>183.28</v>
       </c>
       <c r="H7">
-        <v>147.19</v>
+        <v>206.67</v>
       </c>
       <c r="I7">
-        <v>149.35</v>
+        <v>214.8</v>
       </c>
       <c r="J7">
-        <v>156.41999999999999</v>
+        <v>223.1</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>149.30000000000001</v>
+        <v>204.65</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>4</v>
@@ -885,40 +903,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>44517</v>
+        <v>44566</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E8">
-        <v>230.3</v>
+        <v>1903.9</v>
       </c>
       <c r="F8">
-        <v>218.03</v>
+        <v>1755.34</v>
       </c>
       <c r="G8">
-        <v>214.41</v>
+        <v>1642.64</v>
       </c>
       <c r="H8">
-        <v>237.21</v>
+        <v>1961.02</v>
       </c>
       <c r="I8">
-        <v>241.3</v>
+        <v>1969.95</v>
       </c>
       <c r="J8">
-        <v>258</v>
+        <v>2061.4699999999998</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>213.5</v>
+        <v>2068.0500000000002</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -929,40 +947,40 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>44516</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>504</v>
-      </c>
-      <c r="F9">
-        <v>485.12</v>
-      </c>
-      <c r="G9">
-        <v>474.56</v>
-      </c>
-      <c r="H9">
-        <v>519.12</v>
-      </c>
-      <c r="I9">
-        <v>564.98</v>
-      </c>
-      <c r="J9">
-        <v>657.23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>425.5</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>6</v>
+        <v>44539</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2228.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2108.85</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1997.53</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2295.36</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2360.58</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2638.53</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2244.5500000000002</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -973,40 +991,40 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2288.75</v>
+        <v>364.15</v>
       </c>
       <c r="F10">
-        <v>2194.21</v>
+        <v>337.79</v>
       </c>
       <c r="G10">
-        <v>2184.1799999999998</v>
+        <v>318.74</v>
       </c>
       <c r="H10">
-        <v>2357.41</v>
+        <v>375.07</v>
       </c>
       <c r="I10">
-        <v>2392.4499999999998</v>
+        <v>385.52</v>
       </c>
       <c r="J10">
-        <v>2609.85</v>
+        <v>403.45</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>1911.7</v>
+        <v>421.05</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1017,37 +1035,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>367.8</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="F11">
-        <v>356.44</v>
+        <v>151.22</v>
       </c>
       <c r="G11">
-        <v>341.13</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="H11">
-        <v>378.83</v>
+        <v>159.6</v>
       </c>
       <c r="I11">
-        <v>387.22</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="J11">
-        <v>433.87</v>
+        <v>167.95</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
       </c>
       <c r="L11">
-        <v>374.15</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>6</v>
@@ -1061,37 +1079,37 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>44515</v>
+        <v>44531</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>926.25</v>
+        <v>5080.25</v>
       </c>
       <c r="F12">
-        <v>869.94</v>
+        <v>4957.96</v>
       </c>
       <c r="G12">
-        <v>866.86</v>
+        <v>4845.8599999999997</v>
       </c>
       <c r="H12">
-        <v>954.04</v>
+        <v>5220.53</v>
       </c>
       <c r="I12">
-        <v>959.1</v>
+        <v>5232.66</v>
       </c>
       <c r="J12">
-        <v>1056.0999999999999</v>
+        <v>5311.9</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>918.2</v>
+        <v>5060.1000000000004</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
         <v>4</v>
@@ -1105,34 +1123,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>922.15</v>
+        <v>1810.1</v>
       </c>
       <c r="F13">
-        <v>866.97</v>
+        <v>1745.93</v>
       </c>
       <c r="G13">
-        <v>846.17</v>
+        <v>1715.01</v>
       </c>
       <c r="H13">
-        <v>949.81</v>
+        <v>1864.4</v>
       </c>
       <c r="I13">
-        <v>959.97</v>
+        <v>1887.2</v>
       </c>
       <c r="J13">
-        <v>1104.8699999999999</v>
+        <v>2088.1999999999998</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>925.35</v>
+        <v>1974.55</v>
       </c>
       <c r="M13">
         <v>14</v>
@@ -1149,40 +1167,40 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>44512</v>
+        <v>44522</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>2252.3000000000002</v>
+        <v>142.9</v>
       </c>
       <c r="F14">
-        <v>2189.8000000000002</v>
+        <v>133.26</v>
       </c>
       <c r="G14">
-        <v>2179.61</v>
+        <v>127.28</v>
       </c>
       <c r="H14">
-        <v>2319.87</v>
+        <v>147.19</v>
       </c>
       <c r="I14">
-        <v>2392.4499999999998</v>
+        <v>149.35</v>
       </c>
       <c r="J14">
-        <v>2609.85</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>2042.05</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1193,40 +1211,40 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>4169.55</v>
+        <v>230.3</v>
       </c>
       <c r="F15">
-        <v>4107.1499999999996</v>
+        <v>218.03</v>
       </c>
       <c r="G15">
-        <v>3788.59</v>
+        <v>214.41</v>
       </c>
       <c r="H15">
-        <v>4294.6400000000003</v>
+        <v>237.21</v>
       </c>
       <c r="I15">
-        <v>4574.22</v>
+        <v>241.3</v>
       </c>
       <c r="J15">
-        <v>4830.2700000000004</v>
+        <v>258</v>
       </c>
       <c r="K15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>3861.95</v>
+        <v>213.5</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1237,40 +1255,40 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>2006.35</v>
+        <v>504</v>
       </c>
       <c r="F16">
-        <v>1940.16</v>
+        <v>485.12</v>
       </c>
       <c r="G16">
-        <v>1849.85</v>
+        <v>474.56</v>
       </c>
       <c r="H16">
-        <v>2066.54</v>
+        <v>519.12</v>
       </c>
       <c r="I16">
-        <v>2111.6</v>
+        <v>564.98</v>
       </c>
       <c r="J16">
-        <v>2406.8000000000002</v>
+        <v>657.23</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>1966.85</v>
+        <v>425.5</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1281,37 +1299,37 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>44504</v>
+        <v>44516</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>1438</v>
+        <v>2288.75</v>
       </c>
       <c r="F17">
-        <v>1348.05</v>
+        <v>2194.21</v>
       </c>
       <c r="G17">
-        <v>1246.52</v>
+        <v>2184.1799999999998</v>
       </c>
       <c r="H17">
-        <v>1481.14</v>
+        <v>2357.41</v>
       </c>
       <c r="I17">
-        <v>1500.53</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J17">
-        <v>1557.03</v>
+        <v>2609.85</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
       <c r="L17">
-        <v>1292.45</v>
+        <v>1911.7</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
         <v>6</v>
@@ -1325,40 +1343,40 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>940</v>
+        <v>367.8</v>
       </c>
       <c r="F18">
-        <v>889.59</v>
+        <v>356.44</v>
       </c>
       <c r="G18">
-        <v>877.45</v>
+        <v>341.13</v>
       </c>
       <c r="H18">
-        <v>968.2</v>
+        <v>378.83</v>
       </c>
       <c r="I18">
-        <v>976.45</v>
+        <v>387.22</v>
       </c>
       <c r="J18">
-        <v>1092.05</v>
+        <v>433.87</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>911.3</v>
+        <v>374.15</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1369,37 +1387,37 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>467.25</v>
+        <v>926.25</v>
       </c>
       <c r="F19">
-        <v>449.1</v>
+        <v>869.94</v>
       </c>
       <c r="G19">
-        <v>434.55</v>
+        <v>866.86</v>
       </c>
       <c r="H19">
-        <v>481.27</v>
+        <v>954.04</v>
       </c>
       <c r="I19">
-        <v>483.37</v>
+        <v>959.1</v>
       </c>
       <c r="J19">
-        <v>540.63</v>
+        <v>1056.0999999999999</v>
       </c>
       <c r="K19" t="s">
         <v>15</v>
       </c>
       <c r="L19">
-        <v>467.45</v>
+        <v>918.2</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N19" t="s">
         <v>4</v>
@@ -1413,37 +1431,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>44503</v>
+        <v>44512</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>2376.5500000000002</v>
+        <v>922.15</v>
       </c>
       <c r="F20">
-        <v>2227.59</v>
+        <v>866.97</v>
       </c>
       <c r="G20">
-        <v>2195.98</v>
+        <v>846.17</v>
       </c>
       <c r="H20">
-        <v>2447.7800000000002</v>
+        <v>949.81</v>
       </c>
       <c r="I20">
-        <v>2447.85</v>
+        <v>959.97</v>
       </c>
       <c r="J20">
-        <v>2581.4299999999998</v>
+        <v>1104.8699999999999</v>
       </c>
       <c r="K20" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L20">
-        <v>2332.1</v>
+        <v>925.35</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N20" t="s">
         <v>4</v>
@@ -1457,40 +1475,40 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>44503</v>
+        <v>44512</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>3960.1</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="F21">
-        <v>3811.12</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="G21">
-        <v>3778.9</v>
+        <v>2179.61</v>
       </c>
       <c r="H21">
-        <v>4078.9</v>
+        <v>2319.87</v>
       </c>
       <c r="I21">
-        <v>4094.88</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J21">
-        <v>4611.7299999999996</v>
+        <v>2609.85</v>
       </c>
       <c r="K21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>4220.7</v>
+        <v>2042.05</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1501,40 +1519,40 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>44502</v>
+        <v>44510</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>503</v>
+        <v>4169.55</v>
       </c>
       <c r="F22">
-        <v>468.45</v>
+        <v>4107.1499999999996</v>
       </c>
       <c r="G22">
-        <v>404.65</v>
+        <v>3788.59</v>
       </c>
       <c r="H22">
-        <v>518.09</v>
+        <v>4294.6400000000003</v>
       </c>
       <c r="I22">
-        <v>538.33000000000004</v>
+        <v>4574.22</v>
       </c>
       <c r="J22">
-        <v>564.23</v>
+        <v>4830.2700000000004</v>
       </c>
       <c r="K22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>407.5</v>
+        <v>3861.95</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1545,34 +1563,37 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>183.95</v>
+        <v>2006.35</v>
       </c>
       <c r="F23">
-        <v>172.67</v>
+        <v>1940.16</v>
       </c>
       <c r="G23">
-        <v>150.44</v>
+        <v>1849.85</v>
       </c>
       <c r="H23">
-        <v>189.47</v>
+        <v>2066.54</v>
       </c>
       <c r="I23">
-        <v>220.63</v>
+        <v>2111.6</v>
+      </c>
+      <c r="J23">
+        <v>2406.8000000000002</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
       </c>
       <c r="L23">
-        <v>166.8</v>
+        <v>1966.85</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
         <v>4</v>
@@ -1586,40 +1607,40 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>1947.1</v>
+        <v>1438</v>
       </c>
       <c r="F24">
-        <v>1858.11</v>
+        <v>1348.05</v>
       </c>
       <c r="G24">
-        <v>1845.66</v>
+        <v>1246.52</v>
       </c>
       <c r="H24">
-        <v>2005.51</v>
+        <v>1481.14</v>
       </c>
       <c r="I24">
-        <v>2022.07</v>
+        <v>1500.53</v>
       </c>
       <c r="J24">
-        <v>2175.9699999999998</v>
+        <v>1557.03</v>
       </c>
       <c r="K24" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>2149.5500000000002</v>
+        <v>1292.45</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1630,34 +1651,37 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>44491</v>
+        <v>44503</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>50.1</v>
+        <v>940</v>
       </c>
       <c r="F25">
-        <v>46.38</v>
+        <v>889.59</v>
       </c>
       <c r="G25">
-        <v>45.6</v>
+        <v>877.45</v>
       </c>
       <c r="H25">
-        <v>52.35</v>
+        <v>968.2</v>
       </c>
       <c r="I25">
-        <v>52.7</v>
+        <v>976.45</v>
+      </c>
+      <c r="J25">
+        <v>1092.05</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
       </c>
       <c r="L25">
-        <v>48.8</v>
+        <v>911.3</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
         <v>4</v>
@@ -1671,37 +1695,37 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>44491</v>
+        <v>44503</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>1243.3</v>
+        <v>467.25</v>
       </c>
       <c r="F26">
-        <v>1184.8599999999999</v>
+        <v>449.1</v>
       </c>
       <c r="G26">
-        <v>1112.71</v>
+        <v>434.55</v>
       </c>
       <c r="H26">
-        <v>1299.25</v>
+        <v>481.27</v>
       </c>
       <c r="I26">
-        <v>1328.27</v>
+        <v>483.37</v>
       </c>
       <c r="J26">
-        <v>1397.58</v>
+        <v>540.63</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
       </c>
       <c r="L26">
-        <v>1270.1500000000001</v>
+        <v>467.45</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
         <v>4</v>
@@ -1715,40 +1739,40 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>44490</v>
+        <v>44503</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>14400.05</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="F27">
-        <v>13928.9</v>
+        <v>2227.59</v>
       </c>
       <c r="G27">
-        <v>13651.23</v>
+        <v>2195.98</v>
       </c>
       <c r="H27">
-        <v>14887.35</v>
+        <v>2447.7800000000002</v>
       </c>
       <c r="I27">
-        <v>15048.05</v>
+        <v>2447.85</v>
       </c>
       <c r="J27">
-        <v>15158.53</v>
+        <v>2581.4299999999998</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>14644.95</v>
+        <v>2332.1</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N27" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1759,40 +1783,40 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>44489</v>
+        <v>44503</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>14400</v>
+        <v>3960.1</v>
       </c>
       <c r="F28">
-        <v>13915.11</v>
+        <v>3811.12</v>
       </c>
       <c r="G28">
-        <v>13616.79</v>
+        <v>3778.9</v>
       </c>
       <c r="H28">
-        <v>14887.35</v>
+        <v>4078.9</v>
       </c>
       <c r="I28">
-        <v>15048</v>
+        <v>4094.88</v>
       </c>
       <c r="J28">
-        <v>15158.53</v>
+        <v>4611.7299999999996</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>14453.9</v>
+        <v>4220.7</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1803,34 +1827,34 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>44489</v>
+        <v>44502</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>497.95</v>
+        <v>503</v>
       </c>
       <c r="F29">
-        <v>461.51</v>
+        <v>468.45</v>
       </c>
       <c r="G29">
-        <v>455.19</v>
+        <v>404.65</v>
       </c>
       <c r="H29">
-        <v>520.36</v>
+        <v>518.09</v>
       </c>
       <c r="I29">
-        <v>520.41999999999996</v>
+        <v>538.33000000000004</v>
       </c>
       <c r="J29">
-        <v>580.41999999999996</v>
+        <v>564.23</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
       </c>
       <c r="L29">
-        <v>428.55</v>
+        <v>407.5</v>
       </c>
       <c r="M29">
         <v>5</v>
@@ -1847,34 +1871,34 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>44483</v>
+        <v>44498</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>8928</v>
+        <v>183.95</v>
       </c>
       <c r="F30">
-        <v>8199.61</v>
+        <v>172.67</v>
       </c>
       <c r="G30">
-        <v>8071.6</v>
+        <v>150.44</v>
       </c>
       <c r="H30">
-        <v>9329.76</v>
+        <v>189.47</v>
       </c>
       <c r="I30">
-        <v>9446.1</v>
+        <v>220.63</v>
       </c>
       <c r="K30" t="s">
         <v>15</v>
       </c>
       <c r="L30">
-        <v>9105.75</v>
+        <v>166.8</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N30" t="s">
         <v>4</v>
@@ -1888,34 +1912,37 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>44483</v>
+        <v>44497</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>358</v>
+        <v>1947.1</v>
       </c>
       <c r="F31">
-        <v>327.27999999999997</v>
+        <v>1858.11</v>
       </c>
       <c r="G31">
-        <v>321.62</v>
+        <v>1845.66</v>
       </c>
       <c r="H31">
-        <v>374.11</v>
+        <v>2005.51</v>
       </c>
       <c r="I31">
-        <v>377.57</v>
+        <v>2022.07</v>
+      </c>
+      <c r="J31">
+        <v>2175.9699999999998</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>318.55</v>
+        <v>2149.5500000000002</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N31" t="s">
         <v>4</v>
@@ -1929,40 +1956,37 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>44482</v>
+        <v>44491</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>1840.1</v>
+        <v>50.1</v>
       </c>
       <c r="F32">
-        <v>1728.38</v>
+        <v>46.38</v>
       </c>
       <c r="G32">
-        <v>1649.84</v>
+        <v>45.6</v>
       </c>
       <c r="H32">
-        <v>1922.9</v>
+        <v>52.35</v>
       </c>
       <c r="I32">
-        <v>1954.85</v>
-      </c>
-      <c r="J32">
-        <v>2179.75</v>
+        <v>52.7</v>
       </c>
       <c r="K32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>1792.45</v>
+        <v>48.8</v>
       </c>
       <c r="M32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -1973,34 +1997,34 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>44481</v>
+        <v>44491</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>456.35</v>
+        <v>1243.3</v>
       </c>
       <c r="F33">
-        <v>431.76</v>
+        <v>1184.8599999999999</v>
       </c>
       <c r="G33">
-        <v>421.61</v>
+        <v>1112.71</v>
       </c>
       <c r="H33">
-        <v>476.89</v>
+        <v>1299.25</v>
       </c>
       <c r="I33">
-        <v>476.9</v>
+        <v>1328.27</v>
       </c>
       <c r="J33">
-        <v>531.9</v>
+        <v>1397.58</v>
       </c>
       <c r="K33" t="s">
         <v>15</v>
       </c>
       <c r="L33">
-        <v>464.65</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="M33">
         <v>2</v>
@@ -2017,40 +2041,40 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>44481</v>
+        <v>44490</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>96.3</v>
+        <v>14400.05</v>
       </c>
       <c r="F34">
-        <v>91.74</v>
+        <v>13928.9</v>
       </c>
       <c r="G34">
-        <v>88.31</v>
+        <v>13651.23</v>
       </c>
       <c r="H34">
-        <v>100.63</v>
+        <v>14887.35</v>
       </c>
       <c r="I34">
-        <v>106.95</v>
+        <v>15048.05</v>
       </c>
       <c r="J34">
-        <v>122.7</v>
+        <v>15158.53</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L34">
-        <v>102.55</v>
+        <v>14644.95</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N34" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2061,40 +2085,40 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>44481</v>
+        <v>44489</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>2025</v>
+        <v>14400</v>
       </c>
       <c r="F35">
-        <v>1869.62</v>
+        <v>13915.11</v>
       </c>
       <c r="G35">
-        <v>1853.79</v>
+        <v>13616.79</v>
       </c>
       <c r="H35">
-        <v>2116.13</v>
+        <v>14887.35</v>
       </c>
       <c r="I35">
-        <v>2147.83</v>
+        <v>15048</v>
       </c>
       <c r="J35">
-        <v>2419.38</v>
+        <v>15158.53</v>
       </c>
       <c r="K35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35">
+        <v>14453.9</v>
+      </c>
+      <c r="M35">
         <v>15</v>
       </c>
-      <c r="L35">
-        <v>1993.8</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
       <c r="N35" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2105,37 +2129,37 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>44480</v>
+        <v>44489</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>313.55</v>
+        <v>497.95</v>
       </c>
       <c r="F36">
-        <v>297.8</v>
+        <v>461.51</v>
       </c>
       <c r="G36">
-        <v>282.27</v>
+        <v>455.19</v>
       </c>
       <c r="H36">
-        <v>323.38</v>
+        <v>520.36</v>
       </c>
       <c r="I36">
-        <v>327.66000000000003</v>
+        <v>520.41999999999996</v>
       </c>
       <c r="J36">
-        <v>334.27</v>
+        <v>580.41999999999996</v>
       </c>
       <c r="K36" t="s">
         <v>6</v>
       </c>
       <c r="L36">
-        <v>269.75</v>
+        <v>428.55</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
         <v>6</v>
@@ -2149,37 +2173,34 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>789.25</v>
+        <v>8928</v>
       </c>
       <c r="F37">
-        <v>757.08</v>
+        <v>8199.61</v>
       </c>
       <c r="G37">
-        <v>751.14</v>
+        <v>8071.6</v>
       </c>
       <c r="H37">
-        <v>816.23</v>
+        <v>9329.76</v>
       </c>
       <c r="I37">
-        <v>824.77</v>
-      </c>
-      <c r="J37">
-        <v>834.78</v>
+        <v>9446.1</v>
       </c>
       <c r="K37" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L37">
-        <v>821</v>
+        <v>9105.75</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
         <v>4</v>
@@ -2193,40 +2214,37 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>656.4</v>
+        <v>358</v>
       </c>
       <c r="F38">
-        <v>653</v>
+        <v>327.27999999999997</v>
       </c>
       <c r="G38">
-        <v>632.46</v>
+        <v>321.62</v>
       </c>
       <c r="H38">
-        <v>685.94</v>
+        <v>374.11</v>
       </c>
       <c r="I38">
-        <v>708.65</v>
-      </c>
-      <c r="J38">
-        <v>792.4</v>
+        <v>377.57</v>
       </c>
       <c r="K38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L38">
-        <v>515.79999999999995</v>
+        <v>318.55</v>
       </c>
       <c r="M38">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2237,40 +2255,40 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>44477</v>
+        <v>44482</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>97.75</v>
+        <v>1840.1</v>
       </c>
       <c r="F39">
-        <v>90.97</v>
+        <v>1728.38</v>
       </c>
       <c r="G39">
-        <v>88.12</v>
+        <v>1649.84</v>
       </c>
       <c r="H39">
-        <v>102.15</v>
+        <v>1922.9</v>
       </c>
       <c r="I39">
-        <v>106.95</v>
+        <v>1954.85</v>
       </c>
       <c r="J39">
-        <v>122.7</v>
+        <v>2179.75</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>97.45</v>
+        <v>1792.45</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N39" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2281,37 +2299,37 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E40">
-        <v>1965.1</v>
+        <v>456.35</v>
       </c>
       <c r="F40">
-        <v>1863.54</v>
+        <v>431.76</v>
       </c>
       <c r="G40">
-        <v>1850.86</v>
+        <v>421.61</v>
       </c>
       <c r="H40">
-        <v>2053.5300000000002</v>
+        <v>476.89</v>
       </c>
       <c r="I40">
-        <v>2073.9699999999998</v>
+        <v>476.9</v>
       </c>
       <c r="J40">
-        <v>2147.83</v>
+        <v>531.9</v>
       </c>
       <c r="K40" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L40">
-        <v>1946.05</v>
+        <v>464.65</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
         <v>4</v>
@@ -2325,37 +2343,37 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E41">
-        <v>211.55</v>
+        <v>96.3</v>
       </c>
       <c r="F41">
-        <v>199.66</v>
+        <v>91.74</v>
       </c>
       <c r="G41">
-        <v>195.14</v>
+        <v>88.31</v>
       </c>
       <c r="H41">
-        <v>221.07</v>
+        <v>100.63</v>
       </c>
       <c r="I41">
-        <v>222.5</v>
+        <v>106.95</v>
       </c>
       <c r="J41">
-        <v>231.5</v>
+        <v>122.7</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L41">
-        <v>197.65</v>
+        <v>102.55</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
         <v>4</v>
@@ -2369,37 +2387,40 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E42">
-        <v>2141.3000000000002</v>
+        <v>2025</v>
       </c>
       <c r="F42">
-        <v>1927.17</v>
+        <v>1869.62</v>
       </c>
       <c r="G42">
-        <v>1897.63</v>
+        <v>1853.79</v>
       </c>
       <c r="H42">
-        <v>2237.66</v>
+        <v>2116.13</v>
       </c>
       <c r="I42">
-        <v>2357.87</v>
+        <v>2147.83</v>
+      </c>
+      <c r="J42">
+        <v>2419.38</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="L42">
-        <v>1949.45</v>
+        <v>1993.8</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2410,37 +2431,40 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E43">
-        <v>1304.5</v>
+        <v>313.55</v>
       </c>
       <c r="F43">
-        <v>1181.8499999999999</v>
+        <v>297.8</v>
       </c>
       <c r="G43">
-        <v>1177.8599999999999</v>
+        <v>282.27</v>
       </c>
       <c r="H43">
-        <v>1357.02</v>
+        <v>323.38</v>
       </c>
       <c r="I43">
-        <v>1363.2</v>
+        <v>327.66000000000003</v>
+      </c>
+      <c r="J43">
+        <v>334.27</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L43">
-        <v>1313.25</v>
+        <v>269.75</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2451,37 +2475,40 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E44">
-        <v>1046</v>
+        <v>789.25</v>
       </c>
       <c r="F44">
-        <v>991.55</v>
+        <v>757.08</v>
       </c>
       <c r="G44">
-        <v>975.33</v>
+        <v>751.14</v>
       </c>
       <c r="H44">
-        <v>1093.07</v>
+        <v>816.23</v>
       </c>
       <c r="I44">
-        <v>1100.17</v>
+        <v>824.77</v>
+      </c>
+      <c r="J44">
+        <v>834.78</v>
       </c>
       <c r="K44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>821</v>
+      </c>
+      <c r="M44">
         <v>6</v>
       </c>
-      <c r="L44">
-        <v>804.35</v>
-      </c>
-      <c r="M44">
-        <v>4</v>
-      </c>
       <c r="N44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2492,37 +2519,37 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>310.7</v>
+        <v>656.4</v>
       </c>
       <c r="F45">
-        <v>295.52999999999997</v>
+        <v>653</v>
       </c>
       <c r="G45">
-        <v>280.48</v>
+        <v>632.46</v>
       </c>
       <c r="H45">
-        <v>323.38</v>
+        <v>685.94</v>
       </c>
       <c r="I45">
-        <v>324.68</v>
+        <v>708.65</v>
       </c>
       <c r="J45">
-        <v>334.27</v>
+        <v>792.4</v>
       </c>
       <c r="K45" t="s">
         <v>6</v>
       </c>
       <c r="L45">
-        <v>273.3</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="M45">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -2536,40 +2563,40 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E46">
-        <v>214.3</v>
+        <v>97.75</v>
       </c>
       <c r="F46">
-        <v>206.45</v>
+        <v>90.97</v>
       </c>
       <c r="G46">
-        <v>205.8</v>
+        <v>88.12</v>
       </c>
       <c r="H46">
-        <v>223.94</v>
+        <v>102.15</v>
       </c>
       <c r="I46">
-        <v>225.65</v>
+        <v>106.95</v>
       </c>
       <c r="J46">
-        <v>245.35</v>
+        <v>122.7</v>
       </c>
       <c r="K46" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="L46">
-        <v>214.4</v>
+        <v>97.45</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N46" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2580,34 +2607,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E47">
-        <v>289</v>
+        <v>1965.1</v>
       </c>
       <c r="F47">
-        <v>276.52</v>
+        <v>1863.54</v>
       </c>
       <c r="G47">
-        <v>272.33</v>
+        <v>1850.86</v>
       </c>
       <c r="H47">
-        <v>302</v>
+        <v>2053.5300000000002</v>
       </c>
       <c r="I47">
-        <v>306.18</v>
+        <v>2073.9699999999998</v>
+      </c>
+      <c r="J47">
+        <v>2147.83</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>283.05</v>
+        <v>1946.05</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
         <v>4</v>
@@ -2621,39 +2651,335 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>44470</v>
+        <v>44477</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E48">
-        <v>3396.6</v>
+        <v>211.55</v>
       </c>
       <c r="F48">
-        <v>3162.72</v>
+        <v>199.66</v>
       </c>
       <c r="G48">
-        <v>3027.58</v>
+        <v>195.14</v>
       </c>
       <c r="H48">
-        <v>3549.45</v>
+        <v>221.07</v>
       </c>
       <c r="I48">
-        <v>3557.23</v>
+        <v>222.5</v>
       </c>
       <c r="J48">
-        <v>3951.23</v>
+        <v>231.5</v>
       </c>
       <c r="K48" t="s">
         <v>15</v>
       </c>
       <c r="L48">
+        <v>197.65</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49">
+        <v>2141.3000000000002</v>
+      </c>
+      <c r="F49">
+        <v>1927.17</v>
+      </c>
+      <c r="G49">
+        <v>1897.63</v>
+      </c>
+      <c r="H49">
+        <v>2237.66</v>
+      </c>
+      <c r="I49">
+        <v>2357.87</v>
+      </c>
+      <c r="K49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49">
+        <v>1949.45</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>1304.5</v>
+      </c>
+      <c r="F50">
+        <v>1181.8499999999999</v>
+      </c>
+      <c r="G50">
+        <v>1177.8599999999999</v>
+      </c>
+      <c r="H50">
+        <v>1357.02</v>
+      </c>
+      <c r="I50">
+        <v>1363.2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50">
+        <v>1313.25</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>1046</v>
+      </c>
+      <c r="F51">
+        <v>991.55</v>
+      </c>
+      <c r="G51">
+        <v>975.33</v>
+      </c>
+      <c r="H51">
+        <v>1093.07</v>
+      </c>
+      <c r="I51">
+        <v>1100.17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>804.35</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>310.7</v>
+      </c>
+      <c r="F52">
+        <v>295.52999999999997</v>
+      </c>
+      <c r="G52">
+        <v>280.48</v>
+      </c>
+      <c r="H52">
+        <v>323.38</v>
+      </c>
+      <c r="I52">
+        <v>324.68</v>
+      </c>
+      <c r="J52">
+        <v>334.27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>273.3</v>
+      </c>
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44475</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>214.3</v>
+      </c>
+      <c r="F53">
+        <v>206.45</v>
+      </c>
+      <c r="G53">
+        <v>205.8</v>
+      </c>
+      <c r="H53">
+        <v>223.94</v>
+      </c>
+      <c r="I53">
+        <v>225.65</v>
+      </c>
+      <c r="J53">
+        <v>245.35</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>214.4</v>
+      </c>
+      <c r="M53">
+        <v>9</v>
+      </c>
+      <c r="N53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44474</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54">
+        <v>289</v>
+      </c>
+      <c r="F54">
+        <v>276.52</v>
+      </c>
+      <c r="G54">
+        <v>272.33</v>
+      </c>
+      <c r="H54">
+        <v>302</v>
+      </c>
+      <c r="I54">
+        <v>306.18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>283.05</v>
+      </c>
+      <c r="M54">
+        <v>13</v>
+      </c>
+      <c r="N54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44470</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55">
+        <v>3396.6</v>
+      </c>
+      <c r="F55">
+        <v>3162.72</v>
+      </c>
+      <c r="G55">
+        <v>3027.58</v>
+      </c>
+      <c r="H55">
+        <v>3549.45</v>
+      </c>
+      <c r="I55">
+        <v>3557.23</v>
+      </c>
+      <c r="J55">
+        <v>3951.23</v>
+      </c>
+      <c r="K55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55">
         <v>3392.4</v>
       </c>
-      <c r="M48">
+      <c r="M55">
         <v>7</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N55" t="s">
         <v>4</v>
       </c>
     </row>

--- a/default/data/Clean/NCASH.xlsx
+++ b/default/data/Clean/NCASH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="64">
   <si>
     <t>Cash_N500</t>
   </si>
@@ -83,139 +83,139 @@
     <t>VMART.NS</t>
   </si>
   <si>
+    <t>RELAXO.NS</t>
+  </si>
+  <si>
+    <t>VBL.NS</t>
+  </si>
+  <si>
+    <t>PRESTIGE.NS</t>
+  </si>
+  <si>
+    <t>ECLERX.NS</t>
+  </si>
+  <si>
+    <t>LUXIND.NS</t>
+  </si>
+  <si>
+    <t>GNFC.NS</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>SL1</t>
+  </si>
+  <si>
+    <t>SL2</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>15DayClose</t>
+  </si>
+  <si>
+    <t>NoD</t>
+  </si>
+  <si>
+    <t>result dummy</t>
+  </si>
+  <si>
+    <t>TRITURBINE.NS</t>
+  </si>
+  <si>
+    <t>ABB.NS</t>
+  </si>
+  <si>
+    <t>IRCON.NS</t>
+  </si>
+  <si>
+    <t>IFBIND.NS</t>
+  </si>
+  <si>
+    <t>PGHH.NS</t>
+  </si>
+  <si>
+    <t>STAGNANT</t>
+  </si>
+  <si>
+    <t>INDOCO.NS</t>
+  </si>
+  <si>
+    <t>LAXMIMACH.NS</t>
+  </si>
+  <si>
+    <t>HINDZINC.NS</t>
+  </si>
+  <si>
+    <t>TIMKEN.NS</t>
+  </si>
+  <si>
+    <t>EIDPARRY.NS</t>
+  </si>
+  <si>
+    <t>JAMNAAUTO.NS</t>
+  </si>
+  <si>
+    <t>VTL.NS</t>
+  </si>
+  <si>
+    <t>NOCIL.NS</t>
+  </si>
+  <si>
+    <t>ERIS.NS</t>
+  </si>
+  <si>
+    <t>LAURUSLABS.NS</t>
+  </si>
+  <si>
+    <t>FSL.NS</t>
+  </si>
+  <si>
+    <t>VINATIORGA.NS</t>
+  </si>
+  <si>
+    <t>JUSTDIAL.NS</t>
+  </si>
+  <si>
+    <t>RITES.NS</t>
+  </si>
+  <si>
+    <t>AMBER.NS</t>
+  </si>
+  <si>
+    <t>VIPIND.NS</t>
+  </si>
+  <si>
+    <t>SJVN.NS</t>
+  </si>
+  <si>
+    <t>RHIM.NS</t>
+  </si>
+  <si>
+    <t>JSL.NS</t>
+  </si>
+  <si>
+    <t>THERMAX.NS</t>
+  </si>
+  <si>
+    <t>KEI.NS</t>
+  </si>
+  <si>
     <t>FLUOROCHEM.NS</t>
-  </si>
-  <si>
-    <t>RELAXO.NS</t>
-  </si>
-  <si>
-    <t>VBL.NS</t>
-  </si>
-  <si>
-    <t>PRESTIGE.NS</t>
-  </si>
-  <si>
-    <t>ECLERX.NS</t>
-  </si>
-  <si>
-    <t>LUXIND.NS</t>
-  </si>
-  <si>
-    <t>GNFC.NS</t>
-  </si>
-  <si>
-    <t>What</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>SL1</t>
-  </si>
-  <si>
-    <t>SL2</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>15DayClose</t>
-  </si>
-  <si>
-    <t>NoD</t>
-  </si>
-  <si>
-    <t>result dummy</t>
-  </si>
-  <si>
-    <t>TRITURBINE.NS</t>
-  </si>
-  <si>
-    <t>ABB.NS</t>
-  </si>
-  <si>
-    <t>IRCON.NS</t>
-  </si>
-  <si>
-    <t>IFBIND.NS</t>
-  </si>
-  <si>
-    <t>PGHH.NS</t>
-  </si>
-  <si>
-    <t>STAGNANT</t>
-  </si>
-  <si>
-    <t>INDOCO.NS</t>
-  </si>
-  <si>
-    <t>LAXMIMACH.NS</t>
-  </si>
-  <si>
-    <t>HINDZINC.NS</t>
-  </si>
-  <si>
-    <t>TIMKEN.NS</t>
-  </si>
-  <si>
-    <t>EIDPARRY.NS</t>
-  </si>
-  <si>
-    <t>JAMNAAUTO.NS</t>
-  </si>
-  <si>
-    <t>VTL.NS</t>
-  </si>
-  <si>
-    <t>NOCIL.NS</t>
-  </si>
-  <si>
-    <t>ERIS.NS</t>
-  </si>
-  <si>
-    <t>LAURUSLABS.NS</t>
-  </si>
-  <si>
-    <t>FSL.NS</t>
-  </si>
-  <si>
-    <t>VINATIORGA.NS</t>
-  </si>
-  <si>
-    <t>JUSTDIAL.NS</t>
-  </si>
-  <si>
-    <t>RITES.NS</t>
-  </si>
-  <si>
-    <t>AMBER.NS</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>VIPIND.NS</t>
-  </si>
-  <si>
-    <t>SJVN.NS</t>
-  </si>
-  <si>
-    <t>RHIM.NS</t>
-  </si>
-  <si>
-    <t>JSL.NS</t>
-  </si>
-  <si>
-    <t>THERMAX.NS</t>
   </si>
 </sst>
 </file>
@@ -277,20 +277,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,25 +580,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -619,16 +610,16 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -639,40 +630,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44575</v>
+        <v>44580</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>499.65</v>
+        <v>1222.5</v>
       </c>
       <c r="F2">
-        <v>468.25</v>
+        <v>1152.56</v>
       </c>
       <c r="G2">
-        <v>464.03</v>
+        <v>1113.9000000000001</v>
       </c>
       <c r="H2">
-        <v>514.64</v>
+        <v>1259.17</v>
       </c>
       <c r="I2">
-        <v>515.6</v>
+        <v>1274.53</v>
       </c>
       <c r="J2">
-        <v>529.22</v>
+        <v>1327.78</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="L2">
-        <v>504.2</v>
+        <v>1076.2</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -683,40 +674,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>596.4</v>
+        <v>499.65</v>
       </c>
       <c r="F3">
-        <v>568.29</v>
+        <v>468.25</v>
       </c>
       <c r="G3">
-        <v>551.22</v>
+        <v>464.03</v>
       </c>
       <c r="H3">
-        <v>614.29</v>
+        <v>514.64</v>
       </c>
       <c r="I3">
-        <v>669</v>
+        <v>515.6</v>
       </c>
       <c r="J3">
-        <v>780.4</v>
+        <v>529.22</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>588.15</v>
+        <v>488.3</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -727,40 +718,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>31.8</v>
+        <v>596.4</v>
       </c>
       <c r="F4">
-        <v>29.37</v>
+        <v>568.29</v>
       </c>
       <c r="G4">
-        <v>28.98</v>
+        <v>551.22</v>
       </c>
       <c r="H4">
-        <v>32.75</v>
+        <v>614.29</v>
       </c>
       <c r="I4">
-        <v>32.799999999999997</v>
+        <v>669</v>
       </c>
       <c r="J4">
-        <v>33.520000000000003</v>
+        <v>780.4</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>31.35</v>
+        <v>599.45000000000005</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -774,37 +765,37 @@
         <v>44571</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>382.05</v>
+        <v>31.8</v>
       </c>
       <c r="F5">
-        <v>367</v>
+        <v>29.37</v>
       </c>
       <c r="G5">
-        <v>356.22</v>
+        <v>28.98</v>
       </c>
       <c r="H5">
-        <v>391.12</v>
+        <v>32.75</v>
       </c>
       <c r="I5">
-        <v>393.51</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J5">
-        <v>403.35</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L5">
-        <v>421</v>
+        <v>30.65</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -815,37 +806,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>158.69999999999999</v>
+        <v>382.05</v>
       </c>
       <c r="F6">
-        <v>147.59</v>
+        <v>367</v>
       </c>
       <c r="G6">
-        <v>147.49</v>
+        <v>356.22</v>
       </c>
       <c r="H6">
-        <v>163.46</v>
+        <v>391.12</v>
       </c>
       <c r="I6">
-        <v>166.75</v>
+        <v>393.51</v>
       </c>
       <c r="J6">
-        <v>184.75</v>
+        <v>403.35</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>176.2</v>
+        <v>434.7</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -862,34 +853,34 @@
         <v>44568</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>200.65</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F7">
-        <v>190.7</v>
+        <v>147.59</v>
       </c>
       <c r="G7">
-        <v>183.28</v>
+        <v>147.49</v>
       </c>
       <c r="H7">
-        <v>206.67</v>
+        <v>163.46</v>
       </c>
       <c r="I7">
-        <v>214.8</v>
+        <v>166.75</v>
       </c>
       <c r="J7">
-        <v>223.1</v>
+        <v>184.75</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>204.65</v>
+        <v>157.75</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>4</v>
@@ -903,37 +894,37 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>1903.9</v>
+        <v>200.65</v>
       </c>
       <c r="F8">
-        <v>1755.34</v>
+        <v>190.7</v>
       </c>
       <c r="G8">
-        <v>1642.64</v>
+        <v>183.28</v>
       </c>
       <c r="H8">
-        <v>1961.02</v>
+        <v>206.67</v>
       </c>
       <c r="I8">
-        <v>1969.95</v>
+        <v>214.8</v>
       </c>
       <c r="J8">
-        <v>2061.4699999999998</v>
+        <v>223.1</v>
       </c>
       <c r="K8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L8">
-        <v>2068.0500000000002</v>
+        <v>201.05</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
         <v>4</v>
@@ -947,39 +938,39 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>44539</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2228.5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2108.85</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1997.53</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2295.36</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2360.58</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2638.53</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2244.5500000000002</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5" t="s">
+        <v>44566</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>1903.9</v>
+      </c>
+      <c r="F9">
+        <v>1755.34</v>
+      </c>
+      <c r="G9">
+        <v>1642.64</v>
+      </c>
+      <c r="H9">
+        <v>1961.02</v>
+      </c>
+      <c r="I9">
+        <v>1969.95</v>
+      </c>
+      <c r="J9">
+        <v>2061.4699999999998</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1977.45</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -991,37 +982,37 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>44533</v>
+        <v>44539</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>364.15</v>
+        <v>2228.5</v>
       </c>
       <c r="F10">
-        <v>337.79</v>
+        <v>2108.85</v>
       </c>
       <c r="G10">
-        <v>318.74</v>
+        <v>1997.53</v>
       </c>
       <c r="H10">
-        <v>375.07</v>
+        <v>2295.36</v>
       </c>
       <c r="I10">
-        <v>385.52</v>
+        <v>2360.58</v>
       </c>
       <c r="J10">
-        <v>403.45</v>
+        <v>2638.53</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L10">
-        <v>421.05</v>
+        <v>2226.6</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>4</v>
@@ -1038,37 +1029,37 @@
         <v>44533</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>154.94999999999999</v>
+        <v>364.15</v>
       </c>
       <c r="F11">
-        <v>151.22</v>
+        <v>337.79</v>
       </c>
       <c r="G11">
-        <v>147.36000000000001</v>
+        <v>318.74</v>
       </c>
       <c r="H11">
-        <v>159.6</v>
+        <v>375.07</v>
       </c>
       <c r="I11">
-        <v>160.97999999999999</v>
+        <v>385.52</v>
       </c>
       <c r="J11">
-        <v>167.95</v>
+        <v>403.45</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>146.05000000000001</v>
+        <v>424</v>
       </c>
       <c r="M11">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1079,40 +1070,40 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>5080.25</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="F12">
-        <v>4957.96</v>
+        <v>151.22</v>
       </c>
       <c r="G12">
-        <v>4845.8599999999997</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="H12">
-        <v>5220.53</v>
+        <v>159.6</v>
       </c>
       <c r="I12">
-        <v>5232.66</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="J12">
-        <v>5311.9</v>
+        <v>167.95</v>
       </c>
       <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>145.9</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>5060.1000000000004</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1123,37 +1114,37 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>44526</v>
+        <v>44531</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>1810.1</v>
+        <v>5080.25</v>
       </c>
       <c r="F13">
-        <v>1745.93</v>
+        <v>4957.96</v>
       </c>
       <c r="G13">
-        <v>1715.01</v>
+        <v>4845.8599999999997</v>
       </c>
       <c r="H13">
-        <v>1864.4</v>
+        <v>5220.53</v>
       </c>
       <c r="I13">
-        <v>1887.2</v>
+        <v>5232.66</v>
       </c>
       <c r="J13">
-        <v>2088.1999999999998</v>
+        <v>5311.9</v>
       </c>
       <c r="K13" t="s">
         <v>3</v>
       </c>
       <c r="L13">
-        <v>1974.55</v>
+        <v>5060.1000000000004</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
         <v>4</v>
@@ -1167,37 +1158,37 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>142.9</v>
+        <v>1810.1</v>
       </c>
       <c r="F14">
-        <v>133.26</v>
+        <v>1745.93</v>
       </c>
       <c r="G14">
-        <v>127.28</v>
+        <v>1715.01</v>
       </c>
       <c r="H14">
-        <v>147.19</v>
+        <v>1864.4</v>
       </c>
       <c r="I14">
-        <v>149.35</v>
+        <v>1887.2</v>
       </c>
       <c r="J14">
-        <v>156.41999999999999</v>
+        <v>2088.1999999999998</v>
       </c>
       <c r="K14" t="s">
         <v>3</v>
       </c>
       <c r="L14">
-        <v>149.30000000000001</v>
+        <v>1974.55</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
         <v>4</v>
@@ -1211,40 +1202,40 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>44517</v>
+        <v>44522</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>230.3</v>
+        <v>142.9</v>
       </c>
       <c r="F15">
-        <v>218.03</v>
+        <v>133.26</v>
       </c>
       <c r="G15">
-        <v>214.41</v>
+        <v>127.28</v>
       </c>
       <c r="H15">
-        <v>237.21</v>
+        <v>147.19</v>
       </c>
       <c r="I15">
-        <v>241.3</v>
+        <v>149.35</v>
       </c>
       <c r="J15">
-        <v>258</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="K15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>213.5</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1255,34 +1246,34 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>504</v>
+        <v>230.3</v>
       </c>
       <c r="F16">
-        <v>485.12</v>
+        <v>218.03</v>
       </c>
       <c r="G16">
-        <v>474.56</v>
+        <v>214.41</v>
       </c>
       <c r="H16">
-        <v>519.12</v>
+        <v>237.21</v>
       </c>
       <c r="I16">
-        <v>564.98</v>
+        <v>241.3</v>
       </c>
       <c r="J16">
-        <v>657.23</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
       </c>
       <c r="L16">
-        <v>425.5</v>
+        <v>213.5</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -1302,34 +1293,34 @@
         <v>44516</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>2288.75</v>
+        <v>504</v>
       </c>
       <c r="F17">
-        <v>2194.21</v>
+        <v>485.12</v>
       </c>
       <c r="G17">
-        <v>2184.1799999999998</v>
+        <v>474.56</v>
       </c>
       <c r="H17">
-        <v>2357.41</v>
+        <v>519.12</v>
       </c>
       <c r="I17">
-        <v>2392.4499999999998</v>
+        <v>564.98</v>
       </c>
       <c r="J17">
-        <v>2609.85</v>
+        <v>657.23</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
       <c r="L17">
-        <v>1911.7</v>
+        <v>425.5</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
         <v>6</v>
@@ -1343,37 +1334,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>367.8</v>
+        <v>2288.75</v>
       </c>
       <c r="F18">
-        <v>356.44</v>
+        <v>2194.21</v>
       </c>
       <c r="G18">
-        <v>341.13</v>
+        <v>2184.1799999999998</v>
       </c>
       <c r="H18">
-        <v>378.83</v>
+        <v>2357.41</v>
       </c>
       <c r="I18">
-        <v>387.22</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J18">
-        <v>433.87</v>
+        <v>2609.85</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
       </c>
       <c r="L18">
-        <v>374.15</v>
+        <v>1911.7</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
         <v>6</v>
@@ -1390,37 +1381,37 @@
         <v>44515</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>926.25</v>
+        <v>367.8</v>
       </c>
       <c r="F19">
-        <v>869.94</v>
+        <v>356.44</v>
       </c>
       <c r="G19">
-        <v>866.86</v>
+        <v>341.13</v>
       </c>
       <c r="H19">
-        <v>954.04</v>
+        <v>378.83</v>
       </c>
       <c r="I19">
-        <v>959.1</v>
+        <v>387.22</v>
       </c>
       <c r="J19">
-        <v>1056.0999999999999</v>
+        <v>433.87</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>918.2</v>
+        <v>374.15</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1431,37 +1422,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>922.15</v>
+        <v>926.25</v>
       </c>
       <c r="F20">
-        <v>866.97</v>
+        <v>869.94</v>
       </c>
       <c r="G20">
-        <v>846.17</v>
+        <v>866.86</v>
       </c>
       <c r="H20">
-        <v>949.81</v>
+        <v>954.04</v>
       </c>
       <c r="I20">
-        <v>959.97</v>
+        <v>959.1</v>
       </c>
       <c r="J20">
-        <v>1104.8699999999999</v>
+        <v>1056.0999999999999</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L20">
-        <v>925.35</v>
+        <v>918.2</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N20" t="s">
         <v>4</v>
@@ -1478,37 +1469,37 @@
         <v>44512</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>2252.3000000000002</v>
+        <v>922.15</v>
       </c>
       <c r="F21">
-        <v>2189.8000000000002</v>
+        <v>866.97</v>
       </c>
       <c r="G21">
-        <v>2179.61</v>
+        <v>846.17</v>
       </c>
       <c r="H21">
-        <v>2319.87</v>
+        <v>949.81</v>
       </c>
       <c r="I21">
-        <v>2392.4499999999998</v>
+        <v>959.97</v>
       </c>
       <c r="J21">
-        <v>2609.85</v>
+        <v>1104.8699999999999</v>
       </c>
       <c r="K21" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L21">
-        <v>2042.05</v>
+        <v>925.35</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1519,40 +1510,40 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>4169.55</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="F22">
-        <v>4107.1499999999996</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="G22">
-        <v>3788.59</v>
+        <v>2179.61</v>
       </c>
       <c r="H22">
-        <v>4294.6400000000003</v>
+        <v>2319.87</v>
       </c>
       <c r="I22">
-        <v>4574.22</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J22">
-        <v>4830.2700000000004</v>
+        <v>2609.85</v>
       </c>
       <c r="K22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>3861.95</v>
+        <v>2042.05</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1563,34 +1554,34 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>2006.35</v>
+        <v>4169.55</v>
       </c>
       <c r="F23">
-        <v>1940.16</v>
+        <v>4107.1499999999996</v>
       </c>
       <c r="G23">
-        <v>1849.85</v>
+        <v>3788.59</v>
       </c>
       <c r="H23">
-        <v>2066.54</v>
+        <v>4294.6400000000003</v>
       </c>
       <c r="I23">
-        <v>2111.6</v>
+        <v>4574.22</v>
       </c>
       <c r="J23">
-        <v>2406.8000000000002</v>
+        <v>4830.2700000000004</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>1966.85</v>
+        <v>3861.95</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -1607,40 +1598,40 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E24">
-        <v>1438</v>
+        <v>2006.35</v>
       </c>
       <c r="F24">
-        <v>1348.05</v>
+        <v>1940.16</v>
       </c>
       <c r="G24">
-        <v>1246.52</v>
+        <v>1849.85</v>
       </c>
       <c r="H24">
-        <v>1481.14</v>
+        <v>2066.54</v>
       </c>
       <c r="I24">
-        <v>1500.53</v>
+        <v>2111.6</v>
       </c>
       <c r="J24">
-        <v>1557.03</v>
+        <v>2406.8000000000002</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L24">
-        <v>1292.45</v>
+        <v>1966.85</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1651,40 +1642,40 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25">
-        <v>940</v>
+        <v>1438</v>
       </c>
       <c r="F25">
-        <v>889.59</v>
+        <v>1348.05</v>
       </c>
       <c r="G25">
-        <v>877.45</v>
+        <v>1246.52</v>
       </c>
       <c r="H25">
-        <v>968.2</v>
+        <v>1481.14</v>
       </c>
       <c r="I25">
-        <v>976.45</v>
+        <v>1500.53</v>
       </c>
       <c r="J25">
-        <v>1092.05</v>
+        <v>1557.03</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>911.3</v>
+        <v>1292.45</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1698,31 +1689,31 @@
         <v>44503</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>467.25</v>
+        <v>940</v>
       </c>
       <c r="F26">
-        <v>449.1</v>
+        <v>889.59</v>
       </c>
       <c r="G26">
-        <v>434.55</v>
+        <v>877.45</v>
       </c>
       <c r="H26">
-        <v>481.27</v>
+        <v>968.2</v>
       </c>
       <c r="I26">
-        <v>483.37</v>
+        <v>976.45</v>
       </c>
       <c r="J26">
-        <v>540.63</v>
+        <v>1092.05</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
       </c>
       <c r="L26">
-        <v>467.45</v>
+        <v>911.3</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -1742,34 +1733,34 @@
         <v>44503</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>2376.5500000000002</v>
+        <v>467.25</v>
       </c>
       <c r="F27">
-        <v>2227.59</v>
+        <v>449.1</v>
       </c>
       <c r="G27">
-        <v>2195.98</v>
+        <v>434.55</v>
       </c>
       <c r="H27">
-        <v>2447.7800000000002</v>
+        <v>481.27</v>
       </c>
       <c r="I27">
-        <v>2447.85</v>
+        <v>483.37</v>
       </c>
       <c r="J27">
-        <v>2581.4299999999998</v>
+        <v>540.63</v>
       </c>
       <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27">
+        <v>467.45</v>
+      </c>
+      <c r="M27">
         <v>3</v>
-      </c>
-      <c r="L27">
-        <v>2332.1</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
       </c>
       <c r="N27" t="s">
         <v>4</v>
@@ -1786,31 +1777,31 @@
         <v>44503</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3960.1</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="F28">
-        <v>3811.12</v>
+        <v>2227.59</v>
       </c>
       <c r="G28">
-        <v>3778.9</v>
+        <v>2195.98</v>
       </c>
       <c r="H28">
-        <v>4078.9</v>
+        <v>2447.7800000000002</v>
       </c>
       <c r="I28">
-        <v>4094.88</v>
+        <v>2447.85</v>
       </c>
       <c r="J28">
-        <v>4611.7299999999996</v>
+        <v>2581.4299999999998</v>
       </c>
       <c r="K28" t="s">
         <v>3</v>
       </c>
       <c r="L28">
-        <v>4220.7</v>
+        <v>2332.1</v>
       </c>
       <c r="M28">
         <v>10</v>
@@ -1827,40 +1818,40 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>503</v>
+        <v>3960.1</v>
       </c>
       <c r="F29">
-        <v>468.45</v>
+        <v>3811.12</v>
       </c>
       <c r="G29">
-        <v>404.65</v>
+        <v>3778.9</v>
       </c>
       <c r="H29">
-        <v>518.09</v>
+        <v>4078.9</v>
       </c>
       <c r="I29">
-        <v>538.33000000000004</v>
+        <v>4094.88</v>
       </c>
       <c r="J29">
-        <v>564.23</v>
+        <v>4611.7299999999996</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>407.5</v>
+        <v>4220.7</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1871,37 +1862,40 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>183.95</v>
+        <v>503</v>
       </c>
       <c r="F30">
-        <v>172.67</v>
+        <v>468.45</v>
       </c>
       <c r="G30">
-        <v>150.44</v>
+        <v>404.65</v>
       </c>
       <c r="H30">
-        <v>189.47</v>
+        <v>518.09</v>
       </c>
       <c r="I30">
-        <v>220.63</v>
+        <v>538.33000000000004</v>
+      </c>
+      <c r="J30">
+        <v>564.23</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>166.8</v>
+        <v>407.5</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1912,34 +1906,31 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>1947.1</v>
+        <v>183.95</v>
       </c>
       <c r="F31">
-        <v>1858.11</v>
+        <v>172.67</v>
       </c>
       <c r="G31">
-        <v>1845.66</v>
+        <v>150.44</v>
       </c>
       <c r="H31">
-        <v>2005.51</v>
+        <v>189.47</v>
       </c>
       <c r="I31">
-        <v>2022.07</v>
-      </c>
-      <c r="J31">
-        <v>2175.9699999999998</v>
+        <v>220.63</v>
       </c>
       <c r="K31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L31">
-        <v>2149.5500000000002</v>
+        <v>166.8</v>
       </c>
       <c r="M31">
         <v>8</v>
@@ -1956,34 +1947,37 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>44491</v>
+        <v>44497</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>50.1</v>
+        <v>1947.1</v>
       </c>
       <c r="F32">
-        <v>46.38</v>
+        <v>1858.11</v>
       </c>
       <c r="G32">
-        <v>45.6</v>
+        <v>1845.66</v>
       </c>
       <c r="H32">
-        <v>52.35</v>
+        <v>2005.51</v>
       </c>
       <c r="I32">
-        <v>52.7</v>
+        <v>2022.07</v>
+      </c>
+      <c r="J32">
+        <v>2175.9699999999998</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>48.8</v>
+        <v>2149.5500000000002</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N32" t="s">
         <v>4</v>
@@ -2000,34 +1994,31 @@
         <v>44491</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>1243.3</v>
+        <v>50.1</v>
       </c>
       <c r="F33">
-        <v>1184.8599999999999</v>
+        <v>46.38</v>
       </c>
       <c r="G33">
-        <v>1112.71</v>
+        <v>45.6</v>
       </c>
       <c r="H33">
-        <v>1299.25</v>
+        <v>52.35</v>
       </c>
       <c r="I33">
-        <v>1328.27</v>
-      </c>
-      <c r="J33">
-        <v>1397.58</v>
+        <v>52.7</v>
       </c>
       <c r="K33" t="s">
         <v>15</v>
       </c>
       <c r="L33">
-        <v>1270.1500000000001</v>
+        <v>48.8</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
         <v>4</v>
@@ -2041,40 +2032,40 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34">
-        <v>14400.05</v>
+        <v>1243.3</v>
       </c>
       <c r="F34">
-        <v>13928.9</v>
+        <v>1184.8599999999999</v>
       </c>
       <c r="G34">
-        <v>13651.23</v>
+        <v>1112.71</v>
       </c>
       <c r="H34">
-        <v>14887.35</v>
+        <v>1299.25</v>
       </c>
       <c r="I34">
-        <v>15048.05</v>
+        <v>1328.27</v>
       </c>
       <c r="J34">
-        <v>15158.53</v>
+        <v>1397.58</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="L34">
-        <v>14644.95</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2085,40 +2076,40 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35">
-        <v>14400</v>
+        <v>14400.05</v>
       </c>
       <c r="F35">
-        <v>13915.11</v>
+        <v>13928.9</v>
       </c>
       <c r="G35">
-        <v>13616.79</v>
+        <v>13651.23</v>
       </c>
       <c r="H35">
         <v>14887.35</v>
       </c>
       <c r="I35">
-        <v>15048</v>
+        <v>15048.05</v>
       </c>
       <c r="J35">
         <v>15158.53</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35">
-        <v>14453.9</v>
+        <v>14644.95</v>
       </c>
       <c r="M35">
         <v>15</v>
       </c>
       <c r="N35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2132,37 +2123,37 @@
         <v>44489</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>497.95</v>
+        <v>14400</v>
       </c>
       <c r="F36">
-        <v>461.51</v>
+        <v>13915.11</v>
       </c>
       <c r="G36">
-        <v>455.19</v>
+        <v>13616.79</v>
       </c>
       <c r="H36">
-        <v>520.36</v>
+        <v>14887.35</v>
       </c>
       <c r="I36">
-        <v>520.41999999999996</v>
+        <v>15048</v>
       </c>
       <c r="J36">
-        <v>580.41999999999996</v>
+        <v>15158.53</v>
       </c>
       <c r="K36" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L36">
-        <v>428.55</v>
+        <v>14453.9</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2173,37 +2164,40 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>44483</v>
+        <v>44489</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37">
-        <v>8928</v>
+        <v>497.95</v>
       </c>
       <c r="F37">
-        <v>8199.61</v>
+        <v>461.51</v>
       </c>
       <c r="G37">
-        <v>8071.6</v>
+        <v>455.19</v>
       </c>
       <c r="H37">
-        <v>9329.76</v>
+        <v>520.36</v>
       </c>
       <c r="I37">
-        <v>9446.1</v>
+        <v>520.41999999999996</v>
+      </c>
+      <c r="J37">
+        <v>580.41999999999996</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>9105.75</v>
+        <v>428.55</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2217,28 +2211,28 @@
         <v>44483</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>358</v>
+        <v>8928</v>
       </c>
       <c r="F38">
-        <v>327.27999999999997</v>
+        <v>8199.61</v>
       </c>
       <c r="G38">
-        <v>321.62</v>
+        <v>8071.6</v>
       </c>
       <c r="H38">
-        <v>374.11</v>
+        <v>9329.76</v>
       </c>
       <c r="I38">
-        <v>377.57</v>
+        <v>9446.1</v>
       </c>
       <c r="K38" t="s">
         <v>15</v>
       </c>
       <c r="L38">
-        <v>318.55</v>
+        <v>9105.75</v>
       </c>
       <c r="M38">
         <v>2</v>
@@ -2255,40 +2249,37 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39">
-        <v>1840.1</v>
+        <v>358</v>
       </c>
       <c r="F39">
-        <v>1728.38</v>
+        <v>327.27999999999997</v>
       </c>
       <c r="G39">
-        <v>1649.84</v>
+        <v>321.62</v>
       </c>
       <c r="H39">
-        <v>1922.9</v>
+        <v>374.11</v>
       </c>
       <c r="I39">
-        <v>1954.85</v>
-      </c>
-      <c r="J39">
-        <v>2179.75</v>
+        <v>377.57</v>
       </c>
       <c r="K39" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L39">
-        <v>1792.45</v>
+        <v>318.55</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2299,40 +2290,40 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E40">
-        <v>456.35</v>
+        <v>1840.1</v>
       </c>
       <c r="F40">
-        <v>431.76</v>
+        <v>1728.38</v>
       </c>
       <c r="G40">
-        <v>421.61</v>
+        <v>1649.84</v>
       </c>
       <c r="H40">
-        <v>476.89</v>
+        <v>1922.9</v>
       </c>
       <c r="I40">
-        <v>476.9</v>
+        <v>1954.85</v>
       </c>
       <c r="J40">
-        <v>531.9</v>
+        <v>2179.75</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L40">
-        <v>464.65</v>
+        <v>1792.45</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2346,31 +2337,31 @@
         <v>44481</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41">
-        <v>96.3</v>
+        <v>456.35</v>
       </c>
       <c r="F41">
-        <v>91.74</v>
+        <v>431.76</v>
       </c>
       <c r="G41">
-        <v>88.31</v>
+        <v>421.61</v>
       </c>
       <c r="H41">
-        <v>100.63</v>
+        <v>476.89</v>
       </c>
       <c r="I41">
-        <v>106.95</v>
+        <v>476.9</v>
       </c>
       <c r="J41">
-        <v>122.7</v>
+        <v>531.9</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L41">
-        <v>102.55</v>
+        <v>464.65</v>
       </c>
       <c r="M41">
         <v>2</v>
@@ -2390,31 +2381,31 @@
         <v>44481</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E42">
-        <v>2025</v>
+        <v>96.3</v>
       </c>
       <c r="F42">
-        <v>1869.62</v>
+        <v>91.74</v>
       </c>
       <c r="G42">
-        <v>1853.79</v>
+        <v>88.31</v>
       </c>
       <c r="H42">
-        <v>2116.13</v>
+        <v>100.63</v>
       </c>
       <c r="I42">
-        <v>2147.83</v>
+        <v>106.95</v>
       </c>
       <c r="J42">
-        <v>2419.38</v>
+        <v>122.7</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>1993.8</v>
+        <v>102.55</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -2431,40 +2422,40 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43">
-        <v>313.55</v>
+        <v>2025</v>
       </c>
       <c r="F43">
-        <v>297.8</v>
+        <v>1869.62</v>
       </c>
       <c r="G43">
-        <v>282.27</v>
+        <v>1853.79</v>
       </c>
       <c r="H43">
-        <v>323.38</v>
+        <v>2116.13</v>
       </c>
       <c r="I43">
-        <v>327.66000000000003</v>
+        <v>2147.83</v>
       </c>
       <c r="J43">
-        <v>334.27</v>
+        <v>2419.38</v>
       </c>
       <c r="K43" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L43">
-        <v>269.75</v>
+        <v>1993.8</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2475,40 +2466,40 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E44">
-        <v>789.25</v>
+        <v>313.55</v>
       </c>
       <c r="F44">
-        <v>757.08</v>
+        <v>297.8</v>
       </c>
       <c r="G44">
-        <v>751.14</v>
+        <v>282.27</v>
       </c>
       <c r="H44">
-        <v>816.23</v>
+        <v>323.38</v>
       </c>
       <c r="I44">
-        <v>824.77</v>
+        <v>327.66000000000003</v>
       </c>
       <c r="J44">
-        <v>834.78</v>
+        <v>334.27</v>
       </c>
       <c r="K44" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L44">
-        <v>821</v>
+        <v>269.75</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2522,37 +2513,37 @@
         <v>44477</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45">
-        <v>656.4</v>
+        <v>789.25</v>
       </c>
       <c r="F45">
-        <v>653</v>
+        <v>757.08</v>
       </c>
       <c r="G45">
-        <v>632.46</v>
+        <v>751.14</v>
       </c>
       <c r="H45">
-        <v>685.94</v>
+        <v>816.23</v>
       </c>
       <c r="I45">
-        <v>708.65</v>
+        <v>824.77</v>
       </c>
       <c r="J45">
-        <v>792.4</v>
+        <v>834.78</v>
       </c>
       <c r="K45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>515.79999999999995</v>
+        <v>821</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2566,37 +2557,37 @@
         <v>44477</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E46">
-        <v>97.75</v>
+        <v>656.4</v>
       </c>
       <c r="F46">
-        <v>90.97</v>
+        <v>653</v>
       </c>
       <c r="G46">
-        <v>88.12</v>
+        <v>632.46</v>
       </c>
       <c r="H46">
-        <v>102.15</v>
+        <v>685.94</v>
       </c>
       <c r="I46">
-        <v>106.95</v>
+        <v>708.65</v>
       </c>
       <c r="J46">
-        <v>122.7</v>
+        <v>792.4</v>
       </c>
       <c r="K46" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L46">
-        <v>97.45</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2610,37 +2601,37 @@
         <v>44477</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>1965.1</v>
+        <v>97.75</v>
       </c>
       <c r="F47">
-        <v>1863.54</v>
+        <v>90.97</v>
       </c>
       <c r="G47">
-        <v>1850.86</v>
+        <v>88.12</v>
       </c>
       <c r="H47">
-        <v>2053.5300000000002</v>
+        <v>102.15</v>
       </c>
       <c r="I47">
-        <v>2073.9699999999998</v>
+        <v>106.95</v>
       </c>
       <c r="J47">
-        <v>2147.83</v>
+        <v>122.7</v>
       </c>
       <c r="K47" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L47">
-        <v>1946.05</v>
+        <v>97.45</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N47" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2654,34 +2645,34 @@
         <v>44477</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>211.55</v>
+        <v>1965.1</v>
       </c>
       <c r="F48">
-        <v>199.66</v>
+        <v>1863.54</v>
       </c>
       <c r="G48">
-        <v>195.14</v>
+        <v>1850.86</v>
       </c>
       <c r="H48">
-        <v>221.07</v>
+        <v>2053.5300000000002</v>
       </c>
       <c r="I48">
-        <v>222.5</v>
+        <v>2073.9699999999998</v>
       </c>
       <c r="J48">
-        <v>231.5</v>
+        <v>2147.83</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>197.65</v>
+        <v>1946.05</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
         <v>4</v>
@@ -2695,37 +2686,40 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49">
-        <v>2141.3000000000002</v>
+        <v>211.55</v>
       </c>
       <c r="F49">
-        <v>1927.17</v>
+        <v>199.66</v>
       </c>
       <c r="G49">
-        <v>1897.63</v>
+        <v>195.14</v>
       </c>
       <c r="H49">
-        <v>2237.66</v>
+        <v>221.07</v>
       </c>
       <c r="I49">
-        <v>2357.87</v>
+        <v>222.5</v>
+      </c>
+      <c r="J49">
+        <v>231.5</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="L49">
-        <v>1949.45</v>
+        <v>197.65</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -2739,34 +2733,34 @@
         <v>44476</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E50">
-        <v>1304.5</v>
+        <v>2141.3000000000002</v>
       </c>
       <c r="F50">
-        <v>1181.8499999999999</v>
+        <v>1927.17</v>
       </c>
       <c r="G50">
-        <v>1177.8599999999999</v>
+        <v>1897.63</v>
       </c>
       <c r="H50">
-        <v>1357.02</v>
+        <v>2237.66</v>
       </c>
       <c r="I50">
-        <v>1363.2</v>
+        <v>2357.87</v>
       </c>
       <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50">
+        <v>1949.45</v>
+      </c>
+      <c r="M50">
         <v>15</v>
       </c>
-      <c r="L50">
-        <v>1313.25</v>
-      </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
       <c r="N50" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2780,34 +2774,34 @@
         <v>44476</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E51">
-        <v>1046</v>
+        <v>1304.5</v>
       </c>
       <c r="F51">
-        <v>991.55</v>
+        <v>1181.8499999999999</v>
       </c>
       <c r="G51">
-        <v>975.33</v>
+        <v>1177.8599999999999</v>
       </c>
       <c r="H51">
-        <v>1093.07</v>
+        <v>1357.02</v>
       </c>
       <c r="I51">
-        <v>1100.17</v>
+        <v>1363.2</v>
       </c>
       <c r="K51" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L51">
-        <v>804.35</v>
+        <v>1313.25</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -2821,34 +2815,31 @@
         <v>44476</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E52">
-        <v>310.7</v>
+        <v>1046</v>
       </c>
       <c r="F52">
-        <v>295.52999999999997</v>
+        <v>991.55</v>
       </c>
       <c r="G52">
-        <v>280.48</v>
+        <v>975.33</v>
       </c>
       <c r="H52">
-        <v>323.38</v>
+        <v>1093.07</v>
       </c>
       <c r="I52">
-        <v>324.68</v>
-      </c>
-      <c r="J52">
-        <v>334.27</v>
+        <v>1100.17</v>
       </c>
       <c r="K52" t="s">
         <v>6</v>
       </c>
       <c r="L52">
-        <v>273.3</v>
+        <v>804.35</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
         <v>6</v>
@@ -2862,40 +2853,40 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E53">
-        <v>214.3</v>
+        <v>310.7</v>
       </c>
       <c r="F53">
-        <v>206.45</v>
+        <v>295.52999999999997</v>
       </c>
       <c r="G53">
-        <v>205.8</v>
+        <v>280.48</v>
       </c>
       <c r="H53">
-        <v>223.94</v>
+        <v>323.38</v>
       </c>
       <c r="I53">
-        <v>225.65</v>
+        <v>324.68</v>
       </c>
       <c r="J53">
-        <v>245.35</v>
+        <v>334.27</v>
       </c>
       <c r="K53" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L53">
-        <v>214.4</v>
+        <v>273.3</v>
       </c>
       <c r="M53">
         <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2906,34 +2897,37 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>289</v>
+        <v>214.3</v>
       </c>
       <c r="F54">
-        <v>276.52</v>
+        <v>206.45</v>
       </c>
       <c r="G54">
-        <v>272.33</v>
+        <v>205.8</v>
       </c>
       <c r="H54">
-        <v>302</v>
+        <v>223.94</v>
       </c>
       <c r="I54">
-        <v>306.18</v>
+        <v>225.65</v>
+      </c>
+      <c r="J54">
+        <v>245.35</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>283.05</v>
+        <v>214.4</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
         <v>4</v>
@@ -2947,39 +2941,80 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E55">
-        <v>3396.6</v>
+        <v>289</v>
       </c>
       <c r="F55">
-        <v>3162.72</v>
+        <v>276.52</v>
       </c>
       <c r="G55">
-        <v>3027.58</v>
+        <v>272.33</v>
       </c>
       <c r="H55">
-        <v>3549.45</v>
+        <v>302</v>
       </c>
       <c r="I55">
-        <v>3557.23</v>
-      </c>
-      <c r="J55">
-        <v>3951.23</v>
+        <v>306.18</v>
       </c>
       <c r="K55" t="s">
         <v>15</v>
       </c>
       <c r="L55">
+        <v>283.05</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44470</v>
+      </c>
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <v>3396.6</v>
+      </c>
+      <c r="F56">
+        <v>3162.72</v>
+      </c>
+      <c r="G56">
+        <v>3027.58</v>
+      </c>
+      <c r="H56">
+        <v>3549.45</v>
+      </c>
+      <c r="I56">
+        <v>3557.23</v>
+      </c>
+      <c r="J56">
+        <v>3951.23</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56">
         <v>3392.4</v>
       </c>
-      <c r="M55">
+      <c r="M56">
         <v>7</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N56" t="s">
         <v>4</v>
       </c>
     </row>

--- a/default/data/Clean/NCASH.xlsx
+++ b/default/data/Clean/NCASH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="69">
   <si>
     <t>Cash_N500</t>
   </si>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>FLUOROCHEM.NS</t>
+  </si>
+  <si>
+    <t>UFLEX.NS</t>
+  </si>
+  <si>
+    <t>BALRAMCHIN.NS</t>
+  </si>
+  <si>
+    <t>GSFC.NS</t>
+  </si>
+  <si>
+    <t>FINEORG.NS</t>
+  </si>
+  <si>
+    <t>BHARATRAS.NS</t>
   </si>
 </sst>
 </file>
@@ -563,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,40 +645,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44580</v>
+        <v>44617</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>1222.5</v>
+        <v>1981.95</v>
       </c>
       <c r="F2">
-        <v>1152.56</v>
+        <v>1978.68</v>
       </c>
       <c r="G2">
-        <v>1113.9000000000001</v>
+        <v>1958.01</v>
       </c>
       <c r="H2">
-        <v>1259.17</v>
+        <v>2034.08</v>
       </c>
       <c r="I2">
-        <v>1274.53</v>
+        <v>2041.41</v>
       </c>
       <c r="J2">
-        <v>1327.78</v>
+        <v>2090.85</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>1076.2</v>
+        <v>2027.45</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -674,37 +689,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44575</v>
+        <v>44606</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>499.65</v>
+        <v>553.25</v>
       </c>
       <c r="F3">
-        <v>468.25</v>
+        <v>534.80999999999995</v>
       </c>
       <c r="G3">
-        <v>464.03</v>
+        <v>520.91999999999996</v>
       </c>
       <c r="H3">
-        <v>514.64</v>
+        <v>569.85</v>
       </c>
       <c r="I3">
-        <v>515.6</v>
+        <v>584.75</v>
       </c>
       <c r="J3">
-        <v>529.22</v>
+        <v>651.35</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <v>488.3</v>
+        <v>519.9</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -718,37 +733,37 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44573</v>
+        <v>44601</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>596.4</v>
+        <v>1324</v>
       </c>
       <c r="F4">
-        <v>568.29</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="G4">
-        <v>551.22</v>
+        <v>1293.48</v>
       </c>
       <c r="H4">
-        <v>614.29</v>
+        <v>1363.72</v>
       </c>
       <c r="I4">
-        <v>669</v>
+        <v>1423.83</v>
       </c>
       <c r="J4">
-        <v>780.4</v>
+        <v>1570.18</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4">
-        <v>599.45000000000005</v>
+        <v>1216.9000000000001</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>6</v>
@@ -762,40 +777,40 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>44571</v>
+        <v>44599</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>31.8</v>
+        <v>452.75</v>
       </c>
       <c r="F5">
-        <v>29.37</v>
+        <v>430.28</v>
       </c>
       <c r="G5">
-        <v>28.98</v>
+        <v>377.77</v>
       </c>
       <c r="H5">
-        <v>32.75</v>
+        <v>466.33</v>
       </c>
       <c r="I5">
-        <v>32.799999999999997</v>
+        <v>468.63</v>
       </c>
       <c r="J5">
-        <v>33.520000000000003</v>
+        <v>490.85</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>30.65</v>
+        <v>391.9</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -806,37 +821,34 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>44571</v>
+        <v>44599</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>382.05</v>
+        <v>2142</v>
       </c>
       <c r="F6">
-        <v>367</v>
+        <v>2069.15</v>
       </c>
       <c r="G6">
-        <v>356.22</v>
+        <v>2052.2199999999998</v>
       </c>
       <c r="H6">
-        <v>391.12</v>
+        <v>2206.2600000000002</v>
       </c>
       <c r="I6">
-        <v>393.51</v>
-      </c>
-      <c r="J6">
-        <v>403.35</v>
+        <v>2250.3000000000002</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>434.7</v>
+        <v>2176.9499999999998</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -850,40 +862,40 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>44568</v>
+        <v>44599</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>158.69999999999999</v>
+        <v>133.6</v>
       </c>
       <c r="F7">
-        <v>147.59</v>
+        <v>128.38</v>
       </c>
       <c r="G7">
-        <v>147.49</v>
+        <v>124.6</v>
       </c>
       <c r="H7">
-        <v>163.46</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="I7">
-        <v>166.75</v>
+        <v>138.07</v>
       </c>
       <c r="J7">
-        <v>184.75</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>157.75</v>
+        <v>121.6</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -894,40 +906,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>44568</v>
+        <v>44596</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>200.65</v>
+        <v>4092</v>
       </c>
       <c r="F8">
-        <v>190.7</v>
+        <v>3776.95</v>
       </c>
       <c r="G8">
-        <v>183.28</v>
+        <v>3746.76</v>
       </c>
       <c r="H8">
-        <v>206.67</v>
+        <v>4214.76</v>
       </c>
       <c r="I8">
-        <v>214.8</v>
+        <v>4242.17</v>
       </c>
       <c r="J8">
-        <v>223.1</v>
+        <v>4730.0200000000004</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>201.05</v>
+        <v>3947.4</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -938,40 +950,40 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>1903.9</v>
+        <v>13206</v>
       </c>
       <c r="F9">
-        <v>1755.34</v>
+        <v>12389.2</v>
       </c>
       <c r="G9">
-        <v>1642.64</v>
+        <v>12025.37</v>
       </c>
       <c r="H9">
-        <v>1961.02</v>
+        <v>13579.15</v>
       </c>
       <c r="I9">
-        <v>1969.95</v>
+        <v>13602.18</v>
       </c>
       <c r="J9">
-        <v>2061.4699999999998</v>
+        <v>13936.05</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>1977.45</v>
+        <v>12185.55</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -982,40 +994,40 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>44539</v>
+        <v>44580</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E10">
-        <v>2228.5</v>
+        <v>1222.5</v>
       </c>
       <c r="F10">
-        <v>2108.85</v>
+        <v>1152.56</v>
       </c>
       <c r="G10">
-        <v>1997.53</v>
+        <v>1113.9000000000001</v>
       </c>
       <c r="H10">
-        <v>2295.36</v>
+        <v>1259.17</v>
       </c>
       <c r="I10">
-        <v>2360.58</v>
+        <v>1274.53</v>
       </c>
       <c r="J10">
-        <v>2638.53</v>
+        <v>1327.78</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>2226.6</v>
+        <v>1048.5999999999999</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1026,37 +1038,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>44533</v>
+        <v>44575</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>364.15</v>
+        <v>499.65</v>
       </c>
       <c r="F11">
-        <v>337.79</v>
+        <v>468.25</v>
       </c>
       <c r="G11">
-        <v>318.74</v>
+        <v>464.03</v>
       </c>
       <c r="H11">
-        <v>375.07</v>
+        <v>514.64</v>
       </c>
       <c r="I11">
-        <v>385.52</v>
+        <v>515.6</v>
       </c>
       <c r="J11">
-        <v>403.45</v>
+        <v>529.22</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
       </c>
       <c r="L11">
-        <v>424</v>
+        <v>469.95</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
         <v>4</v>
@@ -1070,37 +1082,37 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>44533</v>
+        <v>44573</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>154.94999999999999</v>
+        <v>596.4</v>
       </c>
       <c r="F12">
-        <v>151.22</v>
+        <v>568.29</v>
       </c>
       <c r="G12">
-        <v>147.36000000000001</v>
+        <v>551.22</v>
       </c>
       <c r="H12">
-        <v>159.6</v>
+        <v>614.29</v>
       </c>
       <c r="I12">
-        <v>160.97999999999999</v>
+        <v>669</v>
       </c>
       <c r="J12">
-        <v>167.95</v>
+        <v>780.4</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
       </c>
       <c r="L12">
-        <v>145.9</v>
+        <v>676.55</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
         <v>6</v>
@@ -1114,40 +1126,40 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>44531</v>
+        <v>44571</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>5080.25</v>
+        <v>31.8</v>
       </c>
       <c r="F13">
-        <v>4957.96</v>
+        <v>29.37</v>
       </c>
       <c r="G13">
-        <v>4845.8599999999997</v>
+        <v>28.98</v>
       </c>
       <c r="H13">
-        <v>5220.53</v>
+        <v>32.75</v>
       </c>
       <c r="I13">
-        <v>5232.66</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J13">
-        <v>5311.9</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K13" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L13">
-        <v>5060.1000000000004</v>
+        <v>30.65</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1158,37 +1170,37 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>44526</v>
+        <v>44571</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>1810.1</v>
+        <v>382.05</v>
       </c>
       <c r="F14">
-        <v>1745.93</v>
+        <v>367</v>
       </c>
       <c r="G14">
-        <v>1715.01</v>
+        <v>356.22</v>
       </c>
       <c r="H14">
-        <v>1864.4</v>
+        <v>391.12</v>
       </c>
       <c r="I14">
-        <v>1887.2</v>
+        <v>393.51</v>
       </c>
       <c r="J14">
-        <v>2088.1999999999998</v>
+        <v>403.35</v>
       </c>
       <c r="K14" t="s">
         <v>3</v>
       </c>
       <c r="L14">
-        <v>1974.55</v>
+        <v>434.7</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
         <v>4</v>
@@ -1202,37 +1214,37 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>44522</v>
+        <v>44568</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>142.9</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F15">
-        <v>133.26</v>
+        <v>147.59</v>
       </c>
       <c r="G15">
-        <v>127.28</v>
+        <v>147.49</v>
       </c>
       <c r="H15">
-        <v>147.19</v>
+        <v>163.46</v>
       </c>
       <c r="I15">
-        <v>149.35</v>
+        <v>166.75</v>
       </c>
       <c r="J15">
-        <v>156.41999999999999</v>
+        <v>184.75</v>
       </c>
       <c r="K15" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L15">
-        <v>149.30000000000001</v>
+        <v>157.75</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>4</v>
@@ -1246,40 +1258,40 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>44517</v>
+        <v>44568</v>
       </c>
       <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>200.65</v>
+      </c>
+      <c r="F16">
+        <v>190.7</v>
+      </c>
+      <c r="G16">
+        <v>183.28</v>
+      </c>
+      <c r="H16">
+        <v>206.67</v>
+      </c>
+      <c r="I16">
+        <v>214.8</v>
+      </c>
+      <c r="J16">
+        <v>223.1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>201.05</v>
+      </c>
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>230.3</v>
-      </c>
-      <c r="F16">
-        <v>218.03</v>
-      </c>
-      <c r="G16">
-        <v>214.41</v>
-      </c>
-      <c r="H16">
-        <v>237.21</v>
-      </c>
-      <c r="I16">
-        <v>241.3</v>
-      </c>
-      <c r="J16">
-        <v>258</v>
-      </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16">
-        <v>213.5</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
       <c r="N16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1290,40 +1302,40 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>44516</v>
+        <v>44566</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E17">
-        <v>504</v>
+        <v>1903.9</v>
       </c>
       <c r="F17">
-        <v>485.12</v>
+        <v>1755.34</v>
       </c>
       <c r="G17">
-        <v>474.56</v>
+        <v>1642.64</v>
       </c>
       <c r="H17">
-        <v>519.12</v>
+        <v>1961.02</v>
       </c>
       <c r="I17">
-        <v>564.98</v>
+        <v>1969.95</v>
       </c>
       <c r="J17">
-        <v>657.23</v>
+        <v>2061.4699999999998</v>
       </c>
       <c r="K17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>425.5</v>
+        <v>1977.45</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1334,40 +1346,40 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>44516</v>
+        <v>44539</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E18">
-        <v>2288.75</v>
+        <v>2228.5</v>
       </c>
       <c r="F18">
-        <v>2194.21</v>
+        <v>2108.85</v>
       </c>
       <c r="G18">
-        <v>2184.1799999999998</v>
+        <v>1997.53</v>
       </c>
       <c r="H18">
-        <v>2357.41</v>
+        <v>2295.36</v>
       </c>
       <c r="I18">
-        <v>2392.4499999999998</v>
+        <v>2360.58</v>
       </c>
       <c r="J18">
-        <v>2609.85</v>
+        <v>2638.53</v>
       </c>
       <c r="K18" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L18">
-        <v>1911.7</v>
+        <v>2226.6</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1378,40 +1390,40 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>367.8</v>
+        <v>364.15</v>
       </c>
       <c r="F19">
-        <v>356.44</v>
+        <v>337.79</v>
       </c>
       <c r="G19">
-        <v>341.13</v>
+        <v>318.74</v>
       </c>
       <c r="H19">
-        <v>378.83</v>
+        <v>375.07</v>
       </c>
       <c r="I19">
-        <v>387.22</v>
+        <v>385.52</v>
       </c>
       <c r="J19">
-        <v>433.87</v>
+        <v>403.45</v>
       </c>
       <c r="K19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>374.15</v>
+        <v>424</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1422,40 +1434,40 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>926.25</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="F20">
-        <v>869.94</v>
+        <v>151.22</v>
       </c>
       <c r="G20">
-        <v>866.86</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="H20">
-        <v>954.04</v>
+        <v>159.6</v>
       </c>
       <c r="I20">
-        <v>959.1</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="J20">
-        <v>1056.0999999999999</v>
+        <v>167.95</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>918.2</v>
+        <v>145.9</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1466,37 +1478,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>44512</v>
+        <v>44531</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>922.15</v>
+        <v>5080.25</v>
       </c>
       <c r="F21">
-        <v>866.97</v>
+        <v>4957.96</v>
       </c>
       <c r="G21">
-        <v>846.17</v>
+        <v>4845.8599999999997</v>
       </c>
       <c r="H21">
-        <v>949.81</v>
+        <v>5220.53</v>
       </c>
       <c r="I21">
-        <v>959.97</v>
+        <v>5232.66</v>
       </c>
       <c r="J21">
-        <v>1104.8699999999999</v>
+        <v>5311.9</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>925.35</v>
+        <v>5060.1000000000004</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
         <v>4</v>
@@ -1510,40 +1522,40 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>2252.3000000000002</v>
+        <v>1810.1</v>
       </c>
       <c r="F22">
-        <v>2189.8000000000002</v>
+        <v>1745.93</v>
       </c>
       <c r="G22">
-        <v>2179.61</v>
+        <v>1715.01</v>
       </c>
       <c r="H22">
-        <v>2319.87</v>
+        <v>1864.4</v>
       </c>
       <c r="I22">
-        <v>2392.4499999999998</v>
+        <v>1887.2</v>
       </c>
       <c r="J22">
-        <v>2609.85</v>
+        <v>2088.1999999999998</v>
       </c>
       <c r="K22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>2042.05</v>
+        <v>1974.55</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1554,37 +1566,37 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>44510</v>
+        <v>44522</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>4169.55</v>
+        <v>142.9</v>
       </c>
       <c r="F23">
-        <v>4107.1499999999996</v>
+        <v>133.26</v>
       </c>
       <c r="G23">
-        <v>3788.59</v>
+        <v>127.28</v>
       </c>
       <c r="H23">
-        <v>4294.6400000000003</v>
+        <v>147.19</v>
       </c>
       <c r="I23">
-        <v>4574.22</v>
+        <v>149.35</v>
       </c>
       <c r="J23">
-        <v>4830.2700000000004</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="K23" t="s">
         <v>3</v>
       </c>
       <c r="L23">
-        <v>3861.95</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N23" t="s">
         <v>4</v>
@@ -1598,40 +1610,40 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44509</v>
+        <v>44517</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>2006.35</v>
+        <v>230.3</v>
       </c>
       <c r="F24">
-        <v>1940.16</v>
+        <v>218.03</v>
       </c>
       <c r="G24">
-        <v>1849.85</v>
+        <v>214.41</v>
       </c>
       <c r="H24">
-        <v>2066.54</v>
+        <v>237.21</v>
       </c>
       <c r="I24">
-        <v>2111.6</v>
+        <v>241.3</v>
       </c>
       <c r="J24">
-        <v>2406.8000000000002</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>1966.85</v>
+        <v>213.5</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1642,37 +1654,37 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>44504</v>
+        <v>44516</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>1438</v>
+        <v>504</v>
       </c>
       <c r="F25">
-        <v>1348.05</v>
+        <v>485.12</v>
       </c>
       <c r="G25">
-        <v>1246.52</v>
+        <v>474.56</v>
       </c>
       <c r="H25">
-        <v>1481.14</v>
+        <v>519.12</v>
       </c>
       <c r="I25">
-        <v>1500.53</v>
+        <v>564.98</v>
       </c>
       <c r="J25">
-        <v>1557.03</v>
+        <v>657.23</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25">
-        <v>1292.45</v>
+        <v>425.5</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
         <v>6</v>
@@ -1686,40 +1698,40 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>44503</v>
+        <v>44516</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>940</v>
+        <v>2288.75</v>
       </c>
       <c r="F26">
-        <v>889.59</v>
+        <v>2194.21</v>
       </c>
       <c r="G26">
-        <v>877.45</v>
+        <v>2184.1799999999998</v>
       </c>
       <c r="H26">
-        <v>968.2</v>
+        <v>2357.41</v>
       </c>
       <c r="I26">
-        <v>976.45</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J26">
-        <v>1092.05</v>
+        <v>2609.85</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>911.3</v>
+        <v>1911.7</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1730,40 +1742,40 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>467.25</v>
+        <v>367.8</v>
       </c>
       <c r="F27">
-        <v>449.1</v>
+        <v>356.44</v>
       </c>
       <c r="G27">
-        <v>434.55</v>
+        <v>341.13</v>
       </c>
       <c r="H27">
-        <v>481.27</v>
+        <v>378.83</v>
       </c>
       <c r="I27">
-        <v>483.37</v>
+        <v>387.22</v>
       </c>
       <c r="J27">
-        <v>540.63</v>
+        <v>433.87</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>467.45</v>
+        <v>374.15</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1774,37 +1786,37 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>2376.5500000000002</v>
+        <v>926.25</v>
       </c>
       <c r="F28">
-        <v>2227.59</v>
+        <v>869.94</v>
       </c>
       <c r="G28">
-        <v>2195.98</v>
+        <v>866.86</v>
       </c>
       <c r="H28">
-        <v>2447.7800000000002</v>
+        <v>954.04</v>
       </c>
       <c r="I28">
-        <v>2447.85</v>
+        <v>959.1</v>
       </c>
       <c r="J28">
-        <v>2581.4299999999998</v>
+        <v>1056.0999999999999</v>
       </c>
       <c r="K28" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L28">
-        <v>2332.1</v>
+        <v>918.2</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N28" t="s">
         <v>4</v>
@@ -1818,37 +1830,37 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>44503</v>
+        <v>44512</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>3960.1</v>
+        <v>922.15</v>
       </c>
       <c r="F29">
-        <v>3811.12</v>
+        <v>866.97</v>
       </c>
       <c r="G29">
-        <v>3778.9</v>
+        <v>846.17</v>
       </c>
       <c r="H29">
-        <v>4078.9</v>
+        <v>949.81</v>
       </c>
       <c r="I29">
-        <v>4094.88</v>
+        <v>959.97</v>
       </c>
       <c r="J29">
-        <v>4611.7299999999996</v>
+        <v>1104.8699999999999</v>
       </c>
       <c r="K29" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L29">
-        <v>4220.7</v>
+        <v>925.35</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N29" t="s">
         <v>4</v>
@@ -1862,37 +1874,37 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>44502</v>
+        <v>44512</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>503</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="F30">
-        <v>468.45</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="G30">
-        <v>404.65</v>
+        <v>2179.61</v>
       </c>
       <c r="H30">
-        <v>518.09</v>
+        <v>2319.87</v>
       </c>
       <c r="I30">
-        <v>538.33000000000004</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J30">
-        <v>564.23</v>
+        <v>2609.85</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
       </c>
       <c r="L30">
-        <v>407.5</v>
+        <v>2042.05</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
         <v>6</v>
@@ -1906,34 +1918,37 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>44498</v>
+        <v>44510</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>183.95</v>
+        <v>4169.55</v>
       </c>
       <c r="F31">
-        <v>172.67</v>
+        <v>4107.1499999999996</v>
       </c>
       <c r="G31">
-        <v>150.44</v>
+        <v>3788.59</v>
       </c>
       <c r="H31">
-        <v>189.47</v>
+        <v>4294.6400000000003</v>
       </c>
       <c r="I31">
-        <v>220.63</v>
+        <v>4574.22</v>
+      </c>
+      <c r="J31">
+        <v>4830.2700000000004</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>166.8</v>
+        <v>3861.95</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
         <v>4</v>
@@ -1947,37 +1962,37 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>44497</v>
+        <v>44509</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E32">
-        <v>1947.1</v>
+        <v>2006.35</v>
       </c>
       <c r="F32">
-        <v>1858.11</v>
+        <v>1940.16</v>
       </c>
       <c r="G32">
-        <v>1845.66</v>
+        <v>1849.85</v>
       </c>
       <c r="H32">
-        <v>2005.51</v>
+        <v>2066.54</v>
       </c>
       <c r="I32">
-        <v>2022.07</v>
+        <v>2111.6</v>
       </c>
       <c r="J32">
-        <v>2175.9699999999998</v>
+        <v>2406.8000000000002</v>
       </c>
       <c r="K32" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>2149.5500000000002</v>
+        <v>1966.85</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
         <v>4</v>
@@ -1991,37 +2006,40 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E33">
-        <v>50.1</v>
+        <v>1438</v>
       </c>
       <c r="F33">
-        <v>46.38</v>
+        <v>1348.05</v>
       </c>
       <c r="G33">
-        <v>45.6</v>
+        <v>1246.52</v>
       </c>
       <c r="H33">
-        <v>52.35</v>
+        <v>1481.14</v>
       </c>
       <c r="I33">
-        <v>52.7</v>
+        <v>1500.53</v>
+      </c>
+      <c r="J33">
+        <v>1557.03</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L33">
-        <v>48.8</v>
+        <v>1292.45</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2032,37 +2050,37 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>44491</v>
+        <v>44503</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>1243.3</v>
+        <v>940</v>
       </c>
       <c r="F34">
-        <v>1184.8599999999999</v>
+        <v>889.59</v>
       </c>
       <c r="G34">
-        <v>1112.71</v>
+        <v>877.45</v>
       </c>
       <c r="H34">
-        <v>1299.25</v>
+        <v>968.2</v>
       </c>
       <c r="I34">
-        <v>1328.27</v>
+        <v>976.45</v>
       </c>
       <c r="J34">
-        <v>1397.58</v>
+        <v>1092.05</v>
       </c>
       <c r="K34" t="s">
         <v>15</v>
       </c>
       <c r="L34">
-        <v>1270.1500000000001</v>
+        <v>911.3</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
         <v>4</v>
@@ -2076,40 +2094,40 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>44490</v>
+        <v>44503</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E35">
-        <v>14400.05</v>
+        <v>467.25</v>
       </c>
       <c r="F35">
-        <v>13928.9</v>
+        <v>449.1</v>
       </c>
       <c r="G35">
-        <v>13651.23</v>
+        <v>434.55</v>
       </c>
       <c r="H35">
-        <v>14887.35</v>
+        <v>481.27</v>
       </c>
       <c r="I35">
-        <v>15048.05</v>
+        <v>483.37</v>
       </c>
       <c r="J35">
-        <v>15158.53</v>
+        <v>540.63</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L35">
-        <v>14644.95</v>
+        <v>467.45</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2120,40 +2138,40 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>44489</v>
+        <v>44503</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E36">
-        <v>14400</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="F36">
-        <v>13915.11</v>
+        <v>2227.59</v>
       </c>
       <c r="G36">
-        <v>13616.79</v>
+        <v>2195.98</v>
       </c>
       <c r="H36">
-        <v>14887.35</v>
+        <v>2447.7800000000002</v>
       </c>
       <c r="I36">
-        <v>15048</v>
+        <v>2447.85</v>
       </c>
       <c r="J36">
-        <v>15158.53</v>
+        <v>2581.4299999999998</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>14453.9</v>
+        <v>2332.1</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N36" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2164,40 +2182,40 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>44489</v>
+        <v>44503</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>497.95</v>
+        <v>3960.1</v>
       </c>
       <c r="F37">
-        <v>461.51</v>
+        <v>3811.12</v>
       </c>
       <c r="G37">
-        <v>455.19</v>
+        <v>3778.9</v>
       </c>
       <c r="H37">
-        <v>520.36</v>
+        <v>4078.9</v>
       </c>
       <c r="I37">
-        <v>520.41999999999996</v>
+        <v>4094.88</v>
       </c>
       <c r="J37">
-        <v>580.41999999999996</v>
+        <v>4611.7299999999996</v>
       </c>
       <c r="K37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>428.55</v>
+        <v>4220.7</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2208,37 +2226,40 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>44483</v>
+        <v>44502</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>8928</v>
+        <v>503</v>
       </c>
       <c r="F38">
-        <v>8199.61</v>
+        <v>468.45</v>
       </c>
       <c r="G38">
-        <v>8071.6</v>
+        <v>404.65</v>
       </c>
       <c r="H38">
-        <v>9329.76</v>
+        <v>518.09</v>
       </c>
       <c r="I38">
-        <v>9446.1</v>
+        <v>538.33000000000004</v>
+      </c>
+      <c r="J38">
+        <v>564.23</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L38">
-        <v>9105.75</v>
+        <v>407.5</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2249,34 +2270,34 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>44483</v>
+        <v>44498</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>358</v>
+        <v>183.95</v>
       </c>
       <c r="F39">
-        <v>327.27999999999997</v>
+        <v>172.67</v>
       </c>
       <c r="G39">
-        <v>321.62</v>
+        <v>150.44</v>
       </c>
       <c r="H39">
-        <v>374.11</v>
+        <v>189.47</v>
       </c>
       <c r="I39">
-        <v>377.57</v>
+        <v>220.63</v>
       </c>
       <c r="K39" t="s">
         <v>15</v>
       </c>
       <c r="L39">
-        <v>318.55</v>
+        <v>166.8</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N39" t="s">
         <v>4</v>
@@ -2290,40 +2311,40 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>44482</v>
+        <v>44497</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E40">
-        <v>1840.1</v>
+        <v>1947.1</v>
       </c>
       <c r="F40">
-        <v>1728.38</v>
+        <v>1858.11</v>
       </c>
       <c r="G40">
-        <v>1649.84</v>
+        <v>1845.66</v>
       </c>
       <c r="H40">
-        <v>1922.9</v>
+        <v>2005.51</v>
       </c>
       <c r="I40">
-        <v>1954.85</v>
+        <v>2022.07</v>
       </c>
       <c r="J40">
-        <v>2179.75</v>
+        <v>2175.9699999999998</v>
       </c>
       <c r="K40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>1792.45</v>
+        <v>2149.5500000000002</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2334,37 +2355,34 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>44481</v>
+        <v>44491</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E41">
-        <v>456.35</v>
+        <v>50.1</v>
       </c>
       <c r="F41">
-        <v>431.76</v>
+        <v>46.38</v>
       </c>
       <c r="G41">
-        <v>421.61</v>
+        <v>45.6</v>
       </c>
       <c r="H41">
-        <v>476.89</v>
+        <v>52.35</v>
       </c>
       <c r="I41">
-        <v>476.9</v>
-      </c>
-      <c r="J41">
-        <v>531.9</v>
+        <v>52.7</v>
       </c>
       <c r="K41" t="s">
         <v>15</v>
       </c>
       <c r="L41">
-        <v>464.65</v>
+        <v>48.8</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
         <v>4</v>
@@ -2378,34 +2396,34 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>44481</v>
+        <v>44491</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E42">
-        <v>96.3</v>
+        <v>1243.3</v>
       </c>
       <c r="F42">
-        <v>91.74</v>
+        <v>1184.8599999999999</v>
       </c>
       <c r="G42">
-        <v>88.31</v>
+        <v>1112.71</v>
       </c>
       <c r="H42">
-        <v>100.63</v>
+        <v>1299.25</v>
       </c>
       <c r="I42">
-        <v>106.95</v>
+        <v>1328.27</v>
       </c>
       <c r="J42">
-        <v>122.7</v>
+        <v>1397.58</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L42">
-        <v>102.55</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -2422,40 +2440,40 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>44481</v>
+        <v>44490</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>2025</v>
+        <v>14400.05</v>
       </c>
       <c r="F43">
-        <v>1869.62</v>
+        <v>13928.9</v>
       </c>
       <c r="G43">
-        <v>1853.79</v>
+        <v>13651.23</v>
       </c>
       <c r="H43">
-        <v>2116.13</v>
+        <v>14887.35</v>
       </c>
       <c r="I43">
-        <v>2147.83</v>
+        <v>15048.05</v>
       </c>
       <c r="J43">
-        <v>2419.38</v>
+        <v>15158.53</v>
       </c>
       <c r="K43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43">
+        <v>14644.95</v>
+      </c>
+      <c r="M43">
         <v>15</v>
       </c>
-      <c r="L43">
-        <v>1993.8</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
       <c r="N43" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2466,40 +2484,40 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>44480</v>
+        <v>44489</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E44">
-        <v>313.55</v>
+        <v>14400</v>
       </c>
       <c r="F44">
-        <v>297.8</v>
+        <v>13915.11</v>
       </c>
       <c r="G44">
-        <v>282.27</v>
+        <v>13616.79</v>
       </c>
       <c r="H44">
-        <v>323.38</v>
+        <v>14887.35</v>
       </c>
       <c r="I44">
-        <v>327.66000000000003</v>
+        <v>15048</v>
       </c>
       <c r="J44">
-        <v>334.27</v>
+        <v>15158.53</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L44">
-        <v>269.75</v>
+        <v>14453.9</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N44" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2510,40 +2528,40 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>44477</v>
+        <v>44489</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E45">
-        <v>789.25</v>
+        <v>497.95</v>
       </c>
       <c r="F45">
-        <v>757.08</v>
+        <v>461.51</v>
       </c>
       <c r="G45">
-        <v>751.14</v>
+        <v>455.19</v>
       </c>
       <c r="H45">
-        <v>816.23</v>
+        <v>520.36</v>
       </c>
       <c r="I45">
-        <v>824.77</v>
+        <v>520.41999999999996</v>
       </c>
       <c r="J45">
-        <v>834.78</v>
+        <v>580.41999999999996</v>
       </c>
       <c r="K45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>821</v>
+        <v>428.55</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2554,40 +2572,37 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E46">
-        <v>656.4</v>
+        <v>8928</v>
       </c>
       <c r="F46">
-        <v>653</v>
+        <v>8199.61</v>
       </c>
       <c r="G46">
-        <v>632.46</v>
+        <v>8071.6</v>
       </c>
       <c r="H46">
-        <v>685.94</v>
+        <v>9329.76</v>
       </c>
       <c r="I46">
-        <v>708.65</v>
-      </c>
-      <c r="J46">
-        <v>792.4</v>
+        <v>9446.1</v>
       </c>
       <c r="K46" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L46">
-        <v>515.79999999999995</v>
+        <v>9105.75</v>
       </c>
       <c r="M46">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2598,40 +2613,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E47">
-        <v>97.75</v>
+        <v>358</v>
       </c>
       <c r="F47">
-        <v>90.97</v>
+        <v>327.27999999999997</v>
       </c>
       <c r="G47">
-        <v>88.12</v>
+        <v>321.62</v>
       </c>
       <c r="H47">
-        <v>102.15</v>
+        <v>374.11</v>
       </c>
       <c r="I47">
-        <v>106.95</v>
-      </c>
-      <c r="J47">
-        <v>122.7</v>
+        <v>377.57</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L47">
-        <v>97.45</v>
+        <v>318.55</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2642,40 +2654,40 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>44477</v>
+        <v>44482</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E48">
-        <v>1965.1</v>
+        <v>1840.1</v>
       </c>
       <c r="F48">
-        <v>1863.54</v>
+        <v>1728.38</v>
       </c>
       <c r="G48">
-        <v>1850.86</v>
+        <v>1649.84</v>
       </c>
       <c r="H48">
-        <v>2053.5300000000002</v>
+        <v>1922.9</v>
       </c>
       <c r="I48">
-        <v>2073.9699999999998</v>
+        <v>1954.85</v>
       </c>
       <c r="J48">
-        <v>2147.83</v>
+        <v>2179.75</v>
       </c>
       <c r="K48" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L48">
-        <v>1946.05</v>
+        <v>1792.45</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -2686,37 +2698,37 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E49">
-        <v>211.55</v>
+        <v>456.35</v>
       </c>
       <c r="F49">
-        <v>199.66</v>
+        <v>431.76</v>
       </c>
       <c r="G49">
-        <v>195.14</v>
+        <v>421.61</v>
       </c>
       <c r="H49">
-        <v>221.07</v>
+        <v>476.89</v>
       </c>
       <c r="I49">
-        <v>222.5</v>
+        <v>476.9</v>
       </c>
       <c r="J49">
-        <v>231.5</v>
+        <v>531.9</v>
       </c>
       <c r="K49" t="s">
         <v>15</v>
       </c>
       <c r="L49">
-        <v>197.65</v>
+        <v>464.65</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
         <v>4</v>
@@ -2730,37 +2742,40 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E50">
-        <v>2141.3000000000002</v>
+        <v>96.3</v>
       </c>
       <c r="F50">
-        <v>1927.17</v>
+        <v>91.74</v>
       </c>
       <c r="G50">
-        <v>1897.63</v>
+        <v>88.31</v>
       </c>
       <c r="H50">
-        <v>2237.66</v>
+        <v>100.63</v>
       </c>
       <c r="I50">
-        <v>2357.87</v>
+        <v>106.95</v>
+      </c>
+      <c r="J50">
+        <v>122.7</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L50">
-        <v>1949.45</v>
+        <v>102.55</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2771,31 +2786,34 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E51">
-        <v>1304.5</v>
+        <v>2025</v>
       </c>
       <c r="F51">
-        <v>1181.8499999999999</v>
+        <v>1869.62</v>
       </c>
       <c r="G51">
-        <v>1177.8599999999999</v>
+        <v>1853.79</v>
       </c>
       <c r="H51">
-        <v>1357.02</v>
+        <v>2116.13</v>
       </c>
       <c r="I51">
-        <v>1363.2</v>
+        <v>2147.83</v>
+      </c>
+      <c r="J51">
+        <v>2419.38</v>
       </c>
       <c r="K51" t="s">
         <v>15</v>
       </c>
       <c r="L51">
-        <v>1313.25</v>
+        <v>1993.8</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -2812,34 +2830,37 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E52">
-        <v>1046</v>
+        <v>313.55</v>
       </c>
       <c r="F52">
-        <v>991.55</v>
+        <v>297.8</v>
       </c>
       <c r="G52">
-        <v>975.33</v>
+        <v>282.27</v>
       </c>
       <c r="H52">
-        <v>1093.07</v>
+        <v>323.38</v>
       </c>
       <c r="I52">
-        <v>1100.17</v>
+        <v>327.66000000000003</v>
+      </c>
+      <c r="J52">
+        <v>334.27</v>
       </c>
       <c r="K52" t="s">
         <v>6</v>
       </c>
       <c r="L52">
-        <v>804.35</v>
+        <v>269.75</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N52" t="s">
         <v>6</v>
@@ -2853,40 +2874,40 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E53">
-        <v>310.7</v>
+        <v>789.25</v>
       </c>
       <c r="F53">
-        <v>295.52999999999997</v>
+        <v>757.08</v>
       </c>
       <c r="G53">
-        <v>280.48</v>
+        <v>751.14</v>
       </c>
       <c r="H53">
-        <v>323.38</v>
+        <v>816.23</v>
       </c>
       <c r="I53">
-        <v>324.68</v>
+        <v>824.77</v>
       </c>
       <c r="J53">
-        <v>334.27</v>
+        <v>834.78</v>
       </c>
       <c r="K53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>273.3</v>
+        <v>821</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2897,40 +2918,40 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E54">
-        <v>214.3</v>
+        <v>656.4</v>
       </c>
       <c r="F54">
-        <v>206.45</v>
+        <v>653</v>
       </c>
       <c r="G54">
-        <v>205.8</v>
+        <v>632.46</v>
       </c>
       <c r="H54">
-        <v>223.94</v>
+        <v>685.94</v>
       </c>
       <c r="I54">
-        <v>225.65</v>
+        <v>708.65</v>
       </c>
       <c r="J54">
-        <v>245.35</v>
+        <v>792.4</v>
       </c>
       <c r="K54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>214.4</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2941,37 +2962,40 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E55">
-        <v>289</v>
+        <v>97.75</v>
       </c>
       <c r="F55">
-        <v>276.52</v>
+        <v>90.97</v>
       </c>
       <c r="G55">
-        <v>272.33</v>
+        <v>88.12</v>
       </c>
       <c r="H55">
-        <v>302</v>
+        <v>102.15</v>
       </c>
       <c r="I55">
-        <v>306.18</v>
+        <v>106.95</v>
+      </c>
+      <c r="J55">
+        <v>122.7</v>
       </c>
       <c r="K55" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55">
+        <v>97.45</v>
+      </c>
+      <c r="M55">
         <v>15</v>
       </c>
-      <c r="L55">
-        <v>283.05</v>
-      </c>
-      <c r="M55">
-        <v>13</v>
-      </c>
       <c r="N55" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -2982,39 +3006,379 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56">
+        <v>1965.1</v>
+      </c>
+      <c r="F56">
+        <v>1863.54</v>
+      </c>
+      <c r="G56">
+        <v>1850.86</v>
+      </c>
+      <c r="H56">
+        <v>2053.5300000000002</v>
+      </c>
+      <c r="I56">
+        <v>2073.9699999999998</v>
+      </c>
+      <c r="J56">
+        <v>2147.83</v>
+      </c>
+      <c r="K56" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>1946.05</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57">
+        <v>211.55</v>
+      </c>
+      <c r="F57">
+        <v>199.66</v>
+      </c>
+      <c r="G57">
+        <v>195.14</v>
+      </c>
+      <c r="H57">
+        <v>221.07</v>
+      </c>
+      <c r="I57">
+        <v>222.5</v>
+      </c>
+      <c r="J57">
+        <v>231.5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57">
+        <v>197.65</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58">
+        <v>2141.3000000000002</v>
+      </c>
+      <c r="F58">
+        <v>1927.17</v>
+      </c>
+      <c r="G58">
+        <v>1897.63</v>
+      </c>
+      <c r="H58">
+        <v>2237.66</v>
+      </c>
+      <c r="I58">
+        <v>2357.87</v>
+      </c>
+      <c r="K58" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58">
+        <v>1949.45</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>1304.5</v>
+      </c>
+      <c r="F59">
+        <v>1181.8499999999999</v>
+      </c>
+      <c r="G59">
+        <v>1177.8599999999999</v>
+      </c>
+      <c r="H59">
+        <v>1357.02</v>
+      </c>
+      <c r="I59">
+        <v>1363.2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59">
+        <v>1313.25</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60">
+        <v>1046</v>
+      </c>
+      <c r="F60">
+        <v>991.55</v>
+      </c>
+      <c r="G60">
+        <v>975.33</v>
+      </c>
+      <c r="H60">
+        <v>1093.07</v>
+      </c>
+      <c r="I60">
+        <v>1100.17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60">
+        <v>804.35</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <v>310.7</v>
+      </c>
+      <c r="F61">
+        <v>295.52999999999997</v>
+      </c>
+      <c r="G61">
+        <v>280.48</v>
+      </c>
+      <c r="H61">
+        <v>323.38</v>
+      </c>
+      <c r="I61">
+        <v>324.68</v>
+      </c>
+      <c r="J61">
+        <v>334.27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>273.3</v>
+      </c>
+      <c r="M61">
+        <v>9</v>
+      </c>
+      <c r="N61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44475</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>214.3</v>
+      </c>
+      <c r="F62">
+        <v>206.45</v>
+      </c>
+      <c r="G62">
+        <v>205.8</v>
+      </c>
+      <c r="H62">
+        <v>223.94</v>
+      </c>
+      <c r="I62">
+        <v>225.65</v>
+      </c>
+      <c r="J62">
+        <v>245.35</v>
+      </c>
+      <c r="K62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>214.4</v>
+      </c>
+      <c r="M62">
+        <v>9</v>
+      </c>
+      <c r="N62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44474</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63">
+        <v>289</v>
+      </c>
+      <c r="F63">
+        <v>276.52</v>
+      </c>
+      <c r="G63">
+        <v>272.33</v>
+      </c>
+      <c r="H63">
+        <v>302</v>
+      </c>
+      <c r="I63">
+        <v>306.18</v>
+      </c>
+      <c r="K63" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63">
+        <v>283.05</v>
+      </c>
+      <c r="M63">
+        <v>13</v>
+      </c>
+      <c r="N63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
         <v>44470</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D64" t="s">
         <v>56</v>
       </c>
-      <c r="E56">
+      <c r="E64">
         <v>3396.6</v>
       </c>
-      <c r="F56">
+      <c r="F64">
         <v>3162.72</v>
       </c>
-      <c r="G56">
+      <c r="G64">
         <v>3027.58</v>
       </c>
-      <c r="H56">
+      <c r="H64">
         <v>3549.45</v>
       </c>
-      <c r="I56">
+      <c r="I64">
         <v>3557.23</v>
       </c>
-      <c r="J56">
+      <c r="J64">
         <v>3951.23</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K64" t="s">
         <v>15</v>
       </c>
-      <c r="L56">
+      <c r="L64">
         <v>3392.4</v>
       </c>
-      <c r="M56">
+      <c r="M64">
         <v>7</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N64" t="s">
         <v>4</v>
       </c>
     </row>

--- a/default/data/Clean/NCASH.xlsx
+++ b/default/data/Clean/NCASH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="82">
   <si>
     <t>Cash_N500</t>
   </si>
@@ -231,6 +231,45 @@
   </si>
   <si>
     <t>BHARATRAS.NS</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>SUMICHEM.NS</t>
+  </si>
+  <si>
+    <t>CRISIL.NS</t>
+  </si>
+  <si>
+    <t>GREAVESCOT.NS</t>
+  </si>
+  <si>
+    <t>SOLARINDS.NS</t>
+  </si>
+  <si>
+    <t>BALAMINES.NS</t>
+  </si>
+  <si>
+    <t>BASF.NS</t>
+  </si>
+  <si>
+    <t>DCMSHRIRAM.NS</t>
+  </si>
+  <si>
+    <t>INGERRAND.NS</t>
+  </si>
+  <si>
+    <t>GUJALKALI.NS</t>
+  </si>
+  <si>
+    <t>FACT.NS</t>
+  </si>
+  <si>
+    <t>TV18BRDCST.NS</t>
+  </si>
+  <si>
+    <t>SUPPETRO.NS</t>
   </si>
 </sst>
 </file>
@@ -578,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,40 +684,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44617</v>
+        <v>44650</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1981.95</v>
+        <v>215.75</v>
       </c>
       <c r="F2">
-        <v>1978.68</v>
+        <v>208.7</v>
       </c>
       <c r="G2">
-        <v>1958.01</v>
+        <v>205.69</v>
       </c>
       <c r="H2">
-        <v>2034.08</v>
+        <v>222.22</v>
       </c>
       <c r="I2">
-        <v>2041.41</v>
+        <v>239.33</v>
       </c>
       <c r="J2">
-        <v>2090.85</v>
+        <v>279.33</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="L2">
-        <v>2027.45</v>
+        <v>216.8</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -689,37 +728,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44606</v>
+        <v>44648</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>553.25</v>
+        <v>420.6</v>
       </c>
       <c r="F3">
-        <v>534.80999999999995</v>
+        <v>395.14</v>
       </c>
       <c r="G3">
-        <v>520.91999999999996</v>
+        <v>391.39</v>
       </c>
       <c r="H3">
-        <v>569.85</v>
+        <v>433.22</v>
       </c>
       <c r="I3">
-        <v>584.75</v>
+        <v>457.28</v>
       </c>
       <c r="J3">
-        <v>651.35</v>
+        <v>530.33000000000004</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3">
-        <v>519.9</v>
+        <v>448.5</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -733,40 +772,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44601</v>
+        <v>44643</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>1324</v>
+        <v>3119.1</v>
       </c>
       <c r="F4">
-        <v>1301.1600000000001</v>
+        <v>2918.47</v>
       </c>
       <c r="G4">
-        <v>1293.48</v>
+        <v>2831.24</v>
       </c>
       <c r="H4">
-        <v>1363.72</v>
+        <v>3212.67</v>
       </c>
       <c r="I4">
-        <v>1423.83</v>
+        <v>3232.32</v>
       </c>
       <c r="J4">
-        <v>1570.18</v>
+        <v>3667.02</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <v>1216.9000000000001</v>
+        <v>3298.25</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -777,40 +816,40 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>44599</v>
+        <v>44642</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>452.75</v>
+        <v>635.45000000000005</v>
       </c>
       <c r="F5">
-        <v>430.28</v>
+        <v>630.04</v>
       </c>
       <c r="G5">
-        <v>377.77</v>
+        <v>617.62</v>
       </c>
       <c r="H5">
-        <v>466.33</v>
+        <v>654.51</v>
       </c>
       <c r="I5">
-        <v>468.63</v>
+        <v>706.2</v>
       </c>
       <c r="J5">
-        <v>490.85</v>
+        <v>739.58</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>391.9</v>
+        <v>745.65</v>
       </c>
       <c r="M5">
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -821,34 +860,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>44599</v>
+        <v>44641</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>2142</v>
+        <v>190.35</v>
       </c>
       <c r="F6">
-        <v>2069.15</v>
+        <v>190.15</v>
       </c>
       <c r="G6">
-        <v>2052.2199999999998</v>
+        <v>188.55</v>
       </c>
       <c r="H6">
-        <v>2206.2600000000002</v>
+        <v>196.06</v>
       </c>
       <c r="I6">
-        <v>2250.3000000000002</v>
+        <v>197.35</v>
+      </c>
+      <c r="J6">
+        <v>210.38</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2176.9499999999998</v>
+        <v>202.15</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -862,40 +904,40 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>44599</v>
+        <v>44641</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E7">
-        <v>133.6</v>
+        <v>186.7</v>
       </c>
       <c r="F7">
-        <v>128.38</v>
+        <v>170.28</v>
       </c>
       <c r="G7">
-        <v>124.6</v>
+        <v>168.28</v>
       </c>
       <c r="H7">
-        <v>137.61000000000001</v>
+        <v>192.3</v>
       </c>
       <c r="I7">
-        <v>138.07</v>
+        <v>199.22</v>
       </c>
       <c r="J7">
-        <v>142.80000000000001</v>
+        <v>213.33</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>121.6</v>
+        <v>190.95</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -906,40 +948,37 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>44596</v>
+        <v>44637</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>4092</v>
+        <v>2598</v>
       </c>
       <c r="F8">
-        <v>3776.95</v>
+        <v>2443.84</v>
       </c>
       <c r="G8">
-        <v>3746.76</v>
+        <v>2347.8000000000002</v>
       </c>
       <c r="H8">
-        <v>4214.76</v>
+        <v>2675.94</v>
       </c>
       <c r="I8">
-        <v>4242.17</v>
-      </c>
-      <c r="J8">
-        <v>4730.0200000000004</v>
+        <v>2787.03</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L8">
-        <v>3947.4</v>
+        <v>2796.5</v>
       </c>
       <c r="M8">
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -950,40 +989,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>44595</v>
+        <v>44636</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E9">
-        <v>13206</v>
+        <v>3091.65</v>
       </c>
       <c r="F9">
-        <v>12389.2</v>
+        <v>2882.96</v>
       </c>
       <c r="G9">
-        <v>12025.37</v>
+        <v>3184.4</v>
       </c>
       <c r="H9">
-        <v>13579.15</v>
+        <v>3285.6</v>
       </c>
       <c r="I9">
-        <v>13602.18</v>
-      </c>
-      <c r="J9">
-        <v>13936.05</v>
+        <v>3481.92</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="L9">
-        <v>12185.55</v>
+        <v>2905.5</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -994,40 +1030,40 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>44580</v>
+        <v>44636</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>1222.5</v>
+        <v>555.15</v>
       </c>
       <c r="F10">
-        <v>1152.56</v>
+        <v>524.04</v>
       </c>
       <c r="G10">
-        <v>1113.9000000000001</v>
+        <v>523.72</v>
       </c>
       <c r="H10">
-        <v>1259.17</v>
+        <v>571.79999999999995</v>
       </c>
       <c r="I10">
-        <v>1274.53</v>
+        <v>596.04999999999995</v>
       </c>
       <c r="J10">
-        <v>1327.78</v>
+        <v>634.13</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L10">
-        <v>1048.5999999999999</v>
+        <v>608.35</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1038,40 +1074,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>44575</v>
+        <v>44635</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>499.65</v>
+        <v>200.3</v>
       </c>
       <c r="F11">
-        <v>468.25</v>
+        <v>196.6</v>
       </c>
       <c r="G11">
-        <v>464.03</v>
+        <v>206.31</v>
       </c>
       <c r="H11">
-        <v>514.64</v>
+        <v>208.18</v>
       </c>
       <c r="I11">
-        <v>515.6</v>
-      </c>
-      <c r="J11">
-        <v>529.22</v>
+        <v>217.02</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>469.95</v>
+        <v>216.8</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1082,37 +1115,37 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>44573</v>
+        <v>44634</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E12">
-        <v>596.4</v>
+        <v>2998.9</v>
       </c>
       <c r="F12">
-        <v>568.29</v>
+        <v>2959.21</v>
       </c>
       <c r="G12">
-        <v>551.22</v>
+        <v>2950.79</v>
       </c>
       <c r="H12">
-        <v>614.29</v>
+        <v>3088.87</v>
       </c>
       <c r="I12">
-        <v>669</v>
+        <v>3110.77</v>
       </c>
       <c r="J12">
-        <v>780.4</v>
+        <v>3471.73</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
       </c>
       <c r="L12">
-        <v>676.55</v>
+        <v>3092.9</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
         <v>6</v>
@@ -1126,40 +1159,40 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>44571</v>
+        <v>44634</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E13">
-        <v>31.8</v>
+        <v>1103.6500000000001</v>
       </c>
       <c r="F13">
-        <v>29.37</v>
+        <v>1047.53</v>
       </c>
       <c r="G13">
-        <v>28.98</v>
+        <v>1019.89</v>
       </c>
       <c r="H13">
-        <v>32.75</v>
+        <v>1135.5999999999999</v>
       </c>
       <c r="I13">
-        <v>32.799999999999997</v>
+        <v>1136.76</v>
       </c>
       <c r="J13">
-        <v>33.520000000000003</v>
+        <v>1206.57</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>30.65</v>
+        <v>1130.0999999999999</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1170,40 +1203,40 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>44571</v>
+        <v>44634</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>382.05</v>
+        <v>447.8</v>
       </c>
       <c r="F14">
-        <v>367</v>
+        <v>443.76</v>
       </c>
       <c r="G14">
-        <v>356.22</v>
+        <v>415.06</v>
       </c>
       <c r="H14">
-        <v>391.12</v>
+        <v>459.45</v>
       </c>
       <c r="I14">
-        <v>393.51</v>
+        <v>461.23</v>
       </c>
       <c r="J14">
-        <v>403.35</v>
+        <v>480.93</v>
       </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>434.7</v>
+        <v>452.45</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1214,37 +1247,37 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>44568</v>
+        <v>44634</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E15">
-        <v>158.69999999999999</v>
+        <v>1458.55</v>
       </c>
       <c r="F15">
-        <v>147.59</v>
+        <v>1368.38</v>
       </c>
       <c r="G15">
-        <v>147.49</v>
+        <v>1362.97</v>
       </c>
       <c r="H15">
-        <v>163.46</v>
+        <v>1502.31</v>
       </c>
       <c r="I15">
-        <v>166.75</v>
+        <v>1612.77</v>
       </c>
       <c r="J15">
-        <v>184.75</v>
+        <v>1865.62</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
       </c>
       <c r="L15">
-        <v>157.75</v>
+        <v>1597.65</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
         <v>4</v>
@@ -1258,34 +1291,34 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>44568</v>
+        <v>44634</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E16">
-        <v>200.65</v>
+        <v>723</v>
       </c>
       <c r="F16">
-        <v>190.7</v>
+        <v>689.85</v>
       </c>
       <c r="G16">
-        <v>183.28</v>
+        <v>679.1</v>
       </c>
       <c r="H16">
-        <v>206.67</v>
+        <v>744.69</v>
       </c>
       <c r="I16">
-        <v>214.8</v>
+        <v>763.47</v>
       </c>
       <c r="J16">
-        <v>223.1</v>
+        <v>890.58</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>201.05</v>
+        <v>896.55</v>
       </c>
       <c r="M16">
         <v>10</v>
@@ -1302,37 +1335,37 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>44566</v>
+        <v>44631</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E17">
-        <v>1903.9</v>
+        <v>128.15</v>
       </c>
       <c r="F17">
-        <v>1755.34</v>
+        <v>126.18</v>
       </c>
       <c r="G17">
-        <v>1642.64</v>
+        <v>122.51</v>
       </c>
       <c r="H17">
-        <v>1961.02</v>
+        <v>131.99</v>
       </c>
       <c r="I17">
-        <v>1969.95</v>
+        <v>139.12</v>
       </c>
       <c r="J17">
-        <v>2061.4699999999998</v>
+        <v>165.38</v>
       </c>
       <c r="K17" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L17">
-        <v>1977.45</v>
+        <v>130.9</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17" t="s">
         <v>4</v>
@@ -1346,37 +1379,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>44539</v>
+        <v>44629</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>2228.5</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="F18">
-        <v>2108.85</v>
+        <v>63.68</v>
       </c>
       <c r="G18">
-        <v>1997.53</v>
+        <v>56.47</v>
       </c>
       <c r="H18">
-        <v>2295.36</v>
+        <v>67.62</v>
       </c>
       <c r="I18">
-        <v>2360.58</v>
+        <v>74.33</v>
       </c>
       <c r="J18">
-        <v>2638.53</v>
+        <v>80.83</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
       </c>
       <c r="L18">
-        <v>2226.6</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N18" t="s">
         <v>4</v>
@@ -1390,40 +1423,40 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>44533</v>
+        <v>44624</v>
       </c>
       <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>341.7</v>
+      </c>
+      <c r="F19">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="G19">
+        <v>327.10000000000002</v>
+      </c>
+      <c r="H19">
+        <v>351.95</v>
+      </c>
+      <c r="I19">
+        <v>357.28</v>
+      </c>
+      <c r="J19">
+        <v>399.23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>310.8</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>364.15</v>
-      </c>
-      <c r="F19">
-        <v>337.79</v>
-      </c>
-      <c r="G19">
-        <v>318.74</v>
-      </c>
-      <c r="H19">
-        <v>375.07</v>
-      </c>
-      <c r="I19">
-        <v>385.52</v>
-      </c>
-      <c r="J19">
-        <v>403.45</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>424</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1434,40 +1467,40 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>44533</v>
+        <v>44623</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>154.94999999999999</v>
+        <v>725.3</v>
       </c>
       <c r="F20">
-        <v>151.22</v>
+        <v>702.5</v>
       </c>
       <c r="G20">
-        <v>147.36000000000001</v>
+        <v>696.01</v>
       </c>
       <c r="H20">
-        <v>159.6</v>
+        <v>747.06</v>
       </c>
       <c r="I20">
-        <v>160.97999999999999</v>
+        <v>749.02</v>
       </c>
       <c r="J20">
-        <v>167.95</v>
+        <v>829.07</v>
       </c>
       <c r="K20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>145.9</v>
+        <v>861.1</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1478,37 +1511,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>44531</v>
+        <v>44617</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>5080.25</v>
+        <v>1981.95</v>
       </c>
       <c r="F21">
-        <v>4957.96</v>
+        <v>1978.68</v>
       </c>
       <c r="G21">
-        <v>4845.8599999999997</v>
+        <v>1958.01</v>
       </c>
       <c r="H21">
-        <v>5220.53</v>
+        <v>2034.08</v>
       </c>
       <c r="I21">
-        <v>5232.66</v>
+        <v>2041.41</v>
       </c>
       <c r="J21">
-        <v>5311.9</v>
+        <v>2090.85</v>
       </c>
       <c r="K21" t="s">
         <v>3</v>
       </c>
       <c r="L21">
-        <v>5060.1000000000004</v>
+        <v>2224.6</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
         <v>4</v>
@@ -1522,37 +1555,37 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>44526</v>
+        <v>44606</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E22">
-        <v>1810.1</v>
+        <v>553.25</v>
       </c>
       <c r="F22">
-        <v>1745.93</v>
+        <v>534.80999999999995</v>
       </c>
       <c r="G22">
-        <v>1715.01</v>
+        <v>520.91999999999996</v>
       </c>
       <c r="H22">
-        <v>1864.4</v>
+        <v>569.85</v>
       </c>
       <c r="I22">
-        <v>1887.2</v>
+        <v>584.75</v>
       </c>
       <c r="J22">
-        <v>2088.1999999999998</v>
+        <v>651.35</v>
       </c>
       <c r="K22" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L22">
-        <v>1974.55</v>
+        <v>495.45</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
         <v>4</v>
@@ -1566,40 +1599,40 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>44522</v>
+        <v>44601</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>142.9</v>
+        <v>1324</v>
       </c>
       <c r="F23">
-        <v>133.26</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="G23">
-        <v>127.28</v>
+        <v>1293.48</v>
       </c>
       <c r="H23">
-        <v>147.19</v>
+        <v>1363.72</v>
       </c>
       <c r="I23">
-        <v>149.35</v>
+        <v>1423.83</v>
       </c>
       <c r="J23">
-        <v>156.41999999999999</v>
+        <v>1570.18</v>
       </c>
       <c r="K23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>149.30000000000001</v>
+        <v>1192.8499999999999</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1610,37 +1643,37 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44517</v>
+        <v>44599</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E24">
-        <v>230.3</v>
+        <v>452.75</v>
       </c>
       <c r="F24">
-        <v>218.03</v>
+        <v>430.28</v>
       </c>
       <c r="G24">
-        <v>214.41</v>
+        <v>377.77</v>
       </c>
       <c r="H24">
-        <v>237.21</v>
+        <v>466.33</v>
       </c>
       <c r="I24">
-        <v>241.3</v>
+        <v>468.63</v>
       </c>
       <c r="J24">
-        <v>258</v>
+        <v>490.85</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
       <c r="L24">
-        <v>213.5</v>
+        <v>391.9</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N24" t="s">
         <v>6</v>
@@ -1654,40 +1687,37 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>44516</v>
+        <v>44599</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>504</v>
+        <v>2142</v>
       </c>
       <c r="F25">
-        <v>485.12</v>
+        <v>2069.15</v>
       </c>
       <c r="G25">
-        <v>474.56</v>
+        <v>2052.2199999999998</v>
       </c>
       <c r="H25">
-        <v>519.12</v>
+        <v>2206.2600000000002</v>
       </c>
       <c r="I25">
-        <v>564.98</v>
-      </c>
-      <c r="J25">
-        <v>657.23</v>
+        <v>2250.3000000000002</v>
       </c>
       <c r="K25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L25">
-        <v>425.5</v>
+        <v>2176.9499999999998</v>
       </c>
       <c r="M25">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1698,37 +1728,37 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>44516</v>
+        <v>44599</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E26">
-        <v>2288.75</v>
+        <v>133.6</v>
       </c>
       <c r="F26">
-        <v>2194.21</v>
+        <v>128.38</v>
       </c>
       <c r="G26">
-        <v>2184.1799999999998</v>
+        <v>124.6</v>
       </c>
       <c r="H26">
-        <v>2357.41</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="I26">
-        <v>2392.4499999999998</v>
+        <v>138.07</v>
       </c>
       <c r="J26">
-        <v>2609.85</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
       </c>
       <c r="L26">
-        <v>1911.7</v>
+        <v>121.6</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N26" t="s">
         <v>6</v>
@@ -1742,37 +1772,37 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>44515</v>
+        <v>44596</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E27">
-        <v>367.8</v>
+        <v>4092</v>
       </c>
       <c r="F27">
-        <v>356.44</v>
+        <v>3776.95</v>
       </c>
       <c r="G27">
-        <v>341.13</v>
+        <v>3746.76</v>
       </c>
       <c r="H27">
-        <v>378.83</v>
+        <v>4214.76</v>
       </c>
       <c r="I27">
-        <v>387.22</v>
+        <v>4242.17</v>
       </c>
       <c r="J27">
-        <v>433.87</v>
+        <v>4730.0200000000004</v>
       </c>
       <c r="K27" t="s">
         <v>6</v>
       </c>
       <c r="L27">
-        <v>374.15</v>
+        <v>3947.4</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
         <v>6</v>
@@ -1786,40 +1816,40 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>44515</v>
+        <v>44595</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>926.25</v>
+        <v>13206</v>
       </c>
       <c r="F28">
-        <v>869.94</v>
+        <v>12389.2</v>
       </c>
       <c r="G28">
-        <v>866.86</v>
+        <v>12025.37</v>
       </c>
       <c r="H28">
-        <v>954.04</v>
+        <v>13579.15</v>
       </c>
       <c r="I28">
-        <v>959.1</v>
+        <v>13602.18</v>
       </c>
       <c r="J28">
-        <v>1056.0999999999999</v>
+        <v>13936.05</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>918.2</v>
+        <v>12185.55</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1830,40 +1860,40 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>44512</v>
+        <v>44580</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>922.15</v>
+        <v>1222.5</v>
       </c>
       <c r="F29">
-        <v>866.97</v>
+        <v>1152.56</v>
       </c>
       <c r="G29">
-        <v>846.17</v>
+        <v>1113.9000000000001</v>
       </c>
       <c r="H29">
-        <v>949.81</v>
+        <v>1259.17</v>
       </c>
       <c r="I29">
-        <v>959.97</v>
+        <v>1274.53</v>
       </c>
       <c r="J29">
-        <v>1104.8699999999999</v>
+        <v>1327.78</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>925.35</v>
+        <v>1048.5999999999999</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1874,40 +1904,40 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>44512</v>
+        <v>44575</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>2252.3000000000002</v>
+        <v>499.65</v>
       </c>
       <c r="F30">
-        <v>2189.8000000000002</v>
+        <v>468.25</v>
       </c>
       <c r="G30">
-        <v>2179.61</v>
+        <v>464.03</v>
       </c>
       <c r="H30">
-        <v>2319.87</v>
+        <v>514.64</v>
       </c>
       <c r="I30">
-        <v>2392.4499999999998</v>
+        <v>515.6</v>
       </c>
       <c r="J30">
-        <v>2609.85</v>
+        <v>529.22</v>
       </c>
       <c r="K30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>2042.05</v>
+        <v>469.95</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1918,40 +1948,40 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>44510</v>
+        <v>44573</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>4169.55</v>
+        <v>596.4</v>
       </c>
       <c r="F31">
-        <v>4107.1499999999996</v>
+        <v>568.29</v>
       </c>
       <c r="G31">
-        <v>3788.59</v>
+        <v>551.22</v>
       </c>
       <c r="H31">
-        <v>4294.6400000000003</v>
+        <v>614.29</v>
       </c>
       <c r="I31">
-        <v>4574.22</v>
+        <v>669</v>
       </c>
       <c r="J31">
-        <v>4830.2700000000004</v>
+        <v>780.4</v>
       </c>
       <c r="K31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L31">
-        <v>3861.95</v>
+        <v>676.55</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -1962,40 +1992,40 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>44509</v>
+        <v>44571</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>2006.35</v>
+        <v>31.8</v>
       </c>
       <c r="F32">
-        <v>1940.16</v>
+        <v>29.37</v>
       </c>
       <c r="G32">
-        <v>1849.85</v>
+        <v>28.98</v>
       </c>
       <c r="H32">
-        <v>2066.54</v>
+        <v>32.75</v>
       </c>
       <c r="I32">
-        <v>2111.6</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J32">
-        <v>2406.8000000000002</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32">
+        <v>30.65</v>
+      </c>
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="L32">
-        <v>1966.85</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
       <c r="N32" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2006,40 +2036,40 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>44504</v>
+        <v>44571</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E33">
-        <v>1438</v>
+        <v>382.05</v>
       </c>
       <c r="F33">
-        <v>1348.05</v>
+        <v>367</v>
       </c>
       <c r="G33">
-        <v>1246.52</v>
+        <v>356.22</v>
       </c>
       <c r="H33">
-        <v>1481.14</v>
+        <v>391.12</v>
       </c>
       <c r="I33">
-        <v>1500.53</v>
+        <v>393.51</v>
       </c>
       <c r="J33">
-        <v>1557.03</v>
+        <v>403.35</v>
       </c>
       <c r="K33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>1292.45</v>
+        <v>434.7</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2050,37 +2080,37 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>44503</v>
+        <v>44568</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>940</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F34">
-        <v>889.59</v>
+        <v>147.59</v>
       </c>
       <c r="G34">
-        <v>877.45</v>
+        <v>147.49</v>
       </c>
       <c r="H34">
-        <v>968.2</v>
+        <v>163.46</v>
       </c>
       <c r="I34">
-        <v>976.45</v>
+        <v>166.75</v>
       </c>
       <c r="J34">
-        <v>1092.05</v>
+        <v>184.75</v>
       </c>
       <c r="K34" t="s">
         <v>15</v>
       </c>
       <c r="L34">
-        <v>911.3</v>
+        <v>157.75</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
         <v>4</v>
@@ -2094,37 +2124,37 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>44503</v>
+        <v>44568</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>467.25</v>
+        <v>200.65</v>
       </c>
       <c r="F35">
-        <v>449.1</v>
+        <v>190.7</v>
       </c>
       <c r="G35">
-        <v>434.55</v>
+        <v>183.28</v>
       </c>
       <c r="H35">
-        <v>481.27</v>
+        <v>206.67</v>
       </c>
       <c r="I35">
-        <v>483.37</v>
+        <v>214.8</v>
       </c>
       <c r="J35">
-        <v>540.63</v>
+        <v>223.1</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
       </c>
       <c r="L35">
-        <v>467.45</v>
+        <v>201.05</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N35" t="s">
         <v>4</v>
@@ -2138,37 +2168,37 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>44503</v>
+        <v>44566</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E36">
-        <v>2376.5500000000002</v>
+        <v>1903.9</v>
       </c>
       <c r="F36">
-        <v>2227.59</v>
+        <v>1755.34</v>
       </c>
       <c r="G36">
-        <v>2195.98</v>
+        <v>1642.64</v>
       </c>
       <c r="H36">
-        <v>2447.7800000000002</v>
+        <v>1961.02</v>
       </c>
       <c r="I36">
-        <v>2447.85</v>
+        <v>1969.95</v>
       </c>
       <c r="J36">
-        <v>2581.4299999999998</v>
+        <v>2061.4699999999998</v>
       </c>
       <c r="K36" t="s">
         <v>3</v>
       </c>
       <c r="L36">
-        <v>2332.1</v>
+        <v>1977.45</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N36" t="s">
         <v>4</v>
@@ -2182,37 +2212,37 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>44503</v>
+        <v>44539</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E37">
-        <v>3960.1</v>
+        <v>2228.5</v>
       </c>
       <c r="F37">
-        <v>3811.12</v>
+        <v>2108.85</v>
       </c>
       <c r="G37">
-        <v>3778.9</v>
+        <v>1997.53</v>
       </c>
       <c r="H37">
-        <v>4078.9</v>
+        <v>2295.36</v>
       </c>
       <c r="I37">
-        <v>4094.88</v>
+        <v>2360.58</v>
       </c>
       <c r="J37">
-        <v>4611.7299999999996</v>
+        <v>2638.53</v>
       </c>
       <c r="K37" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L37">
-        <v>4220.7</v>
+        <v>2226.6</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
         <v>4</v>
@@ -2226,40 +2256,40 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>44502</v>
+        <v>44533</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>503</v>
+        <v>364.15</v>
       </c>
       <c r="F38">
-        <v>468.45</v>
+        <v>337.79</v>
       </c>
       <c r="G38">
-        <v>404.65</v>
+        <v>318.74</v>
       </c>
       <c r="H38">
-        <v>518.09</v>
+        <v>375.07</v>
       </c>
       <c r="I38">
-        <v>538.33000000000004</v>
+        <v>385.52</v>
       </c>
       <c r="J38">
-        <v>564.23</v>
+        <v>403.45</v>
       </c>
       <c r="K38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>407.5</v>
+        <v>424</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2270,37 +2300,40 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>183.95</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="F39">
-        <v>172.67</v>
+        <v>151.22</v>
       </c>
       <c r="G39">
-        <v>150.44</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="H39">
-        <v>189.47</v>
+        <v>159.6</v>
       </c>
       <c r="I39">
-        <v>220.63</v>
+        <v>160.97999999999999</v>
+      </c>
+      <c r="J39">
+        <v>167.95</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>166.8</v>
+        <v>145.9</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2311,37 +2344,37 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>44497</v>
+        <v>44531</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>1947.1</v>
+        <v>5080.25</v>
       </c>
       <c r="F40">
-        <v>1858.11</v>
+        <v>4957.96</v>
       </c>
       <c r="G40">
-        <v>1845.66</v>
+        <v>4845.8599999999997</v>
       </c>
       <c r="H40">
-        <v>2005.51</v>
+        <v>5220.53</v>
       </c>
       <c r="I40">
-        <v>2022.07</v>
+        <v>5232.66</v>
       </c>
       <c r="J40">
-        <v>2175.9699999999998</v>
+        <v>5311.9</v>
       </c>
       <c r="K40" t="s">
         <v>3</v>
       </c>
       <c r="L40">
-        <v>2149.5500000000002</v>
+        <v>5060.1000000000004</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
         <v>4</v>
@@ -2355,34 +2388,37 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>44491</v>
+        <v>44526</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>50.1</v>
+        <v>1810.1</v>
       </c>
       <c r="F41">
-        <v>46.38</v>
+        <v>1745.93</v>
       </c>
       <c r="G41">
-        <v>45.6</v>
+        <v>1715.01</v>
       </c>
       <c r="H41">
-        <v>52.35</v>
+        <v>1864.4</v>
       </c>
       <c r="I41">
-        <v>52.7</v>
+        <v>1887.2</v>
+      </c>
+      <c r="J41">
+        <v>2088.1999999999998</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>48.8</v>
+        <v>1974.55</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N41" t="s">
         <v>4</v>
@@ -2396,37 +2432,37 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>1243.3</v>
+        <v>142.9</v>
       </c>
       <c r="F42">
-        <v>1184.8599999999999</v>
+        <v>133.26</v>
       </c>
       <c r="G42">
-        <v>1112.71</v>
+        <v>127.28</v>
       </c>
       <c r="H42">
-        <v>1299.25</v>
+        <v>147.19</v>
       </c>
       <c r="I42">
-        <v>1328.27</v>
+        <v>149.35</v>
       </c>
       <c r="J42">
-        <v>1397.58</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>1270.1500000000001</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N42" t="s">
         <v>4</v>
@@ -2440,40 +2476,40 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>44490</v>
+        <v>44517</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>14400.05</v>
+        <v>230.3</v>
       </c>
       <c r="F43">
-        <v>13928.9</v>
+        <v>218.03</v>
       </c>
       <c r="G43">
-        <v>13651.23</v>
+        <v>214.41</v>
       </c>
       <c r="H43">
-        <v>14887.35</v>
+        <v>237.21</v>
       </c>
       <c r="I43">
-        <v>15048.05</v>
+        <v>241.3</v>
       </c>
       <c r="J43">
-        <v>15158.53</v>
+        <v>258</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L43">
-        <v>14644.95</v>
+        <v>213.5</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2484,40 +2520,40 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>44489</v>
+        <v>44516</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>14400</v>
+        <v>504</v>
       </c>
       <c r="F44">
-        <v>13915.11</v>
+        <v>485.12</v>
       </c>
       <c r="G44">
-        <v>13616.79</v>
+        <v>474.56</v>
       </c>
       <c r="H44">
-        <v>14887.35</v>
+        <v>519.12</v>
       </c>
       <c r="I44">
-        <v>15048</v>
+        <v>564.98</v>
       </c>
       <c r="J44">
-        <v>15158.53</v>
+        <v>657.23</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L44">
-        <v>14453.9</v>
+        <v>425.5</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2528,37 +2564,37 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>44489</v>
+        <v>44516</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>497.95</v>
+        <v>2288.75</v>
       </c>
       <c r="F45">
-        <v>461.51</v>
+        <v>2194.21</v>
       </c>
       <c r="G45">
-        <v>455.19</v>
+        <v>2184.1799999999998</v>
       </c>
       <c r="H45">
-        <v>520.36</v>
+        <v>2357.41</v>
       </c>
       <c r="I45">
-        <v>520.41999999999996</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J45">
-        <v>580.41999999999996</v>
+        <v>2609.85</v>
       </c>
       <c r="K45" t="s">
         <v>6</v>
       </c>
       <c r="L45">
-        <v>428.55</v>
+        <v>1911.7</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
         <v>6</v>
@@ -2572,37 +2608,40 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>8928</v>
+        <v>367.8</v>
       </c>
       <c r="F46">
-        <v>8199.61</v>
+        <v>356.44</v>
       </c>
       <c r="G46">
-        <v>8071.6</v>
+        <v>341.13</v>
       </c>
       <c r="H46">
-        <v>9329.76</v>
+        <v>378.83</v>
       </c>
       <c r="I46">
-        <v>9446.1</v>
+        <v>387.22</v>
+      </c>
+      <c r="J46">
+        <v>433.87</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L46">
-        <v>9105.75</v>
+        <v>374.15</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2613,34 +2652,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E47">
-        <v>358</v>
+        <v>926.25</v>
       </c>
       <c r="F47">
-        <v>327.27999999999997</v>
+        <v>869.94</v>
       </c>
       <c r="G47">
-        <v>321.62</v>
+        <v>866.86</v>
       </c>
       <c r="H47">
-        <v>374.11</v>
+        <v>954.04</v>
       </c>
       <c r="I47">
-        <v>377.57</v>
+        <v>959.1</v>
+      </c>
+      <c r="J47">
+        <v>1056.0999999999999</v>
       </c>
       <c r="K47" t="s">
         <v>15</v>
       </c>
       <c r="L47">
-        <v>318.55</v>
+        <v>918.2</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N47" t="s">
         <v>4</v>
@@ -2654,40 +2696,40 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>44482</v>
+        <v>44512</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>1840.1</v>
+        <v>922.15</v>
       </c>
       <c r="F48">
-        <v>1728.38</v>
+        <v>866.97</v>
       </c>
       <c r="G48">
-        <v>1649.84</v>
+        <v>846.17</v>
       </c>
       <c r="H48">
-        <v>1922.9</v>
+        <v>949.81</v>
       </c>
       <c r="I48">
-        <v>1954.85</v>
+        <v>959.97</v>
       </c>
       <c r="J48">
-        <v>2179.75</v>
+        <v>1104.8699999999999</v>
       </c>
       <c r="K48" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L48">
-        <v>1792.45</v>
+        <v>925.35</v>
       </c>
       <c r="M48">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -2698,40 +2740,40 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>44481</v>
+        <v>44512</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>456.35</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="F49">
-        <v>431.76</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="G49">
-        <v>421.61</v>
+        <v>2179.61</v>
       </c>
       <c r="H49">
-        <v>476.89</v>
+        <v>2319.87</v>
       </c>
       <c r="I49">
-        <v>476.9</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J49">
-        <v>531.9</v>
+        <v>2609.85</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L49">
-        <v>464.65</v>
+        <v>2042.05</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -2742,34 +2784,34 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>44481</v>
+        <v>44510</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>96.3</v>
+        <v>4169.55</v>
       </c>
       <c r="F50">
-        <v>91.74</v>
+        <v>4107.1499999999996</v>
       </c>
       <c r="G50">
-        <v>88.31</v>
+        <v>3788.59</v>
       </c>
       <c r="H50">
-        <v>100.63</v>
+        <v>4294.6400000000003</v>
       </c>
       <c r="I50">
-        <v>106.95</v>
+        <v>4574.22</v>
       </c>
       <c r="J50">
-        <v>122.7</v>
+        <v>4830.2700000000004</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>102.55</v>
+        <v>3861.95</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -2786,34 +2828,34 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>44481</v>
+        <v>44509</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E51">
-        <v>2025</v>
+        <v>2006.35</v>
       </c>
       <c r="F51">
-        <v>1869.62</v>
+        <v>1940.16</v>
       </c>
       <c r="G51">
-        <v>1853.79</v>
+        <v>1849.85</v>
       </c>
       <c r="H51">
-        <v>2116.13</v>
+        <v>2066.54</v>
       </c>
       <c r="I51">
-        <v>2147.83</v>
+        <v>2111.6</v>
       </c>
       <c r="J51">
-        <v>2419.38</v>
+        <v>2406.8000000000002</v>
       </c>
       <c r="K51" t="s">
         <v>15</v>
       </c>
       <c r="L51">
-        <v>1993.8</v>
+        <v>1966.85</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -2830,37 +2872,37 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>44480</v>
+        <v>44504</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>313.55</v>
+        <v>1438</v>
       </c>
       <c r="F52">
-        <v>297.8</v>
+        <v>1348.05</v>
       </c>
       <c r="G52">
-        <v>282.27</v>
+        <v>1246.52</v>
       </c>
       <c r="H52">
-        <v>323.38</v>
+        <v>1481.14</v>
       </c>
       <c r="I52">
-        <v>327.66000000000003</v>
+        <v>1500.53</v>
       </c>
       <c r="J52">
-        <v>334.27</v>
+        <v>1557.03</v>
       </c>
       <c r="K52" t="s">
         <v>6</v>
       </c>
       <c r="L52">
-        <v>269.75</v>
+        <v>1292.45</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N52" t="s">
         <v>6</v>
@@ -2874,37 +2916,37 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>789.25</v>
+        <v>940</v>
       </c>
       <c r="F53">
-        <v>757.08</v>
+        <v>889.59</v>
       </c>
       <c r="G53">
-        <v>751.14</v>
+        <v>877.45</v>
       </c>
       <c r="H53">
-        <v>816.23</v>
+        <v>968.2</v>
       </c>
       <c r="I53">
-        <v>824.77</v>
+        <v>976.45</v>
       </c>
       <c r="J53">
-        <v>834.78</v>
+        <v>1092.05</v>
       </c>
       <c r="K53" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <v>911.3</v>
+      </c>
+      <c r="M53">
         <v>3</v>
-      </c>
-      <c r="L53">
-        <v>821</v>
-      </c>
-      <c r="M53">
-        <v>6</v>
       </c>
       <c r="N53" t="s">
         <v>4</v>
@@ -2918,40 +2960,40 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E54">
-        <v>656.4</v>
+        <v>467.25</v>
       </c>
       <c r="F54">
-        <v>653</v>
+        <v>449.1</v>
       </c>
       <c r="G54">
-        <v>632.46</v>
+        <v>434.55</v>
       </c>
       <c r="H54">
-        <v>685.94</v>
+        <v>481.27</v>
       </c>
       <c r="I54">
-        <v>708.65</v>
+        <v>483.37</v>
       </c>
       <c r="J54">
-        <v>792.4</v>
+        <v>540.63</v>
       </c>
       <c r="K54" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L54">
-        <v>515.79999999999995</v>
+        <v>467.45</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2962,40 +3004,40 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E55">
-        <v>97.75</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="F55">
-        <v>90.97</v>
+        <v>2227.59</v>
       </c>
       <c r="G55">
-        <v>88.12</v>
+        <v>2195.98</v>
       </c>
       <c r="H55">
-        <v>102.15</v>
+        <v>2447.7800000000002</v>
       </c>
       <c r="I55">
-        <v>106.95</v>
+        <v>2447.85</v>
       </c>
       <c r="J55">
-        <v>122.7</v>
+        <v>2581.4299999999998</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>97.45</v>
+        <v>2332.1</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N55" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3006,37 +3048,37 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>1965.1</v>
+        <v>3960.1</v>
       </c>
       <c r="F56">
-        <v>1863.54</v>
+        <v>3811.12</v>
       </c>
       <c r="G56">
-        <v>1850.86</v>
+        <v>3778.9</v>
       </c>
       <c r="H56">
-        <v>2053.5300000000002</v>
+        <v>4078.9</v>
       </c>
       <c r="I56">
-        <v>2073.9699999999998</v>
+        <v>4094.88</v>
       </c>
       <c r="J56">
-        <v>2147.83</v>
+        <v>4611.7299999999996</v>
       </c>
       <c r="K56" t="s">
         <v>3</v>
       </c>
       <c r="L56">
-        <v>1946.05</v>
+        <v>4220.7</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N56" t="s">
         <v>4</v>
@@ -3050,40 +3092,40 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>44477</v>
+        <v>44502</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>211.55</v>
+        <v>503</v>
       </c>
       <c r="F57">
-        <v>199.66</v>
+        <v>468.45</v>
       </c>
       <c r="G57">
-        <v>195.14</v>
+        <v>404.65</v>
       </c>
       <c r="H57">
-        <v>221.07</v>
+        <v>518.09</v>
       </c>
       <c r="I57">
-        <v>222.5</v>
+        <v>538.33000000000004</v>
       </c>
       <c r="J57">
-        <v>231.5</v>
+        <v>564.23</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L57">
-        <v>197.65</v>
+        <v>407.5</v>
       </c>
       <c r="M57">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3094,37 +3136,37 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>44476</v>
+        <v>44498</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>2141.3000000000002</v>
+        <v>183.95</v>
       </c>
       <c r="F58">
-        <v>1927.17</v>
+        <v>172.67</v>
       </c>
       <c r="G58">
-        <v>1897.63</v>
+        <v>150.44</v>
       </c>
       <c r="H58">
-        <v>2237.66</v>
+        <v>189.47</v>
       </c>
       <c r="I58">
-        <v>2357.87</v>
+        <v>220.63</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L58">
-        <v>1949.45</v>
+        <v>166.8</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N58" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3135,34 +3177,37 @@
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>44476</v>
+        <v>44497</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E59">
-        <v>1304.5</v>
+        <v>1947.1</v>
       </c>
       <c r="F59">
-        <v>1181.8499999999999</v>
+        <v>1858.11</v>
       </c>
       <c r="G59">
-        <v>1177.8599999999999</v>
+        <v>1845.66</v>
       </c>
       <c r="H59">
-        <v>1357.02</v>
+        <v>2005.51</v>
       </c>
       <c r="I59">
-        <v>1363.2</v>
+        <v>2022.07</v>
+      </c>
+      <c r="J59">
+        <v>2175.9699999999998</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>1313.25</v>
+        <v>2149.5500000000002</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N59" t="s">
         <v>4</v>
@@ -3176,37 +3221,37 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>44476</v>
+        <v>44491</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E60">
-        <v>1046</v>
+        <v>50.1</v>
       </c>
       <c r="F60">
-        <v>991.55</v>
+        <v>46.38</v>
       </c>
       <c r="G60">
-        <v>975.33</v>
+        <v>45.6</v>
       </c>
       <c r="H60">
-        <v>1093.07</v>
+        <v>52.35</v>
       </c>
       <c r="I60">
-        <v>1100.17</v>
+        <v>52.7</v>
       </c>
       <c r="K60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L60">
-        <v>804.35</v>
+        <v>48.8</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3217,40 +3262,40 @@
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>44476</v>
+        <v>44491</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E61">
-        <v>310.7</v>
+        <v>1243.3</v>
       </c>
       <c r="F61">
-        <v>295.52999999999997</v>
+        <v>1184.8599999999999</v>
       </c>
       <c r="G61">
-        <v>280.48</v>
+        <v>1112.71</v>
       </c>
       <c r="H61">
-        <v>323.38</v>
+        <v>1299.25</v>
       </c>
       <c r="I61">
-        <v>324.68</v>
+        <v>1328.27</v>
       </c>
       <c r="J61">
-        <v>334.27</v>
+        <v>1397.58</v>
       </c>
       <c r="K61" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L61">
-        <v>273.3</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="M61">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3261,40 +3306,40 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>44475</v>
+        <v>44490</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E62">
-        <v>214.3</v>
+        <v>14400.05</v>
       </c>
       <c r="F62">
-        <v>206.45</v>
+        <v>13928.9</v>
       </c>
       <c r="G62">
-        <v>205.8</v>
+        <v>13651.23</v>
       </c>
       <c r="H62">
-        <v>223.94</v>
+        <v>14887.35</v>
       </c>
       <c r="I62">
-        <v>225.65</v>
+        <v>15048.05</v>
       </c>
       <c r="J62">
-        <v>245.35</v>
+        <v>15158.53</v>
       </c>
       <c r="K62" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L62">
-        <v>214.4</v>
+        <v>14644.95</v>
       </c>
       <c r="M62">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N62" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3305,37 +3350,40 @@
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>44474</v>
+        <v>44489</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E63">
-        <v>289</v>
+        <v>14400</v>
       </c>
       <c r="F63">
-        <v>276.52</v>
+        <v>13915.11</v>
       </c>
       <c r="G63">
-        <v>272.33</v>
+        <v>13616.79</v>
       </c>
       <c r="H63">
-        <v>302</v>
+        <v>14887.35</v>
       </c>
       <c r="I63">
-        <v>306.18</v>
+        <v>15048</v>
+      </c>
+      <c r="J63">
+        <v>15158.53</v>
       </c>
       <c r="K63" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63">
+        <v>14453.9</v>
+      </c>
+      <c r="M63">
         <v>15</v>
       </c>
-      <c r="L63">
-        <v>283.05</v>
-      </c>
-      <c r="M63">
-        <v>13</v>
-      </c>
       <c r="N63" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3346,39 +3394,857 @@
         <v>1</v>
       </c>
       <c r="C64" s="1">
+        <v>44489</v>
+      </c>
+      <c r="D64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64">
+        <v>497.95</v>
+      </c>
+      <c r="F64">
+        <v>461.51</v>
+      </c>
+      <c r="G64">
+        <v>455.19</v>
+      </c>
+      <c r="H64">
+        <v>520.36</v>
+      </c>
+      <c r="I64">
+        <v>520.41999999999996</v>
+      </c>
+      <c r="J64">
+        <v>580.41999999999996</v>
+      </c>
+      <c r="K64" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64">
+        <v>428.55</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44483</v>
+      </c>
+      <c r="D65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65">
+        <v>8928</v>
+      </c>
+      <c r="F65">
+        <v>8199.61</v>
+      </c>
+      <c r="G65">
+        <v>8071.6</v>
+      </c>
+      <c r="H65">
+        <v>9329.76</v>
+      </c>
+      <c r="I65">
+        <v>9446.1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65">
+        <v>9105.75</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44483</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66">
+        <v>358</v>
+      </c>
+      <c r="F66">
+        <v>327.27999999999997</v>
+      </c>
+      <c r="G66">
+        <v>321.62</v>
+      </c>
+      <c r="H66">
+        <v>374.11</v>
+      </c>
+      <c r="I66">
+        <v>377.57</v>
+      </c>
+      <c r="K66" t="s">
+        <v>15</v>
+      </c>
+      <c r="L66">
+        <v>318.55</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44482</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67">
+        <v>1840.1</v>
+      </c>
+      <c r="F67">
+        <v>1728.38</v>
+      </c>
+      <c r="G67">
+        <v>1649.84</v>
+      </c>
+      <c r="H67">
+        <v>1922.9</v>
+      </c>
+      <c r="I67">
+        <v>1954.85</v>
+      </c>
+      <c r="J67">
+        <v>2179.75</v>
+      </c>
+      <c r="K67" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67">
+        <v>1792.45</v>
+      </c>
+      <c r="M67">
+        <v>9</v>
+      </c>
+      <c r="N67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44481</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68">
+        <v>456.35</v>
+      </c>
+      <c r="F68">
+        <v>431.76</v>
+      </c>
+      <c r="G68">
+        <v>421.61</v>
+      </c>
+      <c r="H68">
+        <v>476.89</v>
+      </c>
+      <c r="I68">
+        <v>476.9</v>
+      </c>
+      <c r="J68">
+        <v>531.9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68">
+        <v>464.65</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44481</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69">
+        <v>96.3</v>
+      </c>
+      <c r="F69">
+        <v>91.74</v>
+      </c>
+      <c r="G69">
+        <v>88.31</v>
+      </c>
+      <c r="H69">
+        <v>100.63</v>
+      </c>
+      <c r="I69">
+        <v>106.95</v>
+      </c>
+      <c r="J69">
+        <v>122.7</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69">
+        <v>102.55</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44481</v>
+      </c>
+      <c r="D70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70">
+        <v>2025</v>
+      </c>
+      <c r="F70">
+        <v>1869.62</v>
+      </c>
+      <c r="G70">
+        <v>1853.79</v>
+      </c>
+      <c r="H70">
+        <v>2116.13</v>
+      </c>
+      <c r="I70">
+        <v>2147.83</v>
+      </c>
+      <c r="J70">
+        <v>2419.38</v>
+      </c>
+      <c r="K70" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70">
+        <v>1993.8</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44480</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71">
+        <v>313.55</v>
+      </c>
+      <c r="F71">
+        <v>297.8</v>
+      </c>
+      <c r="G71">
+        <v>282.27</v>
+      </c>
+      <c r="H71">
+        <v>323.38</v>
+      </c>
+      <c r="I71">
+        <v>327.66000000000003</v>
+      </c>
+      <c r="J71">
+        <v>334.27</v>
+      </c>
+      <c r="K71" t="s">
+        <v>6</v>
+      </c>
+      <c r="L71">
+        <v>269.75</v>
+      </c>
+      <c r="M71">
+        <v>7</v>
+      </c>
+      <c r="N71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72">
+        <v>789.25</v>
+      </c>
+      <c r="F72">
+        <v>757.08</v>
+      </c>
+      <c r="G72">
+        <v>751.14</v>
+      </c>
+      <c r="H72">
+        <v>816.23</v>
+      </c>
+      <c r="I72">
+        <v>824.77</v>
+      </c>
+      <c r="J72">
+        <v>834.78</v>
+      </c>
+      <c r="K72" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>821</v>
+      </c>
+      <c r="M72">
+        <v>6</v>
+      </c>
+      <c r="N72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73">
+        <v>656.4</v>
+      </c>
+      <c r="F73">
+        <v>653</v>
+      </c>
+      <c r="G73">
+        <v>632.46</v>
+      </c>
+      <c r="H73">
+        <v>685.94</v>
+      </c>
+      <c r="I73">
+        <v>708.65</v>
+      </c>
+      <c r="J73">
+        <v>792.4</v>
+      </c>
+      <c r="K73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73">
+        <v>515.79999999999995</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74">
+        <v>97.75</v>
+      </c>
+      <c r="F74">
+        <v>90.97</v>
+      </c>
+      <c r="G74">
+        <v>88.12</v>
+      </c>
+      <c r="H74">
+        <v>102.15</v>
+      </c>
+      <c r="I74">
+        <v>106.95</v>
+      </c>
+      <c r="J74">
+        <v>122.7</v>
+      </c>
+      <c r="K74" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74">
+        <v>97.45</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="N74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75">
+        <v>1965.1</v>
+      </c>
+      <c r="F75">
+        <v>1863.54</v>
+      </c>
+      <c r="G75">
+        <v>1850.86</v>
+      </c>
+      <c r="H75">
+        <v>2053.5300000000002</v>
+      </c>
+      <c r="I75">
+        <v>2073.9699999999998</v>
+      </c>
+      <c r="J75">
+        <v>2147.83</v>
+      </c>
+      <c r="K75" t="s">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>1946.05</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76">
+        <v>211.55</v>
+      </c>
+      <c r="F76">
+        <v>199.66</v>
+      </c>
+      <c r="G76">
+        <v>195.14</v>
+      </c>
+      <c r="H76">
+        <v>221.07</v>
+      </c>
+      <c r="I76">
+        <v>222.5</v>
+      </c>
+      <c r="J76">
+        <v>231.5</v>
+      </c>
+      <c r="K76" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76">
+        <v>197.65</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77">
+        <v>2141.3000000000002</v>
+      </c>
+      <c r="F77">
+        <v>1927.17</v>
+      </c>
+      <c r="G77">
+        <v>1897.63</v>
+      </c>
+      <c r="H77">
+        <v>2237.66</v>
+      </c>
+      <c r="I77">
+        <v>2357.87</v>
+      </c>
+      <c r="K77" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77">
+        <v>1949.45</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="N77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>1304.5</v>
+      </c>
+      <c r="F78">
+        <v>1181.8499999999999</v>
+      </c>
+      <c r="G78">
+        <v>1177.8599999999999</v>
+      </c>
+      <c r="H78">
+        <v>1357.02</v>
+      </c>
+      <c r="I78">
+        <v>1363.2</v>
+      </c>
+      <c r="K78" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78">
+        <v>1313.25</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79">
+        <v>1046</v>
+      </c>
+      <c r="F79">
+        <v>991.55</v>
+      </c>
+      <c r="G79">
+        <v>975.33</v>
+      </c>
+      <c r="H79">
+        <v>1093.07</v>
+      </c>
+      <c r="I79">
+        <v>1100.17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>6</v>
+      </c>
+      <c r="L79">
+        <v>804.35</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80">
+        <v>310.7</v>
+      </c>
+      <c r="F80">
+        <v>295.52999999999997</v>
+      </c>
+      <c r="G80">
+        <v>280.48</v>
+      </c>
+      <c r="H80">
+        <v>323.38</v>
+      </c>
+      <c r="I80">
+        <v>324.68</v>
+      </c>
+      <c r="J80">
+        <v>334.27</v>
+      </c>
+      <c r="K80" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80">
+        <v>273.3</v>
+      </c>
+      <c r="M80">
+        <v>9</v>
+      </c>
+      <c r="N80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44475</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>214.3</v>
+      </c>
+      <c r="F81">
+        <v>206.45</v>
+      </c>
+      <c r="G81">
+        <v>205.8</v>
+      </c>
+      <c r="H81">
+        <v>223.94</v>
+      </c>
+      <c r="I81">
+        <v>225.65</v>
+      </c>
+      <c r="J81">
+        <v>245.35</v>
+      </c>
+      <c r="K81" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>214.4</v>
+      </c>
+      <c r="M81">
+        <v>9</v>
+      </c>
+      <c r="N81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44474</v>
+      </c>
+      <c r="D82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82">
+        <v>289</v>
+      </c>
+      <c r="F82">
+        <v>276.52</v>
+      </c>
+      <c r="G82">
+        <v>272.33</v>
+      </c>
+      <c r="H82">
+        <v>302</v>
+      </c>
+      <c r="I82">
+        <v>306.18</v>
+      </c>
+      <c r="K82" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82">
+        <v>283.05</v>
+      </c>
+      <c r="M82">
+        <v>13</v>
+      </c>
+      <c r="N82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
         <v>44470</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D83" t="s">
         <v>56</v>
       </c>
-      <c r="E64">
+      <c r="E83">
         <v>3396.6</v>
       </c>
-      <c r="F64">
+      <c r="F83">
         <v>3162.72</v>
       </c>
-      <c r="G64">
+      <c r="G83">
         <v>3027.58</v>
       </c>
-      <c r="H64">
+      <c r="H83">
         <v>3549.45</v>
       </c>
-      <c r="I64">
+      <c r="I83">
         <v>3557.23</v>
       </c>
-      <c r="J64">
+      <c r="J83">
         <v>3951.23</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K83" t="s">
         <v>15</v>
       </c>
-      <c r="L64">
+      <c r="L83">
         <v>3392.4</v>
       </c>
-      <c r="M64">
+      <c r="M83">
         <v>7</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N83" t="s">
         <v>4</v>
       </c>
     </row>

--- a/default/data/Clean/NCASH.xlsx
+++ b/default/data/Clean/NCASH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="84">
   <si>
     <t>Cash_N500</t>
   </si>
@@ -233,9 +233,6 @@
     <t>BHARATRAS.NS</t>
   </si>
   <si>
-    <t>ON</t>
-  </si>
-  <si>
     <t>SUMICHEM.NS</t>
   </si>
   <si>
@@ -270,6 +267,15 @@
   </si>
   <si>
     <t>SUPPETRO.NS</t>
+  </si>
+  <si>
+    <t>TIINDIA.NS</t>
+  </si>
+  <si>
+    <t>RVNL.NS</t>
+  </si>
+  <si>
+    <t>TCNSBRANDS.NS</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,40 +690,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44650</v>
+        <v>44676</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>215.75</v>
+        <v>1825.1</v>
       </c>
       <c r="F2">
-        <v>208.7</v>
+        <v>1689.06</v>
       </c>
       <c r="G2">
-        <v>205.69</v>
+        <v>1674.97</v>
       </c>
       <c r="H2">
-        <v>222.22</v>
+        <v>1879.85</v>
       </c>
       <c r="I2">
-        <v>239.33</v>
-      </c>
-      <c r="J2">
-        <v>279.33</v>
+        <v>2081.42</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="L2">
-        <v>216.8</v>
+        <v>1845.45</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -728,37 +731,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44648</v>
+        <v>44671</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>420.6</v>
+        <v>112.8</v>
       </c>
       <c r="F3">
-        <v>395.14</v>
+        <v>104.5</v>
       </c>
       <c r="G3">
-        <v>391.39</v>
+        <v>103.7</v>
       </c>
       <c r="H3">
-        <v>433.22</v>
+        <v>116.18</v>
       </c>
       <c r="I3">
-        <v>457.28</v>
-      </c>
-      <c r="J3">
-        <v>530.33000000000004</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <v>448.5</v>
+        <v>107.15</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -772,37 +772,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44643</v>
+        <v>44671</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>3119.1</v>
+        <v>2196</v>
       </c>
       <c r="F4">
-        <v>2918.47</v>
+        <v>2000.38</v>
       </c>
       <c r="G4">
-        <v>2831.24</v>
+        <v>1952.76</v>
       </c>
       <c r="H4">
-        <v>3212.67</v>
+        <v>2261.88</v>
       </c>
       <c r="I4">
-        <v>3232.32</v>
-      </c>
-      <c r="J4">
-        <v>3667.02</v>
+        <v>2528.98</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4">
-        <v>3298.25</v>
+        <v>2049.1999999999998</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>4</v>
@@ -816,37 +813,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>44642</v>
+        <v>44670</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>635.45000000000005</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F5">
-        <v>630.04</v>
+        <v>34.4</v>
       </c>
       <c r="G5">
-        <v>617.62</v>
+        <v>34.33</v>
       </c>
       <c r="H5">
-        <v>654.51</v>
+        <v>37.39</v>
       </c>
       <c r="I5">
-        <v>706.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="J5">
-        <v>739.58</v>
+        <v>40.03</v>
       </c>
       <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="M5">
         <v>3</v>
-      </c>
-      <c r="L5">
-        <v>745.65</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
       </c>
       <c r="N5" t="s">
         <v>4</v>
@@ -860,37 +857,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>44641</v>
+        <v>44664</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>190.35</v>
+        <v>2127.0500000000002</v>
       </c>
       <c r="F6">
-        <v>190.15</v>
+        <v>2008.05</v>
       </c>
       <c r="G6">
-        <v>188.55</v>
+        <v>1929.24</v>
       </c>
       <c r="H6">
-        <v>196.06</v>
+        <v>2190.86</v>
       </c>
       <c r="I6">
-        <v>197.35</v>
+        <v>2238.4699999999998</v>
       </c>
       <c r="J6">
-        <v>210.38</v>
+        <v>2338.2800000000002</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
       </c>
       <c r="L6">
-        <v>202.15</v>
+        <v>2146.0500000000002</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -904,37 +901,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>44641</v>
+        <v>44664</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>186.7</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="F7">
-        <v>170.28</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="G7">
-        <v>168.28</v>
+        <v>123.17</v>
       </c>
       <c r="H7">
-        <v>192.3</v>
+        <v>136.01</v>
       </c>
       <c r="I7">
-        <v>199.22</v>
+        <v>138.41999999999999</v>
       </c>
       <c r="J7">
-        <v>213.33</v>
+        <v>161.87</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
       <c r="L7">
-        <v>190.95</v>
+        <v>133.55000000000001</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" t="s">
         <v>4</v>
@@ -948,34 +945,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>44637</v>
+        <v>44664</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>2598</v>
+        <v>163.85</v>
       </c>
       <c r="F8">
-        <v>2443.84</v>
+        <v>154.72999999999999</v>
       </c>
       <c r="G8">
-        <v>2347.8000000000002</v>
+        <v>153.76</v>
       </c>
       <c r="H8">
-        <v>2675.94</v>
+        <v>168.77</v>
       </c>
       <c r="I8">
-        <v>2787.03</v>
+        <v>183.58</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>2796.5</v>
+        <v>150.44999999999999</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>4</v>
@@ -989,37 +986,40 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>44636</v>
+        <v>44664</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3091.65</v>
+        <v>1032.8499999999999</v>
       </c>
       <c r="F9">
-        <v>2882.96</v>
+        <v>959.21</v>
       </c>
       <c r="G9">
-        <v>3184.4</v>
+        <v>940.79</v>
       </c>
       <c r="H9">
-        <v>3285.6</v>
+        <v>1063.8399999999999</v>
       </c>
       <c r="I9">
-        <v>3481.92</v>
+        <v>1083.23</v>
+      </c>
+      <c r="J9">
+        <v>1222.6300000000001</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="L9">
-        <v>2905.5</v>
+        <v>1104.8499999999999</v>
       </c>
       <c r="M9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1030,37 +1030,37 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>44636</v>
+        <v>44659</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E10">
-        <v>555.15</v>
+        <v>831</v>
       </c>
       <c r="F10">
-        <v>524.04</v>
+        <v>787.99</v>
       </c>
       <c r="G10">
-        <v>523.72</v>
+        <v>766.29</v>
       </c>
       <c r="H10">
-        <v>571.79999999999995</v>
+        <v>855.93</v>
       </c>
       <c r="I10">
-        <v>596.04999999999995</v>
+        <v>858.5</v>
       </c>
       <c r="J10">
-        <v>634.13</v>
+        <v>904.6</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
       <c r="L10">
-        <v>608.35</v>
+        <v>845</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>4</v>
@@ -1074,37 +1074,40 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>44635</v>
+        <v>44656</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E11">
-        <v>200.3</v>
+        <v>4128.3</v>
       </c>
       <c r="F11">
-        <v>196.6</v>
+        <v>4020.78</v>
       </c>
       <c r="G11">
-        <v>206.31</v>
+        <v>3967.08</v>
       </c>
       <c r="H11">
-        <v>208.18</v>
+        <v>4247.25</v>
       </c>
       <c r="I11">
-        <v>217.02</v>
+        <v>4252.1499999999996</v>
+      </c>
+      <c r="J11">
+        <v>4381.33</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>216.8</v>
+        <v>4484.8</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1115,40 +1118,40 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>44634</v>
+        <v>44650</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>2998.9</v>
+        <v>215.75</v>
       </c>
       <c r="F12">
-        <v>2959.21</v>
+        <v>208.7</v>
       </c>
       <c r="G12">
-        <v>2950.79</v>
+        <v>205.69</v>
       </c>
       <c r="H12">
-        <v>3088.87</v>
+        <v>222.22</v>
       </c>
       <c r="I12">
-        <v>3110.77</v>
+        <v>239.33</v>
       </c>
       <c r="J12">
-        <v>3471.73</v>
+        <v>279.33</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L12">
-        <v>3092.9</v>
+        <v>223.8</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1159,40 +1162,40 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E13">
-        <v>1103.6500000000001</v>
+        <v>420.6</v>
       </c>
       <c r="F13">
-        <v>1047.53</v>
+        <v>395.14</v>
       </c>
       <c r="G13">
-        <v>1019.89</v>
+        <v>391.39</v>
       </c>
       <c r="H13">
-        <v>1135.5999999999999</v>
+        <v>433.22</v>
       </c>
       <c r="I13">
-        <v>1136.76</v>
+        <v>457.28</v>
       </c>
       <c r="J13">
-        <v>1206.57</v>
+        <v>530.33000000000004</v>
       </c>
       <c r="K13" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L13">
-        <v>1130.0999999999999</v>
+        <v>414.9</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1203,40 +1206,40 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>44634</v>
+        <v>44643</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>447.8</v>
+        <v>3119.1</v>
       </c>
       <c r="F14">
-        <v>443.76</v>
+        <v>2918.47</v>
       </c>
       <c r="G14">
-        <v>415.06</v>
+        <v>2831.24</v>
       </c>
       <c r="H14">
-        <v>459.45</v>
+        <v>3212.67</v>
       </c>
       <c r="I14">
-        <v>461.23</v>
+        <v>3232.32</v>
       </c>
       <c r="J14">
-        <v>480.93</v>
+        <v>3667.02</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>452.45</v>
+        <v>3430.5</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1247,37 +1250,37 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>44634</v>
+        <v>44642</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>1458.55</v>
+        <v>635.45000000000005</v>
       </c>
       <c r="F15">
-        <v>1368.38</v>
+        <v>630.04</v>
       </c>
       <c r="G15">
-        <v>1362.97</v>
+        <v>617.62</v>
       </c>
       <c r="H15">
-        <v>1502.31</v>
+        <v>654.51</v>
       </c>
       <c r="I15">
-        <v>1612.77</v>
+        <v>706.2</v>
       </c>
       <c r="J15">
-        <v>1865.62</v>
+        <v>739.58</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>1597.65</v>
+        <v>724.1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N15" t="s">
         <v>4</v>
@@ -1291,37 +1294,37 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>44634</v>
+        <v>44641</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>723</v>
+        <v>190.35</v>
       </c>
       <c r="F16">
-        <v>689.85</v>
+        <v>190.15</v>
       </c>
       <c r="G16">
-        <v>679.1</v>
+        <v>188.55</v>
       </c>
       <c r="H16">
-        <v>744.69</v>
+        <v>196.06</v>
       </c>
       <c r="I16">
-        <v>763.47</v>
+        <v>197.35</v>
       </c>
       <c r="J16">
-        <v>890.58</v>
+        <v>210.38</v>
       </c>
       <c r="K16" t="s">
         <v>3</v>
       </c>
       <c r="L16">
-        <v>896.55</v>
+        <v>203.55</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" t="s">
         <v>4</v>
@@ -1335,37 +1338,37 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>44631</v>
+        <v>44641</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E17">
-        <v>128.15</v>
+        <v>186.7</v>
       </c>
       <c r="F17">
-        <v>126.18</v>
+        <v>170.28</v>
       </c>
       <c r="G17">
-        <v>122.51</v>
+        <v>168.28</v>
       </c>
       <c r="H17">
-        <v>131.99</v>
+        <v>192.3</v>
       </c>
       <c r="I17">
-        <v>139.12</v>
+        <v>199.22</v>
       </c>
       <c r="J17">
-        <v>165.38</v>
+        <v>213.33</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
       </c>
       <c r="L17">
-        <v>130.9</v>
+        <v>205.2</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
         <v>4</v>
@@ -1379,37 +1382,34 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>44629</v>
+        <v>44637</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>65.650000000000006</v>
+        <v>2598</v>
       </c>
       <c r="F18">
-        <v>63.68</v>
+        <v>2443.84</v>
       </c>
       <c r="G18">
-        <v>56.47</v>
+        <v>2347.8000000000002</v>
       </c>
       <c r="H18">
-        <v>67.62</v>
+        <v>2675.94</v>
       </c>
       <c r="I18">
-        <v>74.33</v>
-      </c>
-      <c r="J18">
-        <v>80.83</v>
+        <v>2787.03</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
       </c>
       <c r="L18">
-        <v>73.400000000000006</v>
+        <v>2945.45</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
         <v>4</v>
@@ -1423,40 +1423,37 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>44624</v>
+        <v>44636</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E19">
-        <v>341.7</v>
+        <v>3091.65</v>
       </c>
       <c r="F19">
-        <v>327.39999999999998</v>
+        <v>2882.96</v>
       </c>
       <c r="G19">
-        <v>327.10000000000002</v>
+        <v>3184.4</v>
       </c>
       <c r="H19">
-        <v>351.95</v>
+        <v>3285.6</v>
       </c>
       <c r="I19">
-        <v>357.28</v>
-      </c>
-      <c r="J19">
-        <v>399.23</v>
+        <v>3481.92</v>
       </c>
       <c r="K19" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L19">
-        <v>310.8</v>
+        <v>3431.35</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1467,37 +1464,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>44623</v>
+        <v>44636</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>725.3</v>
+        <v>555.15</v>
       </c>
       <c r="F20">
-        <v>702.5</v>
+        <v>524.04</v>
       </c>
       <c r="G20">
-        <v>696.01</v>
+        <v>523.72</v>
       </c>
       <c r="H20">
-        <v>747.06</v>
+        <v>571.79999999999995</v>
       </c>
       <c r="I20">
-        <v>749.02</v>
+        <v>596.04999999999995</v>
       </c>
       <c r="J20">
-        <v>829.07</v>
+        <v>634.13</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
       </c>
       <c r="L20">
-        <v>861.1</v>
+        <v>675</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N20" t="s">
         <v>4</v>
@@ -1511,40 +1508,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>44617</v>
+        <v>44635</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>1981.95</v>
+        <v>200.3</v>
       </c>
       <c r="F21">
-        <v>1978.68</v>
+        <v>196.6</v>
       </c>
       <c r="G21">
-        <v>1958.01</v>
+        <v>206.31</v>
       </c>
       <c r="H21">
-        <v>2034.08</v>
+        <v>208.18</v>
       </c>
       <c r="I21">
-        <v>2041.41</v>
-      </c>
-      <c r="J21">
-        <v>2090.85</v>
+        <v>217.02</v>
       </c>
       <c r="K21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>2224.6</v>
+        <v>220.15</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1555,40 +1549,40 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>44606</v>
+        <v>44634</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E22">
-        <v>553.25</v>
+        <v>2998.9</v>
       </c>
       <c r="F22">
-        <v>534.80999999999995</v>
+        <v>2959.21</v>
       </c>
       <c r="G22">
-        <v>520.91999999999996</v>
+        <v>2950.79</v>
       </c>
       <c r="H22">
-        <v>569.85</v>
+        <v>3088.87</v>
       </c>
       <c r="I22">
-        <v>584.75</v>
+        <v>3110.77</v>
       </c>
       <c r="J22">
-        <v>651.35</v>
+        <v>3471.73</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>495.45</v>
+        <v>2997.8</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1599,37 +1593,37 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>44601</v>
+        <v>44634</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>1324</v>
+        <v>1103.6500000000001</v>
       </c>
       <c r="F23">
-        <v>1301.1600000000001</v>
+        <v>1047.53</v>
       </c>
       <c r="G23">
-        <v>1293.48</v>
+        <v>1019.89</v>
       </c>
       <c r="H23">
-        <v>1363.72</v>
+        <v>1135.5999999999999</v>
       </c>
       <c r="I23">
-        <v>1423.83</v>
+        <v>1136.76</v>
       </c>
       <c r="J23">
-        <v>1570.18</v>
+        <v>1206.57</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
       </c>
       <c r="L23">
-        <v>1192.8499999999999</v>
+        <v>1167.7</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
         <v>6</v>
@@ -1643,37 +1637,37 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44599</v>
+        <v>44634</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E24">
-        <v>452.75</v>
+        <v>447.8</v>
       </c>
       <c r="F24">
-        <v>430.28</v>
+        <v>443.76</v>
       </c>
       <c r="G24">
-        <v>377.77</v>
+        <v>415.06</v>
       </c>
       <c r="H24">
-        <v>466.33</v>
+        <v>459.45</v>
       </c>
       <c r="I24">
-        <v>468.63</v>
+        <v>461.23</v>
       </c>
       <c r="J24">
-        <v>490.85</v>
+        <v>480.93</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
       <c r="L24">
-        <v>391.9</v>
+        <v>459.8</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
         <v>6</v>
@@ -1687,34 +1681,37 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>44599</v>
+        <v>44634</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>2142</v>
+        <v>1458.55</v>
       </c>
       <c r="F25">
-        <v>2069.15</v>
+        <v>1368.38</v>
       </c>
       <c r="G25">
-        <v>2052.2199999999998</v>
+        <v>1362.97</v>
       </c>
       <c r="H25">
-        <v>2206.2600000000002</v>
+        <v>1502.31</v>
       </c>
       <c r="I25">
-        <v>2250.3000000000002</v>
+        <v>1612.77</v>
+      </c>
+      <c r="J25">
+        <v>1865.62</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
       </c>
       <c r="L25">
-        <v>2176.9499999999998</v>
+        <v>1637.35</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
         <v>4</v>
@@ -1728,40 +1725,40 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>44599</v>
+        <v>44634</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E26">
-        <v>133.6</v>
+        <v>723</v>
       </c>
       <c r="F26">
-        <v>128.38</v>
+        <v>689.85</v>
       </c>
       <c r="G26">
-        <v>124.6</v>
+        <v>679.1</v>
       </c>
       <c r="H26">
-        <v>137.61000000000001</v>
+        <v>744.69</v>
       </c>
       <c r="I26">
-        <v>138.07</v>
+        <v>763.47</v>
       </c>
       <c r="J26">
-        <v>142.80000000000001</v>
+        <v>890.58</v>
       </c>
       <c r="K26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>121.6</v>
+        <v>946.15</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1772,40 +1769,40 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>44596</v>
+        <v>44631</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>4092</v>
+        <v>128.15</v>
       </c>
       <c r="F27">
-        <v>3776.95</v>
+        <v>126.18</v>
       </c>
       <c r="G27">
-        <v>3746.76</v>
+        <v>122.51</v>
       </c>
       <c r="H27">
-        <v>4214.76</v>
+        <v>131.99</v>
       </c>
       <c r="I27">
-        <v>4242.17</v>
+        <v>139.12</v>
       </c>
       <c r="J27">
-        <v>4730.0200000000004</v>
+        <v>165.38</v>
       </c>
       <c r="K27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L27">
-        <v>3947.4</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1816,40 +1813,40 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>44595</v>
+        <v>44629</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E28">
-        <v>13206</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="F28">
-        <v>12389.2</v>
+        <v>63.68</v>
       </c>
       <c r="G28">
-        <v>12025.37</v>
+        <v>56.47</v>
       </c>
       <c r="H28">
-        <v>13579.15</v>
+        <v>67.62</v>
       </c>
       <c r="I28">
-        <v>13602.18</v>
+        <v>74.33</v>
       </c>
       <c r="J28">
-        <v>13936.05</v>
+        <v>80.83</v>
       </c>
       <c r="K28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L28">
-        <v>12185.55</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1860,37 +1857,37 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>44580</v>
+        <v>44624</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E29">
-        <v>1222.5</v>
+        <v>341.7</v>
       </c>
       <c r="F29">
-        <v>1152.56</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="G29">
-        <v>1113.9000000000001</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="H29">
-        <v>1259.17</v>
+        <v>351.95</v>
       </c>
       <c r="I29">
-        <v>1274.53</v>
+        <v>357.28</v>
       </c>
       <c r="J29">
-        <v>1327.78</v>
+        <v>399.23</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
       </c>
       <c r="L29">
-        <v>1048.5999999999999</v>
+        <v>310.8</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
         <v>6</v>
@@ -1904,37 +1901,37 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>44575</v>
+        <v>44623</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E30">
-        <v>499.65</v>
+        <v>725.3</v>
       </c>
       <c r="F30">
-        <v>468.25</v>
+        <v>702.5</v>
       </c>
       <c r="G30">
-        <v>464.03</v>
+        <v>696.01</v>
       </c>
       <c r="H30">
-        <v>514.64</v>
+        <v>747.06</v>
       </c>
       <c r="I30">
-        <v>515.6</v>
+        <v>749.02</v>
       </c>
       <c r="J30">
-        <v>529.22</v>
+        <v>829.07</v>
       </c>
       <c r="K30" t="s">
         <v>3</v>
       </c>
       <c r="L30">
-        <v>469.95</v>
+        <v>861.1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N30" t="s">
         <v>4</v>
@@ -1948,40 +1945,40 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>44573</v>
+        <v>44617</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>596.4</v>
+        <v>1981.95</v>
       </c>
       <c r="F31">
-        <v>568.29</v>
+        <v>1978.68</v>
       </c>
       <c r="G31">
-        <v>551.22</v>
+        <v>1958.01</v>
       </c>
       <c r="H31">
-        <v>614.29</v>
+        <v>2034.08</v>
       </c>
       <c r="I31">
-        <v>669</v>
+        <v>2041.41</v>
       </c>
       <c r="J31">
-        <v>780.4</v>
+        <v>2090.85</v>
       </c>
       <c r="K31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>676.55</v>
+        <v>2224.6</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -1992,40 +1989,40 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>44571</v>
+        <v>44606</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E32">
-        <v>31.8</v>
+        <v>553.25</v>
       </c>
       <c r="F32">
-        <v>29.37</v>
+        <v>534.80999999999995</v>
       </c>
       <c r="G32">
-        <v>28.98</v>
+        <v>520.91999999999996</v>
       </c>
       <c r="H32">
-        <v>32.75</v>
+        <v>569.85</v>
       </c>
       <c r="I32">
-        <v>32.799999999999997</v>
+        <v>584.75</v>
       </c>
       <c r="J32">
-        <v>33.520000000000003</v>
+        <v>651.35</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>30.65</v>
+        <v>495.45</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2036,40 +2033,40 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>44571</v>
+        <v>44601</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E33">
-        <v>382.05</v>
+        <v>1324</v>
       </c>
       <c r="F33">
-        <v>367</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="G33">
-        <v>356.22</v>
+        <v>1293.48</v>
       </c>
       <c r="H33">
-        <v>391.12</v>
+        <v>1363.72</v>
       </c>
       <c r="I33">
-        <v>393.51</v>
+        <v>1423.83</v>
       </c>
       <c r="J33">
-        <v>403.35</v>
+        <v>1570.18</v>
       </c>
       <c r="K33" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L33">
-        <v>434.7</v>
+        <v>1192.8499999999999</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2080,40 +2077,40 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>44568</v>
+        <v>44599</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E34">
-        <v>158.69999999999999</v>
+        <v>452.75</v>
       </c>
       <c r="F34">
-        <v>147.59</v>
+        <v>430.28</v>
       </c>
       <c r="G34">
-        <v>147.49</v>
+        <v>377.77</v>
       </c>
       <c r="H34">
-        <v>163.46</v>
+        <v>466.33</v>
       </c>
       <c r="I34">
-        <v>166.75</v>
+        <v>468.63</v>
       </c>
       <c r="J34">
-        <v>184.75</v>
+        <v>490.85</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>157.75</v>
+        <v>391.9</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2124,37 +2121,34 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>44568</v>
+        <v>44599</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>200.65</v>
+        <v>2142</v>
       </c>
       <c r="F35">
-        <v>190.7</v>
+        <v>2069.15</v>
       </c>
       <c r="G35">
-        <v>183.28</v>
+        <v>2052.2199999999998</v>
       </c>
       <c r="H35">
-        <v>206.67</v>
+        <v>2206.2600000000002</v>
       </c>
       <c r="I35">
-        <v>214.8</v>
-      </c>
-      <c r="J35">
-        <v>223.1</v>
+        <v>2250.3000000000002</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
       </c>
       <c r="L35">
-        <v>201.05</v>
+        <v>2176.9499999999998</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
         <v>4</v>
@@ -2168,40 +2162,40 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>44566</v>
+        <v>44599</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E36">
-        <v>1903.9</v>
+        <v>133.6</v>
       </c>
       <c r="F36">
-        <v>1755.34</v>
+        <v>128.38</v>
       </c>
       <c r="G36">
-        <v>1642.64</v>
+        <v>124.6</v>
       </c>
       <c r="H36">
-        <v>1961.02</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="I36">
-        <v>1969.95</v>
+        <v>138.07</v>
       </c>
       <c r="J36">
-        <v>2061.4699999999998</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="K36" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>1977.45</v>
+        <v>121.6</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2212,40 +2206,40 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>44539</v>
+        <v>44596</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E37">
-        <v>2228.5</v>
+        <v>4092</v>
       </c>
       <c r="F37">
-        <v>2108.85</v>
+        <v>3776.95</v>
       </c>
       <c r="G37">
-        <v>1997.53</v>
+        <v>3746.76</v>
       </c>
       <c r="H37">
-        <v>2295.36</v>
+        <v>4214.76</v>
       </c>
       <c r="I37">
-        <v>2360.58</v>
+        <v>4242.17</v>
       </c>
       <c r="J37">
-        <v>2638.53</v>
+        <v>4730.0200000000004</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>2226.6</v>
+        <v>3947.4</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2256,40 +2250,40 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>44533</v>
+        <v>44595</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E38">
-        <v>364.15</v>
+        <v>13206</v>
       </c>
       <c r="F38">
-        <v>337.79</v>
+        <v>12389.2</v>
       </c>
       <c r="G38">
-        <v>318.74</v>
+        <v>12025.37</v>
       </c>
       <c r="H38">
-        <v>375.07</v>
+        <v>13579.15</v>
       </c>
       <c r="I38">
-        <v>385.52</v>
+        <v>13602.18</v>
       </c>
       <c r="J38">
-        <v>403.45</v>
+        <v>13936.05</v>
       </c>
       <c r="K38" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L38">
-        <v>424</v>
+        <v>12185.55</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2300,37 +2294,37 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>44533</v>
+        <v>44580</v>
       </c>
       <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39">
+        <v>1222.5</v>
+      </c>
+      <c r="F39">
+        <v>1152.56</v>
+      </c>
+      <c r="G39">
+        <v>1113.9000000000001</v>
+      </c>
+      <c r="H39">
+        <v>1259.17</v>
+      </c>
+      <c r="I39">
+        <v>1274.53</v>
+      </c>
+      <c r="J39">
+        <v>1327.78</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>1048.5999999999999</v>
+      </c>
+      <c r="M39">
         <v>5</v>
-      </c>
-      <c r="E39">
-        <v>154.94999999999999</v>
-      </c>
-      <c r="F39">
-        <v>151.22</v>
-      </c>
-      <c r="G39">
-        <v>147.36000000000001</v>
-      </c>
-      <c r="H39">
-        <v>159.6</v>
-      </c>
-      <c r="I39">
-        <v>160.97999999999999</v>
-      </c>
-      <c r="J39">
-        <v>167.95</v>
-      </c>
-      <c r="K39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39">
-        <v>145.9</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
       </c>
       <c r="N39" t="s">
         <v>6</v>
@@ -2344,34 +2338,34 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>44531</v>
+        <v>44575</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>5080.25</v>
+        <v>499.65</v>
       </c>
       <c r="F40">
-        <v>4957.96</v>
+        <v>468.25</v>
       </c>
       <c r="G40">
-        <v>4845.8599999999997</v>
+        <v>464.03</v>
       </c>
       <c r="H40">
-        <v>5220.53</v>
+        <v>514.64</v>
       </c>
       <c r="I40">
-        <v>5232.66</v>
+        <v>515.6</v>
       </c>
       <c r="J40">
-        <v>5311.9</v>
+        <v>529.22</v>
       </c>
       <c r="K40" t="s">
         <v>3</v>
       </c>
       <c r="L40">
-        <v>5060.1000000000004</v>
+        <v>469.95</v>
       </c>
       <c r="M40">
         <v>2</v>
@@ -2388,40 +2382,40 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>44526</v>
+        <v>44573</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E41">
-        <v>1810.1</v>
+        <v>596.4</v>
       </c>
       <c r="F41">
-        <v>1745.93</v>
+        <v>568.29</v>
       </c>
       <c r="G41">
-        <v>1715.01</v>
+        <v>551.22</v>
       </c>
       <c r="H41">
-        <v>1864.4</v>
+        <v>614.29</v>
       </c>
       <c r="I41">
-        <v>1887.2</v>
+        <v>669</v>
       </c>
       <c r="J41">
-        <v>2088.1999999999998</v>
+        <v>780.4</v>
       </c>
       <c r="K41" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>1974.55</v>
+        <v>676.55</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2432,40 +2426,40 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>44522</v>
+        <v>44571</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E42">
-        <v>142.9</v>
+        <v>31.8</v>
       </c>
       <c r="F42">
-        <v>133.26</v>
+        <v>29.37</v>
       </c>
       <c r="G42">
-        <v>127.28</v>
+        <v>28.98</v>
       </c>
       <c r="H42">
-        <v>147.19</v>
+        <v>32.75</v>
       </c>
       <c r="I42">
-        <v>149.35</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J42">
-        <v>156.41999999999999</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K42" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L42">
-        <v>149.30000000000001</v>
+        <v>30.65</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N42" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2476,40 +2470,40 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>44517</v>
+        <v>44571</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E43">
-        <v>230.3</v>
+        <v>382.05</v>
       </c>
       <c r="F43">
-        <v>218.03</v>
+        <v>367</v>
       </c>
       <c r="G43">
-        <v>214.41</v>
+        <v>356.22</v>
       </c>
       <c r="H43">
-        <v>237.21</v>
+        <v>391.12</v>
       </c>
       <c r="I43">
-        <v>241.3</v>
+        <v>393.51</v>
       </c>
       <c r="J43">
-        <v>258</v>
+        <v>403.35</v>
       </c>
       <c r="K43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>213.5</v>
+        <v>434.7</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2520,40 +2514,40 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>44516</v>
+        <v>44568</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>504</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F44">
-        <v>485.12</v>
+        <v>147.59</v>
       </c>
       <c r="G44">
-        <v>474.56</v>
+        <v>147.49</v>
       </c>
       <c r="H44">
-        <v>519.12</v>
+        <v>163.46</v>
       </c>
       <c r="I44">
-        <v>564.98</v>
+        <v>166.75</v>
       </c>
       <c r="J44">
-        <v>657.23</v>
+        <v>184.75</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L44">
-        <v>425.5</v>
+        <v>157.75</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2564,40 +2558,40 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>44516</v>
+        <v>44568</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E45">
-        <v>2288.75</v>
+        <v>200.65</v>
       </c>
       <c r="F45">
-        <v>2194.21</v>
+        <v>190.7</v>
       </c>
       <c r="G45">
-        <v>2184.1799999999998</v>
+        <v>183.28</v>
       </c>
       <c r="H45">
-        <v>2357.41</v>
+        <v>206.67</v>
       </c>
       <c r="I45">
-        <v>2392.4499999999998</v>
+        <v>214.8</v>
       </c>
       <c r="J45">
-        <v>2609.85</v>
+        <v>223.1</v>
       </c>
       <c r="K45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L45">
-        <v>1911.7</v>
+        <v>201.05</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2608,40 +2602,40 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>44515</v>
+        <v>44566</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E46">
-        <v>367.8</v>
+        <v>1903.9</v>
       </c>
       <c r="F46">
-        <v>356.44</v>
+        <v>1755.34</v>
       </c>
       <c r="G46">
-        <v>341.13</v>
+        <v>1642.64</v>
       </c>
       <c r="H46">
-        <v>378.83</v>
+        <v>1961.02</v>
       </c>
       <c r="I46">
-        <v>387.22</v>
+        <v>1969.95</v>
       </c>
       <c r="J46">
-        <v>433.87</v>
+        <v>2061.4699999999998</v>
       </c>
       <c r="K46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>374.15</v>
+        <v>1977.45</v>
       </c>
       <c r="M46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2652,37 +2646,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>44515</v>
+        <v>44539</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>926.25</v>
+        <v>2228.5</v>
       </c>
       <c r="F47">
-        <v>869.94</v>
+        <v>2108.85</v>
       </c>
       <c r="G47">
-        <v>866.86</v>
+        <v>1997.53</v>
       </c>
       <c r="H47">
-        <v>954.04</v>
+        <v>2295.36</v>
       </c>
       <c r="I47">
-        <v>959.1</v>
+        <v>2360.58</v>
       </c>
       <c r="J47">
-        <v>1056.0999999999999</v>
+        <v>2638.53</v>
       </c>
       <c r="K47" t="s">
         <v>15</v>
       </c>
       <c r="L47">
-        <v>918.2</v>
+        <v>2226.6</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
         <v>4</v>
@@ -2696,37 +2690,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>922.15</v>
+        <v>364.15</v>
       </c>
       <c r="F48">
-        <v>866.97</v>
+        <v>337.79</v>
       </c>
       <c r="G48">
-        <v>846.17</v>
+        <v>318.74</v>
       </c>
       <c r="H48">
-        <v>949.81</v>
+        <v>375.07</v>
       </c>
       <c r="I48">
-        <v>959.97</v>
+        <v>385.52</v>
       </c>
       <c r="J48">
-        <v>1104.8699999999999</v>
+        <v>403.45</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>925.35</v>
+        <v>424</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
         <v>4</v>
@@ -2740,37 +2734,37 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>2252.3000000000002</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="F49">
-        <v>2189.8000000000002</v>
+        <v>151.22</v>
       </c>
       <c r="G49">
-        <v>2179.61</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="H49">
-        <v>2319.87</v>
+        <v>159.6</v>
       </c>
       <c r="I49">
-        <v>2392.4499999999998</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="J49">
-        <v>2609.85</v>
+        <v>167.95</v>
       </c>
       <c r="K49" t="s">
         <v>6</v>
       </c>
       <c r="L49">
-        <v>2042.05</v>
+        <v>145.9</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
         <v>6</v>
@@ -2784,34 +2778,34 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>44510</v>
+        <v>44531</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>4169.55</v>
+        <v>5080.25</v>
       </c>
       <c r="F50">
-        <v>4107.1499999999996</v>
+        <v>4957.96</v>
       </c>
       <c r="G50">
-        <v>3788.59</v>
+        <v>4845.8599999999997</v>
       </c>
       <c r="H50">
-        <v>4294.6400000000003</v>
+        <v>5220.53</v>
       </c>
       <c r="I50">
-        <v>4574.22</v>
+        <v>5232.66</v>
       </c>
       <c r="J50">
-        <v>4830.2700000000004</v>
+        <v>5311.9</v>
       </c>
       <c r="K50" t="s">
         <v>3</v>
       </c>
       <c r="L50">
-        <v>3861.95</v>
+        <v>5060.1000000000004</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -2828,37 +2822,37 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>44509</v>
+        <v>44526</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>2006.35</v>
+        <v>1810.1</v>
       </c>
       <c r="F51">
-        <v>1940.16</v>
+        <v>1745.93</v>
       </c>
       <c r="G51">
-        <v>1849.85</v>
+        <v>1715.01</v>
       </c>
       <c r="H51">
-        <v>2066.54</v>
+        <v>1864.4</v>
       </c>
       <c r="I51">
-        <v>2111.6</v>
+        <v>1887.2</v>
       </c>
       <c r="J51">
-        <v>2406.8000000000002</v>
+        <v>2088.1999999999998</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>1966.85</v>
+        <v>1974.55</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N51" t="s">
         <v>4</v>
@@ -2872,40 +2866,40 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>44504</v>
+        <v>44522</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>1438</v>
+        <v>142.9</v>
       </c>
       <c r="F52">
-        <v>1348.05</v>
+        <v>133.26</v>
       </c>
       <c r="G52">
-        <v>1246.52</v>
+        <v>127.28</v>
       </c>
       <c r="H52">
-        <v>1481.14</v>
+        <v>147.19</v>
       </c>
       <c r="I52">
-        <v>1500.53</v>
+        <v>149.35</v>
       </c>
       <c r="J52">
-        <v>1557.03</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="K52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>1292.45</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -2916,40 +2910,40 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>44503</v>
+        <v>44517</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>940</v>
+        <v>230.3</v>
       </c>
       <c r="F53">
-        <v>889.59</v>
+        <v>218.03</v>
       </c>
       <c r="G53">
-        <v>877.45</v>
+        <v>214.41</v>
       </c>
       <c r="H53">
-        <v>968.2</v>
+        <v>237.21</v>
       </c>
       <c r="I53">
-        <v>976.45</v>
+        <v>241.3</v>
       </c>
       <c r="J53">
-        <v>1092.05</v>
+        <v>258</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L53">
-        <v>911.3</v>
+        <v>213.5</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2960,40 +2954,40 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>44503</v>
+        <v>44516</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>467.25</v>
+        <v>504</v>
       </c>
       <c r="F54">
-        <v>449.1</v>
+        <v>485.12</v>
       </c>
       <c r="G54">
-        <v>434.55</v>
+        <v>474.56</v>
       </c>
       <c r="H54">
-        <v>481.27</v>
+        <v>519.12</v>
       </c>
       <c r="I54">
-        <v>483.37</v>
+        <v>564.98</v>
       </c>
       <c r="J54">
-        <v>540.63</v>
+        <v>657.23</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>467.45</v>
+        <v>425.5</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3004,40 +2998,40 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>44503</v>
+        <v>44516</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>2376.5500000000002</v>
+        <v>2288.75</v>
       </c>
       <c r="F55">
-        <v>2227.59</v>
+        <v>2194.21</v>
       </c>
       <c r="G55">
-        <v>2195.98</v>
+        <v>2184.1799999999998</v>
       </c>
       <c r="H55">
-        <v>2447.7800000000002</v>
+        <v>2357.41</v>
       </c>
       <c r="I55">
-        <v>2447.85</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J55">
-        <v>2581.4299999999998</v>
+        <v>2609.85</v>
       </c>
       <c r="K55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L55">
-        <v>2332.1</v>
+        <v>1911.7</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3048,40 +3042,40 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E56">
-        <v>3960.1</v>
+        <v>367.8</v>
       </c>
       <c r="F56">
-        <v>3811.12</v>
+        <v>356.44</v>
       </c>
       <c r="G56">
-        <v>3778.9</v>
+        <v>341.13</v>
       </c>
       <c r="H56">
-        <v>4078.9</v>
+        <v>378.83</v>
       </c>
       <c r="I56">
-        <v>4094.88</v>
+        <v>387.22</v>
       </c>
       <c r="J56">
-        <v>4611.7299999999996</v>
+        <v>433.87</v>
       </c>
       <c r="K56" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L56">
-        <v>4220.7</v>
+        <v>374.15</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3092,40 +3086,40 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>44502</v>
+        <v>44515</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>503</v>
+        <v>926.25</v>
       </c>
       <c r="F57">
-        <v>468.45</v>
+        <v>869.94</v>
       </c>
       <c r="G57">
-        <v>404.65</v>
+        <v>866.86</v>
       </c>
       <c r="H57">
-        <v>518.09</v>
+        <v>954.04</v>
       </c>
       <c r="I57">
-        <v>538.33000000000004</v>
+        <v>959.1</v>
       </c>
       <c r="J57">
-        <v>564.23</v>
+        <v>1056.0999999999999</v>
       </c>
       <c r="K57" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L57">
-        <v>407.5</v>
+        <v>918.2</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3136,34 +3130,37 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>44498</v>
+        <v>44512</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>183.95</v>
+        <v>922.15</v>
       </c>
       <c r="F58">
-        <v>172.67</v>
+        <v>866.97</v>
       </c>
       <c r="G58">
-        <v>150.44</v>
+        <v>846.17</v>
       </c>
       <c r="H58">
-        <v>189.47</v>
+        <v>949.81</v>
       </c>
       <c r="I58">
-        <v>220.63</v>
+        <v>959.97</v>
+      </c>
+      <c r="J58">
+        <v>1104.8699999999999</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L58">
-        <v>166.8</v>
+        <v>925.35</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N58" t="s">
         <v>4</v>
@@ -3177,40 +3174,40 @@
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>44497</v>
+        <v>44512</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>1947.1</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="F59">
-        <v>1858.11</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="G59">
-        <v>1845.66</v>
+        <v>2179.61</v>
       </c>
       <c r="H59">
-        <v>2005.51</v>
+        <v>2319.87</v>
       </c>
       <c r="I59">
-        <v>2022.07</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J59">
-        <v>2175.9699999999998</v>
+        <v>2609.85</v>
       </c>
       <c r="K59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L59">
-        <v>2149.5500000000002</v>
+        <v>2042.05</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3221,34 +3218,37 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>44491</v>
+        <v>44510</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E60">
-        <v>50.1</v>
+        <v>4169.55</v>
       </c>
       <c r="F60">
-        <v>46.38</v>
+        <v>4107.1499999999996</v>
       </c>
       <c r="G60">
-        <v>45.6</v>
+        <v>3788.59</v>
       </c>
       <c r="H60">
-        <v>52.35</v>
+        <v>4294.6400000000003</v>
       </c>
       <c r="I60">
-        <v>52.7</v>
+        <v>4574.22</v>
+      </c>
+      <c r="J60">
+        <v>4830.2700000000004</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>48.8</v>
+        <v>3861.95</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" t="s">
         <v>4</v>
@@ -3262,34 +3262,34 @@
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E61">
-        <v>1243.3</v>
+        <v>2006.35</v>
       </c>
       <c r="F61">
-        <v>1184.8599999999999</v>
+        <v>1940.16</v>
       </c>
       <c r="G61">
-        <v>1112.71</v>
+        <v>1849.85</v>
       </c>
       <c r="H61">
-        <v>1299.25</v>
+        <v>2066.54</v>
       </c>
       <c r="I61">
-        <v>1328.27</v>
+        <v>2111.6</v>
       </c>
       <c r="J61">
-        <v>1397.58</v>
+        <v>2406.8000000000002</v>
       </c>
       <c r="K61" t="s">
         <v>15</v>
       </c>
       <c r="L61">
-        <v>1270.1500000000001</v>
+        <v>1966.85</v>
       </c>
       <c r="M61">
         <v>2</v>
@@ -3306,40 +3306,40 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>44490</v>
+        <v>44504</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>14400.05</v>
+        <v>1438</v>
       </c>
       <c r="F62">
-        <v>13928.9</v>
+        <v>1348.05</v>
       </c>
       <c r="G62">
-        <v>13651.23</v>
+        <v>1246.52</v>
       </c>
       <c r="H62">
-        <v>14887.35</v>
+        <v>1481.14</v>
       </c>
       <c r="I62">
-        <v>15048.05</v>
+        <v>1500.53</v>
       </c>
       <c r="J62">
-        <v>15158.53</v>
+        <v>1557.03</v>
       </c>
       <c r="K62" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L62">
-        <v>14644.95</v>
+        <v>1292.45</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N62" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3350,40 +3350,40 @@
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>44489</v>
+        <v>44503</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>14400</v>
+        <v>940</v>
       </c>
       <c r="F63">
-        <v>13915.11</v>
+        <v>889.59</v>
       </c>
       <c r="G63">
-        <v>13616.79</v>
+        <v>877.45</v>
       </c>
       <c r="H63">
-        <v>14887.35</v>
+        <v>968.2</v>
       </c>
       <c r="I63">
-        <v>15048</v>
+        <v>976.45</v>
       </c>
       <c r="J63">
-        <v>15158.53</v>
+        <v>1092.05</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L63">
-        <v>14453.9</v>
+        <v>911.3</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3394,40 +3394,40 @@
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>44489</v>
+        <v>44503</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E64">
-        <v>497.95</v>
+        <v>467.25</v>
       </c>
       <c r="F64">
-        <v>461.51</v>
+        <v>449.1</v>
       </c>
       <c r="G64">
-        <v>455.19</v>
+        <v>434.55</v>
       </c>
       <c r="H64">
-        <v>520.36</v>
+        <v>481.27</v>
       </c>
       <c r="I64">
-        <v>520.41999999999996</v>
+        <v>483.37</v>
       </c>
       <c r="J64">
-        <v>580.41999999999996</v>
+        <v>540.63</v>
       </c>
       <c r="K64" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L64">
-        <v>428.55</v>
+        <v>467.45</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3438,34 +3438,37 @@
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>44483</v>
+        <v>44503</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E65">
-        <v>8928</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="F65">
-        <v>8199.61</v>
+        <v>2227.59</v>
       </c>
       <c r="G65">
-        <v>8071.6</v>
+        <v>2195.98</v>
       </c>
       <c r="H65">
-        <v>9329.76</v>
+        <v>2447.7800000000002</v>
       </c>
       <c r="I65">
-        <v>9446.1</v>
+        <v>2447.85</v>
+      </c>
+      <c r="J65">
+        <v>2581.4299999999998</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>9105.75</v>
+        <v>2332.1</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N65" t="s">
         <v>4</v>
@@ -3479,34 +3482,37 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>44483</v>
+        <v>44503</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E66">
-        <v>358</v>
+        <v>3960.1</v>
       </c>
       <c r="F66">
-        <v>327.27999999999997</v>
+        <v>3811.12</v>
       </c>
       <c r="G66">
-        <v>321.62</v>
+        <v>3778.9</v>
       </c>
       <c r="H66">
-        <v>374.11</v>
+        <v>4078.9</v>
       </c>
       <c r="I66">
-        <v>377.57</v>
+        <v>4094.88</v>
+      </c>
+      <c r="J66">
+        <v>4611.7299999999996</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>318.55</v>
+        <v>4220.7</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N66" t="s">
         <v>4</v>
@@ -3520,37 +3526,37 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>44482</v>
+        <v>44502</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E67">
-        <v>1840.1</v>
+        <v>503</v>
       </c>
       <c r="F67">
-        <v>1728.38</v>
+        <v>468.45</v>
       </c>
       <c r="G67">
-        <v>1649.84</v>
+        <v>404.65</v>
       </c>
       <c r="H67">
-        <v>1922.9</v>
+        <v>518.09</v>
       </c>
       <c r="I67">
-        <v>1954.85</v>
+        <v>538.33000000000004</v>
       </c>
       <c r="J67">
-        <v>2179.75</v>
+        <v>564.23</v>
       </c>
       <c r="K67" t="s">
         <v>6</v>
       </c>
       <c r="L67">
-        <v>1792.45</v>
+        <v>407.5</v>
       </c>
       <c r="M67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
         <v>6</v>
@@ -3564,37 +3570,34 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>44481</v>
+        <v>44498</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E68">
-        <v>456.35</v>
+        <v>183.95</v>
       </c>
       <c r="F68">
-        <v>431.76</v>
+        <v>172.67</v>
       </c>
       <c r="G68">
-        <v>421.61</v>
+        <v>150.44</v>
       </c>
       <c r="H68">
-        <v>476.89</v>
+        <v>189.47</v>
       </c>
       <c r="I68">
-        <v>476.9</v>
-      </c>
-      <c r="J68">
-        <v>531.9</v>
+        <v>220.63</v>
       </c>
       <c r="K68" t="s">
         <v>15</v>
       </c>
       <c r="L68">
-        <v>464.65</v>
+        <v>166.8</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N68" t="s">
         <v>4</v>
@@ -3608,37 +3611,37 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E69">
-        <v>96.3</v>
+        <v>1947.1</v>
       </c>
       <c r="F69">
-        <v>91.74</v>
+        <v>1858.11</v>
       </c>
       <c r="G69">
-        <v>88.31</v>
+        <v>1845.66</v>
       </c>
       <c r="H69">
-        <v>100.63</v>
+        <v>2005.51</v>
       </c>
       <c r="I69">
-        <v>106.95</v>
+        <v>2022.07</v>
       </c>
       <c r="J69">
-        <v>122.7</v>
+        <v>2175.9699999999998</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>102.55</v>
+        <v>2149.5500000000002</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N69" t="s">
         <v>4</v>
@@ -3652,37 +3655,34 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>44481</v>
+        <v>44491</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E70">
-        <v>2025</v>
+        <v>50.1</v>
       </c>
       <c r="F70">
-        <v>1869.62</v>
+        <v>46.38</v>
       </c>
       <c r="G70">
-        <v>1853.79</v>
+        <v>45.6</v>
       </c>
       <c r="H70">
-        <v>2116.13</v>
+        <v>52.35</v>
       </c>
       <c r="I70">
-        <v>2147.83</v>
-      </c>
-      <c r="J70">
-        <v>2419.38</v>
+        <v>52.7</v>
       </c>
       <c r="K70" t="s">
         <v>15</v>
       </c>
       <c r="L70">
-        <v>1993.8</v>
+        <v>48.8</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70" t="s">
         <v>4</v>
@@ -3696,40 +3696,40 @@
         <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>44480</v>
+        <v>44491</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E71">
-        <v>313.55</v>
+        <v>1243.3</v>
       </c>
       <c r="F71">
-        <v>297.8</v>
+        <v>1184.8599999999999</v>
       </c>
       <c r="G71">
-        <v>282.27</v>
+        <v>1112.71</v>
       </c>
       <c r="H71">
-        <v>323.38</v>
+        <v>1299.25</v>
       </c>
       <c r="I71">
-        <v>327.66000000000003</v>
+        <v>1328.27</v>
       </c>
       <c r="J71">
-        <v>334.27</v>
+        <v>1397.58</v>
       </c>
       <c r="K71" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L71">
-        <v>269.75</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -3740,40 +3740,40 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>44477</v>
+        <v>44490</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E72">
-        <v>789.25</v>
+        <v>14400.05</v>
       </c>
       <c r="F72">
-        <v>757.08</v>
+        <v>13928.9</v>
       </c>
       <c r="G72">
-        <v>751.14</v>
+        <v>13651.23</v>
       </c>
       <c r="H72">
-        <v>816.23</v>
+        <v>14887.35</v>
       </c>
       <c r="I72">
-        <v>824.77</v>
+        <v>15048.05</v>
       </c>
       <c r="J72">
-        <v>834.78</v>
+        <v>15158.53</v>
       </c>
       <c r="K72" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L72">
-        <v>821</v>
+        <v>14644.95</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N72" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -3784,40 +3784,40 @@
         <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>44477</v>
+        <v>44489</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E73">
-        <v>656.4</v>
+        <v>14400</v>
       </c>
       <c r="F73">
-        <v>653</v>
+        <v>13915.11</v>
       </c>
       <c r="G73">
-        <v>632.46</v>
+        <v>13616.79</v>
       </c>
       <c r="H73">
-        <v>685.94</v>
+        <v>14887.35</v>
       </c>
       <c r="I73">
-        <v>708.65</v>
+        <v>15048</v>
       </c>
       <c r="J73">
-        <v>792.4</v>
+        <v>15158.53</v>
       </c>
       <c r="K73" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L73">
-        <v>515.79999999999995</v>
+        <v>14453.9</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N73" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -3828,40 +3828,40 @@
         <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>44477</v>
+        <v>44489</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E74">
-        <v>97.75</v>
+        <v>497.95</v>
       </c>
       <c r="F74">
-        <v>90.97</v>
+        <v>461.51</v>
       </c>
       <c r="G74">
-        <v>88.12</v>
+        <v>455.19</v>
       </c>
       <c r="H74">
-        <v>102.15</v>
+        <v>520.36</v>
       </c>
       <c r="I74">
-        <v>106.95</v>
+        <v>520.41999999999996</v>
       </c>
       <c r="J74">
-        <v>122.7</v>
+        <v>580.41999999999996</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L74">
-        <v>97.45</v>
+        <v>428.55</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -3872,37 +3872,34 @@
         <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E75">
-        <v>1965.1</v>
+        <v>8928</v>
       </c>
       <c r="F75">
-        <v>1863.54</v>
+        <v>8199.61</v>
       </c>
       <c r="G75">
-        <v>1850.86</v>
+        <v>8071.6</v>
       </c>
       <c r="H75">
-        <v>2053.5300000000002</v>
+        <v>9329.76</v>
       </c>
       <c r="I75">
-        <v>2073.9699999999998</v>
-      </c>
-      <c r="J75">
-        <v>2147.83</v>
+        <v>9446.1</v>
       </c>
       <c r="K75" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L75">
-        <v>1946.05</v>
+        <v>9105.75</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N75" t="s">
         <v>4</v>
@@ -3916,37 +3913,34 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E76">
-        <v>211.55</v>
+        <v>358</v>
       </c>
       <c r="F76">
-        <v>199.66</v>
+        <v>327.27999999999997</v>
       </c>
       <c r="G76">
-        <v>195.14</v>
+        <v>321.62</v>
       </c>
       <c r="H76">
-        <v>221.07</v>
+        <v>374.11</v>
       </c>
       <c r="I76">
-        <v>222.5</v>
-      </c>
-      <c r="J76">
-        <v>231.5</v>
+        <v>377.57</v>
       </c>
       <c r="K76" t="s">
         <v>15</v>
       </c>
       <c r="L76">
-        <v>197.65</v>
+        <v>318.55</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N76" t="s">
         <v>4</v>
@@ -3960,37 +3954,40 @@
         <v>1</v>
       </c>
       <c r="C77" s="1">
-        <v>44476</v>
+        <v>44482</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E77">
-        <v>2141.3000000000002</v>
+        <v>1840.1</v>
       </c>
       <c r="F77">
-        <v>1927.17</v>
+        <v>1728.38</v>
       </c>
       <c r="G77">
-        <v>1897.63</v>
+        <v>1649.84</v>
       </c>
       <c r="H77">
-        <v>2237.66</v>
+        <v>1922.9</v>
       </c>
       <c r="I77">
-        <v>2357.87</v>
+        <v>1954.85</v>
+      </c>
+      <c r="J77">
+        <v>2179.75</v>
       </c>
       <c r="K77" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L77">
-        <v>1949.45</v>
+        <v>1792.45</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N77" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -4001,31 +3998,34 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E78">
-        <v>1304.5</v>
+        <v>456.35</v>
       </c>
       <c r="F78">
-        <v>1181.8499999999999</v>
+        <v>431.76</v>
       </c>
       <c r="G78">
-        <v>1177.8599999999999</v>
+        <v>421.61</v>
       </c>
       <c r="H78">
-        <v>1357.02</v>
+        <v>476.89</v>
       </c>
       <c r="I78">
-        <v>1363.2</v>
+        <v>476.9</v>
+      </c>
+      <c r="J78">
+        <v>531.9</v>
       </c>
       <c r="K78" t="s">
         <v>15</v>
       </c>
       <c r="L78">
-        <v>1313.25</v>
+        <v>464.65</v>
       </c>
       <c r="M78">
         <v>2</v>
@@ -4042,37 +4042,40 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E79">
-        <v>1046</v>
+        <v>96.3</v>
       </c>
       <c r="F79">
-        <v>991.55</v>
+        <v>91.74</v>
       </c>
       <c r="G79">
-        <v>975.33</v>
+        <v>88.31</v>
       </c>
       <c r="H79">
-        <v>1093.07</v>
+        <v>100.63</v>
       </c>
       <c r="I79">
-        <v>1100.17</v>
+        <v>106.95</v>
+      </c>
+      <c r="J79">
+        <v>122.7</v>
       </c>
       <c r="K79" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L79">
-        <v>804.35</v>
+        <v>102.55</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -4083,40 +4086,40 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E80">
-        <v>310.7</v>
+        <v>2025</v>
       </c>
       <c r="F80">
-        <v>295.52999999999997</v>
+        <v>1869.62</v>
       </c>
       <c r="G80">
-        <v>280.48</v>
+        <v>1853.79</v>
       </c>
       <c r="H80">
-        <v>323.38</v>
+        <v>2116.13</v>
       </c>
       <c r="I80">
-        <v>324.68</v>
+        <v>2147.83</v>
       </c>
       <c r="J80">
-        <v>334.27</v>
+        <v>2419.38</v>
       </c>
       <c r="K80" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L80">
-        <v>273.3</v>
+        <v>1993.8</v>
       </c>
       <c r="M80">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -4127,40 +4130,40 @@
         <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>44475</v>
+        <v>44480</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E81">
-        <v>214.3</v>
+        <v>313.55</v>
       </c>
       <c r="F81">
-        <v>206.45</v>
+        <v>297.8</v>
       </c>
       <c r="G81">
-        <v>205.8</v>
+        <v>282.27</v>
       </c>
       <c r="H81">
-        <v>223.94</v>
+        <v>323.38</v>
       </c>
       <c r="I81">
-        <v>225.65</v>
+        <v>327.66000000000003</v>
       </c>
       <c r="J81">
-        <v>245.35</v>
+        <v>334.27</v>
       </c>
       <c r="K81" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L81">
-        <v>214.4</v>
+        <v>269.75</v>
       </c>
       <c r="M81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -4171,34 +4174,37 @@
         <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E82">
-        <v>289</v>
+        <v>789.25</v>
       </c>
       <c r="F82">
-        <v>276.52</v>
+        <v>757.08</v>
       </c>
       <c r="G82">
-        <v>272.33</v>
+        <v>751.14</v>
       </c>
       <c r="H82">
-        <v>302</v>
+        <v>816.23</v>
       </c>
       <c r="I82">
-        <v>306.18</v>
+        <v>824.77</v>
+      </c>
+      <c r="J82">
+        <v>834.78</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L82">
-        <v>283.05</v>
+        <v>821</v>
       </c>
       <c r="M82">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N82" t="s">
         <v>4</v>
@@ -4212,39 +4218,467 @@
         <v>1</v>
       </c>
       <c r="C83" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D83" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83">
+        <v>656.4</v>
+      </c>
+      <c r="F83">
+        <v>653</v>
+      </c>
+      <c r="G83">
+        <v>632.46</v>
+      </c>
+      <c r="H83">
+        <v>685.94</v>
+      </c>
+      <c r="I83">
+        <v>708.65</v>
+      </c>
+      <c r="J83">
+        <v>792.4</v>
+      </c>
+      <c r="K83" t="s">
+        <v>6</v>
+      </c>
+      <c r="L83">
+        <v>515.79999999999995</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84">
+        <v>97.75</v>
+      </c>
+      <c r="F84">
+        <v>90.97</v>
+      </c>
+      <c r="G84">
+        <v>88.12</v>
+      </c>
+      <c r="H84">
+        <v>102.15</v>
+      </c>
+      <c r="I84">
+        <v>106.95</v>
+      </c>
+      <c r="J84">
+        <v>122.7</v>
+      </c>
+      <c r="K84" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84">
+        <v>97.45</v>
+      </c>
+      <c r="M84">
+        <v>15</v>
+      </c>
+      <c r="N84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85">
+        <v>1965.1</v>
+      </c>
+      <c r="F85">
+        <v>1863.54</v>
+      </c>
+      <c r="G85">
+        <v>1850.86</v>
+      </c>
+      <c r="H85">
+        <v>2053.5300000000002</v>
+      </c>
+      <c r="I85">
+        <v>2073.9699999999998</v>
+      </c>
+      <c r="J85">
+        <v>2147.83</v>
+      </c>
+      <c r="K85" t="s">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>1946.05</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86">
+        <v>211.55</v>
+      </c>
+      <c r="F86">
+        <v>199.66</v>
+      </c>
+      <c r="G86">
+        <v>195.14</v>
+      </c>
+      <c r="H86">
+        <v>221.07</v>
+      </c>
+      <c r="I86">
+        <v>222.5</v>
+      </c>
+      <c r="J86">
+        <v>231.5</v>
+      </c>
+      <c r="K86" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86">
+        <v>197.65</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87">
+        <v>2141.3000000000002</v>
+      </c>
+      <c r="F87">
+        <v>1927.17</v>
+      </c>
+      <c r="G87">
+        <v>1897.63</v>
+      </c>
+      <c r="H87">
+        <v>2237.66</v>
+      </c>
+      <c r="I87">
+        <v>2357.87</v>
+      </c>
+      <c r="K87" t="s">
+        <v>41</v>
+      </c>
+      <c r="L87">
+        <v>1949.45</v>
+      </c>
+      <c r="M87">
+        <v>15</v>
+      </c>
+      <c r="N87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>1304.5</v>
+      </c>
+      <c r="F88">
+        <v>1181.8499999999999</v>
+      </c>
+      <c r="G88">
+        <v>1177.8599999999999</v>
+      </c>
+      <c r="H88">
+        <v>1357.02</v>
+      </c>
+      <c r="I88">
+        <v>1363.2</v>
+      </c>
+      <c r="K88" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88">
+        <v>1313.25</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89">
+        <v>1046</v>
+      </c>
+      <c r="F89">
+        <v>991.55</v>
+      </c>
+      <c r="G89">
+        <v>975.33</v>
+      </c>
+      <c r="H89">
+        <v>1093.07</v>
+      </c>
+      <c r="I89">
+        <v>1100.17</v>
+      </c>
+      <c r="K89" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89">
+        <v>804.35</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90">
+        <v>310.7</v>
+      </c>
+      <c r="F90">
+        <v>295.52999999999997</v>
+      </c>
+      <c r="G90">
+        <v>280.48</v>
+      </c>
+      <c r="H90">
+        <v>323.38</v>
+      </c>
+      <c r="I90">
+        <v>324.68</v>
+      </c>
+      <c r="J90">
+        <v>334.27</v>
+      </c>
+      <c r="K90" t="s">
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <v>273.3</v>
+      </c>
+      <c r="M90">
+        <v>9</v>
+      </c>
+      <c r="N90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>44475</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>214.3</v>
+      </c>
+      <c r="F91">
+        <v>206.45</v>
+      </c>
+      <c r="G91">
+        <v>205.8</v>
+      </c>
+      <c r="H91">
+        <v>223.94</v>
+      </c>
+      <c r="I91">
+        <v>225.65</v>
+      </c>
+      <c r="J91">
+        <v>245.35</v>
+      </c>
+      <c r="K91" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>214.4</v>
+      </c>
+      <c r="M91">
+        <v>9</v>
+      </c>
+      <c r="N91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>44474</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92">
+        <v>289</v>
+      </c>
+      <c r="F92">
+        <v>276.52</v>
+      </c>
+      <c r="G92">
+        <v>272.33</v>
+      </c>
+      <c r="H92">
+        <v>302</v>
+      </c>
+      <c r="I92">
+        <v>306.18</v>
+      </c>
+      <c r="K92" t="s">
+        <v>15</v>
+      </c>
+      <c r="L92">
+        <v>283.05</v>
+      </c>
+      <c r="M92">
+        <v>13</v>
+      </c>
+      <c r="N92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
         <v>44470</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D93" t="s">
         <v>56</v>
       </c>
-      <c r="E83">
+      <c r="E93">
         <v>3396.6</v>
       </c>
-      <c r="F83">
+      <c r="F93">
         <v>3162.72</v>
       </c>
-      <c r="G83">
+      <c r="G93">
         <v>3027.58</v>
       </c>
-      <c r="H83">
+      <c r="H93">
         <v>3549.45</v>
       </c>
-      <c r="I83">
+      <c r="I93">
         <v>3557.23</v>
       </c>
-      <c r="J83">
+      <c r="J93">
         <v>3951.23</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K93" t="s">
         <v>15</v>
       </c>
-      <c r="L83">
+      <c r="L93">
         <v>3392.4</v>
       </c>
-      <c r="M83">
+      <c r="M93">
         <v>7</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N93" t="s">
         <v>4</v>
       </c>
     </row>

--- a/default/data/Clean/NCASH.xlsx
+++ b/default/data/Clean/NCASH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="88">
   <si>
     <t>Cash_N500</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>TCNSBRANDS.NS</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>ASAHIINDIA.NS</t>
+  </si>
+  <si>
+    <t>JYOTHYLAB.NS</t>
+  </si>
+  <si>
+    <t>GMMPFAUDLR.NS</t>
   </si>
 </sst>
 </file>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,37 +702,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44676</v>
+        <v>44708</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>1825.1</v>
+        <v>527.79999999999995</v>
       </c>
       <c r="F2">
-        <v>1689.06</v>
+        <v>496.4</v>
       </c>
       <c r="G2">
-        <v>1674.97</v>
+        <v>483.19</v>
       </c>
       <c r="H2">
-        <v>1879.85</v>
+        <v>543.63</v>
       </c>
       <c r="I2">
-        <v>2081.42</v>
+        <v>571.29999999999995</v>
+      </c>
+      <c r="J2">
+        <v>591.48</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="L2">
-        <v>1845.45</v>
+        <v>528.79999999999995</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -731,37 +746,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44671</v>
+        <v>44707</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>112.8</v>
+        <v>473</v>
       </c>
       <c r="F3">
-        <v>104.5</v>
+        <v>442.11</v>
       </c>
       <c r="G3">
-        <v>103.7</v>
+        <v>439</v>
       </c>
       <c r="H3">
-        <v>116.18</v>
+        <v>487.19</v>
       </c>
       <c r="I3">
-        <v>119</v>
+        <v>489.9</v>
+      </c>
+      <c r="J3">
+        <v>504.43</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="L3">
-        <v>107.15</v>
+        <v>449.65</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -772,37 +790,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44671</v>
+        <v>44705</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>2196</v>
+        <v>162</v>
       </c>
       <c r="F4">
-        <v>2000.38</v>
+        <v>151.94</v>
       </c>
       <c r="G4">
-        <v>1952.76</v>
+        <v>149.62</v>
       </c>
       <c r="H4">
-        <v>2261.88</v>
+        <v>166.86</v>
       </c>
       <c r="I4">
-        <v>2528.98</v>
+        <v>167.07</v>
+      </c>
+      <c r="J4">
+        <v>171.33</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="L4">
-        <v>2049.1999999999998</v>
+        <v>154.55000000000001</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -813,40 +834,40 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>44670</v>
+        <v>44704</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E5">
-        <v>36.299999999999997</v>
+        <v>4764.45</v>
       </c>
       <c r="F5">
-        <v>34.4</v>
+        <v>4647.95</v>
       </c>
       <c r="G5">
-        <v>34.33</v>
+        <v>4608</v>
       </c>
       <c r="H5">
-        <v>37.39</v>
+        <v>4898.2</v>
       </c>
       <c r="I5">
-        <v>38.200000000000003</v>
+        <v>4907.38</v>
       </c>
       <c r="J5">
-        <v>40.03</v>
+        <v>5267.35</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>33.549999999999997</v>
+        <v>4205.2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -857,37 +878,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>2127.0500000000002</v>
+        <v>2579</v>
       </c>
       <c r="F6">
-        <v>2008.05</v>
+        <v>2356.9299999999998</v>
       </c>
       <c r="G6">
-        <v>1929.24</v>
+        <v>2339.94</v>
       </c>
       <c r="H6">
-        <v>2190.86</v>
+        <v>2656.37</v>
       </c>
       <c r="I6">
-        <v>2238.4699999999998</v>
+        <v>2769.23</v>
       </c>
       <c r="J6">
-        <v>2338.2800000000002</v>
+        <v>3108.23</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L6">
-        <v>2146.0500000000002</v>
+        <v>2558.5500000000002</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -901,37 +922,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>44664</v>
+        <v>44690</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>132.05000000000001</v>
+        <v>246.45</v>
       </c>
       <c r="F7">
-        <v>129.08000000000001</v>
+        <v>233.21</v>
       </c>
       <c r="G7">
-        <v>123.17</v>
+        <v>228.2</v>
       </c>
       <c r="H7">
-        <v>136.01</v>
+        <v>253.84</v>
       </c>
       <c r="I7">
-        <v>138.41999999999999</v>
+        <v>267.47000000000003</v>
       </c>
       <c r="J7">
-        <v>161.87</v>
+        <v>302.67</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>133.55000000000001</v>
+        <v>240.75</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>4</v>
@@ -945,37 +966,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>467.35</v>
+      </c>
+      <c r="F8">
+        <v>428.38</v>
+      </c>
+      <c r="G8">
+        <v>406.93</v>
+      </c>
+      <c r="H8">
+        <v>481.32</v>
+      </c>
+      <c r="I8">
+        <v>481.37</v>
+      </c>
+      <c r="J8">
+        <v>532.62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>435.45</v>
+      </c>
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>163.85</v>
-      </c>
-      <c r="F8">
-        <v>154.72999999999999</v>
-      </c>
-      <c r="G8">
-        <v>153.76</v>
-      </c>
-      <c r="H8">
-        <v>168.77</v>
-      </c>
-      <c r="I8">
-        <v>183.58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>150.44999999999999</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -986,37 +1010,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>44664</v>
+        <v>44683</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>1032.8499999999999</v>
+        <v>3818</v>
       </c>
       <c r="F9">
-        <v>959.21</v>
+        <v>3627.28</v>
       </c>
       <c r="G9">
-        <v>940.79</v>
+        <v>3546.88</v>
       </c>
       <c r="H9">
-        <v>1063.8399999999999</v>
+        <v>3928.6</v>
       </c>
       <c r="I9">
-        <v>1083.23</v>
+        <v>3932.54</v>
       </c>
       <c r="J9">
-        <v>1222.6300000000001</v>
+        <v>4001.57</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>1104.8499999999999</v>
+        <v>2628.85</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>4</v>
@@ -1030,37 +1054,34 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>44659</v>
+        <v>44676</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10">
-        <v>831</v>
+        <v>1825.1</v>
       </c>
       <c r="F10">
-        <v>787.99</v>
+        <v>1689.06</v>
       </c>
       <c r="G10">
-        <v>766.29</v>
+        <v>1674.97</v>
       </c>
       <c r="H10">
-        <v>855.93</v>
+        <v>1879.85</v>
       </c>
       <c r="I10">
-        <v>858.5</v>
-      </c>
-      <c r="J10">
-        <v>904.6</v>
+        <v>2081.42</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10">
-        <v>845</v>
+        <v>1729.15</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
         <v>4</v>
@@ -1074,37 +1095,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>4128.3</v>
+        <v>112.8</v>
       </c>
       <c r="F11">
-        <v>4020.78</v>
+        <v>104.5</v>
       </c>
       <c r="G11">
-        <v>3967.08</v>
+        <v>103.7</v>
       </c>
       <c r="H11">
-        <v>4247.25</v>
+        <v>116.18</v>
       </c>
       <c r="I11">
-        <v>4252.1499999999996</v>
-      </c>
-      <c r="J11">
-        <v>4381.33</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L11">
-        <v>4484.8</v>
+        <v>101.55</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>4</v>
@@ -1118,37 +1136,34 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E12">
-        <v>215.75</v>
+        <v>2196</v>
       </c>
       <c r="F12">
-        <v>208.7</v>
+        <v>2000.38</v>
       </c>
       <c r="G12">
-        <v>205.69</v>
+        <v>1952.76</v>
       </c>
       <c r="H12">
-        <v>222.22</v>
+        <v>2261.88</v>
       </c>
       <c r="I12">
-        <v>239.33</v>
-      </c>
-      <c r="J12">
-        <v>279.33</v>
+        <v>2528.98</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
       <c r="L12">
-        <v>223.8</v>
+        <v>1801.4</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>4</v>
@@ -1162,37 +1177,37 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>44648</v>
+        <v>44670</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E13">
-        <v>420.6</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F13">
-        <v>395.14</v>
+        <v>34.4</v>
       </c>
       <c r="G13">
-        <v>391.39</v>
+        <v>34.33</v>
       </c>
       <c r="H13">
-        <v>433.22</v>
+        <v>37.39</v>
       </c>
       <c r="I13">
-        <v>457.28</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="J13">
-        <v>530.33000000000004</v>
+        <v>40.03</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
       <c r="L13">
-        <v>414.9</v>
+        <v>32.1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
         <v>4</v>
@@ -1206,37 +1221,37 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>3119.1</v>
+        <v>2127.0500000000002</v>
       </c>
       <c r="F14">
-        <v>2918.47</v>
+        <v>2008.05</v>
       </c>
       <c r="G14">
-        <v>2831.24</v>
+        <v>1929.24</v>
       </c>
       <c r="H14">
-        <v>3212.67</v>
+        <v>2190.86</v>
       </c>
       <c r="I14">
-        <v>3232.32</v>
+        <v>2238.4699999999998</v>
       </c>
       <c r="J14">
-        <v>3667.02</v>
+        <v>2338.2800000000002</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>3430.5</v>
+        <v>2028.7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
         <v>4</v>
@@ -1250,34 +1265,34 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>44642</v>
+        <v>44664</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>635.45000000000005</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="F15">
-        <v>630.04</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="G15">
-        <v>617.62</v>
+        <v>123.17</v>
       </c>
       <c r="H15">
-        <v>654.51</v>
+        <v>136.01</v>
       </c>
       <c r="I15">
-        <v>706.2</v>
+        <v>138.41999999999999</v>
       </c>
       <c r="J15">
-        <v>739.58</v>
+        <v>161.87</v>
       </c>
       <c r="K15" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L15">
-        <v>724.1</v>
+        <v>124.65</v>
       </c>
       <c r="M15">
         <v>6</v>
@@ -1294,37 +1309,34 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>44641</v>
+        <v>44664</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>190.35</v>
+        <v>163.85</v>
       </c>
       <c r="F16">
-        <v>190.15</v>
+        <v>154.72999999999999</v>
       </c>
       <c r="G16">
-        <v>188.55</v>
+        <v>153.76</v>
       </c>
       <c r="H16">
-        <v>196.06</v>
+        <v>168.77</v>
       </c>
       <c r="I16">
-        <v>197.35</v>
-      </c>
-      <c r="J16">
-        <v>210.38</v>
+        <v>183.58</v>
       </c>
       <c r="K16" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L16">
-        <v>203.55</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
         <v>4</v>
@@ -1338,37 +1350,37 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>44641</v>
+        <v>44664</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>186.7</v>
+        <v>1032.8499999999999</v>
       </c>
       <c r="F17">
-        <v>170.28</v>
+        <v>959.21</v>
       </c>
       <c r="G17">
-        <v>168.28</v>
+        <v>940.79</v>
       </c>
       <c r="H17">
-        <v>192.3</v>
+        <v>1063.8399999999999</v>
       </c>
       <c r="I17">
-        <v>199.22</v>
+        <v>1083.23</v>
       </c>
       <c r="J17">
-        <v>213.33</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
       </c>
       <c r="L17">
-        <v>205.2</v>
+        <v>1075.5999999999999</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
         <v>4</v>
@@ -1382,34 +1394,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>44637</v>
+        <v>44659</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E18">
-        <v>2598</v>
+        <v>831</v>
       </c>
       <c r="F18">
-        <v>2443.84</v>
+        <v>787.99</v>
       </c>
       <c r="G18">
-        <v>2347.8000000000002</v>
+        <v>766.29</v>
       </c>
       <c r="H18">
-        <v>2675.94</v>
+        <v>855.93</v>
       </c>
       <c r="I18">
-        <v>2787.03</v>
+        <v>858.5</v>
+      </c>
+      <c r="J18">
+        <v>904.6</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
       </c>
       <c r="L18">
-        <v>2945.45</v>
+        <v>845</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>4</v>
@@ -1423,34 +1438,37 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>44636</v>
+        <v>44656</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E19">
-        <v>3091.65</v>
+        <v>4128.3</v>
       </c>
       <c r="F19">
-        <v>2882.96</v>
+        <v>4020.78</v>
       </c>
       <c r="G19">
-        <v>3184.4</v>
+        <v>3967.08</v>
       </c>
       <c r="H19">
-        <v>3285.6</v>
+        <v>4247.25</v>
       </c>
       <c r="I19">
-        <v>3481.92</v>
+        <v>4252.1499999999996</v>
+      </c>
+      <c r="J19">
+        <v>4381.33</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>3431.35</v>
+        <v>4484.8</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N19" t="s">
         <v>4</v>
@@ -1464,37 +1482,37 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>555.15</v>
+        <v>215.75</v>
       </c>
       <c r="F20">
-        <v>524.04</v>
+        <v>208.7</v>
       </c>
       <c r="G20">
-        <v>523.72</v>
+        <v>205.69</v>
       </c>
       <c r="H20">
-        <v>571.79999999999995</v>
+        <v>222.22</v>
       </c>
       <c r="I20">
-        <v>596.04999999999995</v>
+        <v>239.33</v>
       </c>
       <c r="J20">
-        <v>634.13</v>
+        <v>279.33</v>
       </c>
       <c r="K20" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L20">
-        <v>675</v>
+        <v>223.8</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
         <v>4</v>
@@ -1508,37 +1526,40 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>44635</v>
+        <v>44648</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E21">
-        <v>200.3</v>
+        <v>420.6</v>
       </c>
       <c r="F21">
-        <v>196.6</v>
+        <v>395.14</v>
       </c>
       <c r="G21">
-        <v>206.31</v>
+        <v>391.39</v>
       </c>
       <c r="H21">
-        <v>208.18</v>
+        <v>433.22</v>
       </c>
       <c r="I21">
-        <v>217.02</v>
+        <v>457.28</v>
+      </c>
+      <c r="J21">
+        <v>530.33000000000004</v>
       </c>
       <c r="K21" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L21">
-        <v>220.15</v>
+        <v>414.9</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1549,40 +1570,40 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>44634</v>
+        <v>44643</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22">
-        <v>2998.9</v>
+        <v>3119.1</v>
       </c>
       <c r="F22">
-        <v>2959.21</v>
+        <v>2918.47</v>
       </c>
       <c r="G22">
-        <v>2950.79</v>
+        <v>2831.24</v>
       </c>
       <c r="H22">
-        <v>3088.87</v>
+        <v>3212.67</v>
       </c>
       <c r="I22">
-        <v>3110.77</v>
+        <v>3232.32</v>
       </c>
       <c r="J22">
-        <v>3471.73</v>
+        <v>3667.02</v>
       </c>
       <c r="K22" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L22">
-        <v>2997.8</v>
+        <v>3430.5</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1593,40 +1614,40 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>44634</v>
+        <v>44642</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E23">
-        <v>1103.6500000000001</v>
+        <v>635.45000000000005</v>
       </c>
       <c r="F23">
-        <v>1047.53</v>
+        <v>630.04</v>
       </c>
       <c r="G23">
-        <v>1019.89</v>
+        <v>617.62</v>
       </c>
       <c r="H23">
-        <v>1135.5999999999999</v>
+        <v>654.51</v>
       </c>
       <c r="I23">
-        <v>1136.76</v>
+        <v>706.2</v>
       </c>
       <c r="J23">
-        <v>1206.57</v>
+        <v>739.58</v>
       </c>
       <c r="K23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>1167.7</v>
+        <v>724.1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1637,40 +1658,40 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44634</v>
+        <v>44641</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>447.8</v>
+        <v>190.35</v>
       </c>
       <c r="F24">
-        <v>443.76</v>
+        <v>190.15</v>
       </c>
       <c r="G24">
-        <v>415.06</v>
+        <v>188.55</v>
       </c>
       <c r="H24">
-        <v>459.45</v>
+        <v>196.06</v>
       </c>
       <c r="I24">
-        <v>461.23</v>
+        <v>197.35</v>
       </c>
       <c r="J24">
-        <v>480.93</v>
+        <v>210.38</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>459.8</v>
+        <v>203.55</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1681,37 +1702,37 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>44634</v>
+        <v>44641</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>1458.55</v>
+        <v>186.7</v>
       </c>
       <c r="F25">
-        <v>1368.38</v>
+        <v>170.28</v>
       </c>
       <c r="G25">
-        <v>1362.97</v>
+        <v>168.28</v>
       </c>
       <c r="H25">
-        <v>1502.31</v>
+        <v>192.3</v>
       </c>
       <c r="I25">
-        <v>1612.77</v>
+        <v>199.22</v>
       </c>
       <c r="J25">
-        <v>1865.62</v>
+        <v>213.33</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
       </c>
       <c r="L25">
-        <v>1637.35</v>
+        <v>205.2</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N25" t="s">
         <v>4</v>
@@ -1725,37 +1746,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>44634</v>
+        <v>44637</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>723</v>
+        <v>2598</v>
       </c>
       <c r="F26">
-        <v>689.85</v>
+        <v>2443.84</v>
       </c>
       <c r="G26">
-        <v>679.1</v>
+        <v>2347.8000000000002</v>
       </c>
       <c r="H26">
-        <v>744.69</v>
+        <v>2675.94</v>
       </c>
       <c r="I26">
-        <v>763.47</v>
-      </c>
-      <c r="J26">
-        <v>890.58</v>
+        <v>2787.03</v>
       </c>
       <c r="K26" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L26">
-        <v>946.15</v>
+        <v>2945.45</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
         <v>4</v>
@@ -1769,37 +1787,34 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E27">
-        <v>128.15</v>
+        <v>3091.65</v>
       </c>
       <c r="F27">
-        <v>126.18</v>
+        <v>2882.96</v>
       </c>
       <c r="G27">
-        <v>122.51</v>
+        <v>3184.4</v>
       </c>
       <c r="H27">
-        <v>131.99</v>
+        <v>3285.6</v>
       </c>
       <c r="I27">
-        <v>139.12</v>
-      </c>
-      <c r="J27">
-        <v>165.38</v>
+        <v>3481.92</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
       </c>
       <c r="L27">
-        <v>134.19999999999999</v>
+        <v>3431.35</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N27" t="s">
         <v>4</v>
@@ -1813,37 +1828,37 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>44629</v>
+        <v>44636</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E28">
-        <v>65.650000000000006</v>
+        <v>555.15</v>
       </c>
       <c r="F28">
-        <v>63.68</v>
+        <v>524.04</v>
       </c>
       <c r="G28">
-        <v>56.47</v>
+        <v>523.72</v>
       </c>
       <c r="H28">
-        <v>67.62</v>
+        <v>571.79999999999995</v>
       </c>
       <c r="I28">
-        <v>74.33</v>
+        <v>596.04999999999995</v>
       </c>
       <c r="J28">
-        <v>80.83</v>
+        <v>634.13</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>73.400000000000006</v>
+        <v>675</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
         <v>4</v>
@@ -1857,37 +1872,34 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>44624</v>
+        <v>44635</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>341.7</v>
+        <v>200.3</v>
       </c>
       <c r="F29">
-        <v>327.39999999999998</v>
+        <v>196.6</v>
       </c>
       <c r="G29">
-        <v>327.10000000000002</v>
+        <v>206.31</v>
       </c>
       <c r="H29">
-        <v>351.95</v>
+        <v>208.18</v>
       </c>
       <c r="I29">
-        <v>357.28</v>
-      </c>
-      <c r="J29">
-        <v>399.23</v>
+        <v>217.02</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
       </c>
       <c r="L29">
-        <v>310.8</v>
+        <v>220.15</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N29" t="s">
         <v>6</v>
@@ -1901,40 +1913,40 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>44623</v>
+        <v>44634</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E30">
-        <v>725.3</v>
+        <v>2998.9</v>
       </c>
       <c r="F30">
-        <v>702.5</v>
+        <v>2959.21</v>
       </c>
       <c r="G30">
-        <v>696.01</v>
+        <v>2950.79</v>
       </c>
       <c r="H30">
-        <v>747.06</v>
+        <v>3088.87</v>
       </c>
       <c r="I30">
-        <v>749.02</v>
+        <v>3110.77</v>
       </c>
       <c r="J30">
-        <v>829.07</v>
+        <v>3471.73</v>
       </c>
       <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>2997.8</v>
+      </c>
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>861.1</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
       <c r="N30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1945,40 +1957,40 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>44617</v>
+        <v>44634</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>1981.95</v>
+        <v>1103.6500000000001</v>
       </c>
       <c r="F31">
-        <v>1978.68</v>
+        <v>1047.53</v>
       </c>
       <c r="G31">
-        <v>1958.01</v>
+        <v>1019.89</v>
       </c>
       <c r="H31">
-        <v>2034.08</v>
+        <v>1135.5999999999999</v>
       </c>
       <c r="I31">
-        <v>2041.41</v>
+        <v>1136.76</v>
       </c>
       <c r="J31">
-        <v>2090.85</v>
+        <v>1206.57</v>
       </c>
       <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>1167.7</v>
+      </c>
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>2224.6</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
       <c r="N31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -1989,40 +2001,40 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>44606</v>
+        <v>44634</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E32">
-        <v>553.25</v>
+        <v>447.8</v>
       </c>
       <c r="F32">
-        <v>534.80999999999995</v>
+        <v>443.76</v>
       </c>
       <c r="G32">
-        <v>520.91999999999996</v>
+        <v>415.06</v>
       </c>
       <c r="H32">
-        <v>569.85</v>
+        <v>459.45</v>
       </c>
       <c r="I32">
-        <v>584.75</v>
+        <v>461.23</v>
       </c>
       <c r="J32">
-        <v>651.35</v>
+        <v>480.93</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L32">
-        <v>495.45</v>
+        <v>459.8</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2033,40 +2045,40 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>44601</v>
+        <v>44634</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>1324</v>
+        <v>1458.55</v>
       </c>
       <c r="F33">
-        <v>1301.1600000000001</v>
+        <v>1368.38</v>
       </c>
       <c r="G33">
-        <v>1293.48</v>
+        <v>1362.97</v>
       </c>
       <c r="H33">
-        <v>1363.72</v>
+        <v>1502.31</v>
       </c>
       <c r="I33">
-        <v>1423.83</v>
+        <v>1612.77</v>
       </c>
       <c r="J33">
-        <v>1570.18</v>
+        <v>1865.62</v>
       </c>
       <c r="K33" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L33">
-        <v>1192.8499999999999</v>
+        <v>1637.35</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2077,40 +2089,40 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>44599</v>
+        <v>44634</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E34">
-        <v>452.75</v>
+        <v>723</v>
       </c>
       <c r="F34">
-        <v>430.28</v>
+        <v>689.85</v>
       </c>
       <c r="G34">
-        <v>377.77</v>
+        <v>679.1</v>
       </c>
       <c r="H34">
-        <v>466.33</v>
+        <v>744.69</v>
       </c>
       <c r="I34">
-        <v>468.63</v>
+        <v>763.47</v>
       </c>
       <c r="J34">
-        <v>490.85</v>
+        <v>890.58</v>
       </c>
       <c r="K34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>391.9</v>
+        <v>946.15</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2121,34 +2133,37 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>44599</v>
+        <v>44631</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E35">
-        <v>2142</v>
+        <v>128.15</v>
       </c>
       <c r="F35">
-        <v>2069.15</v>
+        <v>126.18</v>
       </c>
       <c r="G35">
-        <v>2052.2199999999998</v>
+        <v>122.51</v>
       </c>
       <c r="H35">
-        <v>2206.2600000000002</v>
+        <v>131.99</v>
       </c>
       <c r="I35">
-        <v>2250.3000000000002</v>
+        <v>139.12</v>
+      </c>
+      <c r="J35">
+        <v>165.38</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
       </c>
       <c r="L35">
-        <v>2176.9499999999998</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N35" t="s">
         <v>4</v>
@@ -2162,40 +2177,40 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>44599</v>
+        <v>44629</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E36">
-        <v>133.6</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="F36">
-        <v>128.38</v>
+        <v>63.68</v>
       </c>
       <c r="G36">
-        <v>124.6</v>
+        <v>56.47</v>
       </c>
       <c r="H36">
-        <v>137.61000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="I36">
-        <v>138.07</v>
+        <v>74.33</v>
       </c>
       <c r="J36">
-        <v>142.80000000000001</v>
+        <v>80.83</v>
       </c>
       <c r="K36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L36">
-        <v>121.6</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2206,37 +2221,37 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>44596</v>
+        <v>44624</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>4092</v>
+        <v>341.7</v>
       </c>
       <c r="F37">
-        <v>3776.95</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="G37">
-        <v>3746.76</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="H37">
-        <v>4214.76</v>
+        <v>351.95</v>
       </c>
       <c r="I37">
-        <v>4242.17</v>
+        <v>357.28</v>
       </c>
       <c r="J37">
-        <v>4730.0200000000004</v>
+        <v>399.23</v>
       </c>
       <c r="K37" t="s">
         <v>6</v>
       </c>
       <c r="L37">
-        <v>3947.4</v>
+        <v>310.8</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
         <v>6</v>
@@ -2250,40 +2265,40 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>44595</v>
+        <v>44623</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E38">
-        <v>13206</v>
+        <v>725.3</v>
       </c>
       <c r="F38">
-        <v>12389.2</v>
+        <v>702.5</v>
       </c>
       <c r="G38">
-        <v>12025.37</v>
+        <v>696.01</v>
       </c>
       <c r="H38">
-        <v>13579.15</v>
+        <v>747.06</v>
       </c>
       <c r="I38">
-        <v>13602.18</v>
+        <v>749.02</v>
       </c>
       <c r="J38">
-        <v>13936.05</v>
+        <v>829.07</v>
       </c>
       <c r="K38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>12185.55</v>
+        <v>861.1</v>
       </c>
       <c r="M38">
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2294,40 +2309,40 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>44580</v>
+        <v>44617</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>1222.5</v>
+        <v>1981.95</v>
       </c>
       <c r="F39">
-        <v>1152.56</v>
+        <v>1978.68</v>
       </c>
       <c r="G39">
-        <v>1113.9000000000001</v>
+        <v>1958.01</v>
       </c>
       <c r="H39">
-        <v>1259.17</v>
+        <v>2034.08</v>
       </c>
       <c r="I39">
-        <v>1274.53</v>
+        <v>2041.41</v>
       </c>
       <c r="J39">
-        <v>1327.78</v>
+        <v>2090.85</v>
       </c>
       <c r="K39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>1048.5999999999999</v>
+        <v>2224.6</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2338,37 +2353,37 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>44575</v>
+        <v>44606</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E40">
-        <v>499.65</v>
+        <v>553.25</v>
       </c>
       <c r="F40">
-        <v>468.25</v>
+        <v>534.80999999999995</v>
       </c>
       <c r="G40">
-        <v>464.03</v>
+        <v>520.91999999999996</v>
       </c>
       <c r="H40">
-        <v>514.64</v>
+        <v>569.85</v>
       </c>
       <c r="I40">
-        <v>515.6</v>
+        <v>584.75</v>
       </c>
       <c r="J40">
-        <v>529.22</v>
+        <v>651.35</v>
       </c>
       <c r="K40" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L40">
-        <v>469.95</v>
+        <v>495.45</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
         <v>4</v>
@@ -2382,37 +2397,37 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>44573</v>
+        <v>44601</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>596.4</v>
+        <v>1324</v>
       </c>
       <c r="F41">
-        <v>568.29</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="G41">
-        <v>551.22</v>
+        <v>1293.48</v>
       </c>
       <c r="H41">
-        <v>614.29</v>
+        <v>1363.72</v>
       </c>
       <c r="I41">
-        <v>669</v>
+        <v>1423.83</v>
       </c>
       <c r="J41">
-        <v>780.4</v>
+        <v>1570.18</v>
       </c>
       <c r="K41" t="s">
         <v>6</v>
       </c>
       <c r="L41">
-        <v>676.55</v>
+        <v>1192.8499999999999</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
         <v>6</v>
@@ -2426,40 +2441,40 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>44571</v>
+        <v>44599</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>31.8</v>
+        <v>452.75</v>
       </c>
       <c r="F42">
-        <v>29.37</v>
+        <v>430.28</v>
       </c>
       <c r="G42">
-        <v>28.98</v>
+        <v>377.77</v>
       </c>
       <c r="H42">
-        <v>32.75</v>
+        <v>466.33</v>
       </c>
       <c r="I42">
-        <v>32.799999999999997</v>
+        <v>468.63</v>
       </c>
       <c r="J42">
-        <v>33.520000000000003</v>
+        <v>490.85</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>30.65</v>
+        <v>391.9</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N42" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2470,37 +2485,34 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>44571</v>
+        <v>44599</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>382.05</v>
+        <v>2142</v>
       </c>
       <c r="F43">
-        <v>367</v>
+        <v>2069.15</v>
       </c>
       <c r="G43">
-        <v>356.22</v>
+        <v>2052.2199999999998</v>
       </c>
       <c r="H43">
-        <v>391.12</v>
+        <v>2206.2600000000002</v>
       </c>
       <c r="I43">
-        <v>393.51</v>
-      </c>
-      <c r="J43">
-        <v>403.35</v>
+        <v>2250.3000000000002</v>
       </c>
       <c r="K43" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L43">
-        <v>434.7</v>
+        <v>2176.9499999999998</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
         <v>4</v>
@@ -2514,40 +2526,40 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>44568</v>
+        <v>44599</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E44">
-        <v>158.69999999999999</v>
+        <v>133.6</v>
       </c>
       <c r="F44">
-        <v>147.59</v>
+        <v>128.38</v>
       </c>
       <c r="G44">
-        <v>147.49</v>
+        <v>124.6</v>
       </c>
       <c r="H44">
-        <v>163.46</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="I44">
-        <v>166.75</v>
+        <v>138.07</v>
       </c>
       <c r="J44">
-        <v>184.75</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L44">
-        <v>157.75</v>
+        <v>121.6</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2558,40 +2570,40 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>44568</v>
+        <v>44596</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E45">
-        <v>200.65</v>
+        <v>4092</v>
       </c>
       <c r="F45">
-        <v>190.7</v>
+        <v>3776.95</v>
       </c>
       <c r="G45">
-        <v>183.28</v>
+        <v>3746.76</v>
       </c>
       <c r="H45">
-        <v>206.67</v>
+        <v>4214.76</v>
       </c>
       <c r="I45">
-        <v>214.8</v>
+        <v>4242.17</v>
       </c>
       <c r="J45">
-        <v>223.1</v>
+        <v>4730.0200000000004</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>201.05</v>
+        <v>3947.4</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2602,40 +2614,40 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E46">
-        <v>1903.9</v>
+        <v>13206</v>
       </c>
       <c r="F46">
-        <v>1755.34</v>
+        <v>12389.2</v>
       </c>
       <c r="G46">
-        <v>1642.64</v>
+        <v>12025.37</v>
       </c>
       <c r="H46">
-        <v>1961.02</v>
+        <v>13579.15</v>
       </c>
       <c r="I46">
-        <v>1969.95</v>
+        <v>13602.18</v>
       </c>
       <c r="J46">
-        <v>2061.4699999999998</v>
+        <v>13936.05</v>
       </c>
       <c r="K46" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L46">
-        <v>1977.45</v>
+        <v>12185.55</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2646,40 +2658,40 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>44539</v>
+        <v>44580</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>2228.5</v>
+        <v>1222.5</v>
       </c>
       <c r="F47">
-        <v>2108.85</v>
+        <v>1152.56</v>
       </c>
       <c r="G47">
-        <v>1997.53</v>
+        <v>1113.9000000000001</v>
       </c>
       <c r="H47">
-        <v>2295.36</v>
+        <v>1259.17</v>
       </c>
       <c r="I47">
-        <v>2360.58</v>
+        <v>1274.53</v>
       </c>
       <c r="J47">
-        <v>2638.53</v>
+        <v>1327.78</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L47">
-        <v>2226.6</v>
+        <v>1048.5999999999999</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2690,37 +2702,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>44533</v>
+        <v>44575</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E48">
-        <v>364.15</v>
+        <v>499.65</v>
       </c>
       <c r="F48">
-        <v>337.79</v>
+        <v>468.25</v>
       </c>
       <c r="G48">
-        <v>318.74</v>
+        <v>464.03</v>
       </c>
       <c r="H48">
-        <v>375.07</v>
+        <v>514.64</v>
       </c>
       <c r="I48">
-        <v>385.52</v>
+        <v>515.6</v>
       </c>
       <c r="J48">
-        <v>403.45</v>
+        <v>529.22</v>
       </c>
       <c r="K48" t="s">
         <v>3</v>
       </c>
       <c r="L48">
-        <v>424</v>
+        <v>469.95</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
         <v>4</v>
@@ -2734,37 +2746,37 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>44533</v>
+        <v>44573</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E49">
-        <v>154.94999999999999</v>
+        <v>596.4</v>
       </c>
       <c r="F49">
-        <v>151.22</v>
+        <v>568.29</v>
       </c>
       <c r="G49">
-        <v>147.36000000000001</v>
+        <v>551.22</v>
       </c>
       <c r="H49">
-        <v>159.6</v>
+        <v>614.29</v>
       </c>
       <c r="I49">
-        <v>160.97999999999999</v>
+        <v>669</v>
       </c>
       <c r="J49">
-        <v>167.95</v>
+        <v>780.4</v>
       </c>
       <c r="K49" t="s">
         <v>6</v>
       </c>
       <c r="L49">
-        <v>145.9</v>
+        <v>676.55</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N49" t="s">
         <v>6</v>
@@ -2778,40 +2790,40 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>44531</v>
+        <v>44571</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E50">
-        <v>5080.25</v>
+        <v>31.8</v>
       </c>
       <c r="F50">
-        <v>4957.96</v>
+        <v>29.37</v>
       </c>
       <c r="G50">
-        <v>4845.8599999999997</v>
+        <v>28.98</v>
       </c>
       <c r="H50">
-        <v>5220.53</v>
+        <v>32.75</v>
       </c>
       <c r="I50">
-        <v>5232.66</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J50">
-        <v>5311.9</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K50" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="L50">
-        <v>5060.1000000000004</v>
+        <v>30.65</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N50" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2822,37 +2834,37 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>44526</v>
+        <v>44571</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E51">
-        <v>1810.1</v>
+        <v>382.05</v>
       </c>
       <c r="F51">
-        <v>1745.93</v>
+        <v>367</v>
       </c>
       <c r="G51">
-        <v>1715.01</v>
+        <v>356.22</v>
       </c>
       <c r="H51">
-        <v>1864.4</v>
+        <v>391.12</v>
       </c>
       <c r="I51">
-        <v>1887.2</v>
+        <v>393.51</v>
       </c>
       <c r="J51">
-        <v>2088.1999999999998</v>
+        <v>403.35</v>
       </c>
       <c r="K51" t="s">
         <v>3</v>
       </c>
       <c r="L51">
-        <v>1974.55</v>
+        <v>434.7</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
         <v>4</v>
@@ -2866,37 +2878,37 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>44522</v>
+        <v>44568</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>142.9</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F52">
-        <v>133.26</v>
+        <v>147.59</v>
       </c>
       <c r="G52">
-        <v>127.28</v>
+        <v>147.49</v>
       </c>
       <c r="H52">
-        <v>147.19</v>
+        <v>163.46</v>
       </c>
       <c r="I52">
-        <v>149.35</v>
+        <v>166.75</v>
       </c>
       <c r="J52">
-        <v>156.41999999999999</v>
+        <v>184.75</v>
       </c>
       <c r="K52" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L52">
-        <v>149.30000000000001</v>
+        <v>157.75</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
         <v>4</v>
@@ -2910,40 +2922,40 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>44517</v>
+        <v>44568</v>
       </c>
       <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <v>200.65</v>
+      </c>
+      <c r="F53">
+        <v>190.7</v>
+      </c>
+      <c r="G53">
+        <v>183.28</v>
+      </c>
+      <c r="H53">
+        <v>206.67</v>
+      </c>
+      <c r="I53">
+        <v>214.8</v>
+      </c>
+      <c r="J53">
+        <v>223.1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <v>201.05</v>
+      </c>
+      <c r="M53">
         <v>10</v>
       </c>
-      <c r="E53">
-        <v>230.3</v>
-      </c>
-      <c r="F53">
-        <v>218.03</v>
-      </c>
-      <c r="G53">
-        <v>214.41</v>
-      </c>
-      <c r="H53">
-        <v>237.21</v>
-      </c>
-      <c r="I53">
-        <v>241.3</v>
-      </c>
-      <c r="J53">
-        <v>258</v>
-      </c>
-      <c r="K53" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53">
-        <v>213.5</v>
-      </c>
-      <c r="M53">
-        <v>4</v>
-      </c>
       <c r="N53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2954,40 +2966,40 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>44516</v>
+        <v>44566</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E54">
-        <v>504</v>
+        <v>1903.9</v>
       </c>
       <c r="F54">
-        <v>485.12</v>
+        <v>1755.34</v>
       </c>
       <c r="G54">
-        <v>474.56</v>
+        <v>1642.64</v>
       </c>
       <c r="H54">
-        <v>519.12</v>
+        <v>1961.02</v>
       </c>
       <c r="I54">
-        <v>564.98</v>
+        <v>1969.95</v>
       </c>
       <c r="J54">
-        <v>657.23</v>
+        <v>2061.4699999999998</v>
       </c>
       <c r="K54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>425.5</v>
+        <v>1977.45</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2998,40 +3010,40 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>44516</v>
+        <v>44539</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E55">
-        <v>2288.75</v>
+        <v>2228.5</v>
       </c>
       <c r="F55">
-        <v>2194.21</v>
+        <v>2108.85</v>
       </c>
       <c r="G55">
-        <v>2184.1799999999998</v>
+        <v>1997.53</v>
       </c>
       <c r="H55">
-        <v>2357.41</v>
+        <v>2295.36</v>
       </c>
       <c r="I55">
-        <v>2392.4499999999998</v>
+        <v>2360.58</v>
       </c>
       <c r="J55">
-        <v>2609.85</v>
+        <v>2638.53</v>
       </c>
       <c r="K55" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L55">
-        <v>1911.7</v>
+        <v>2226.6</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3042,40 +3054,40 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>367.8</v>
+        <v>364.15</v>
       </c>
       <c r="F56">
-        <v>356.44</v>
+        <v>337.79</v>
       </c>
       <c r="G56">
-        <v>341.13</v>
+        <v>318.74</v>
       </c>
       <c r="H56">
-        <v>378.83</v>
+        <v>375.07</v>
       </c>
       <c r="I56">
-        <v>387.22</v>
+        <v>385.52</v>
       </c>
       <c r="J56">
-        <v>433.87</v>
+        <v>403.45</v>
       </c>
       <c r="K56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>374.15</v>
+        <v>424</v>
       </c>
       <c r="M56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3086,40 +3098,40 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>926.25</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="F57">
-        <v>869.94</v>
+        <v>151.22</v>
       </c>
       <c r="G57">
-        <v>866.86</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="H57">
-        <v>954.04</v>
+        <v>159.6</v>
       </c>
       <c r="I57">
-        <v>959.1</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="J57">
-        <v>1056.0999999999999</v>
+        <v>167.95</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L57">
-        <v>918.2</v>
+        <v>145.9</v>
       </c>
       <c r="M57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3130,37 +3142,37 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>44512</v>
+        <v>44531</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>922.15</v>
+        <v>5080.25</v>
       </c>
       <c r="F58">
-        <v>866.97</v>
+        <v>4957.96</v>
       </c>
       <c r="G58">
-        <v>846.17</v>
+        <v>4845.8599999999997</v>
       </c>
       <c r="H58">
-        <v>949.81</v>
+        <v>5220.53</v>
       </c>
       <c r="I58">
-        <v>959.97</v>
+        <v>5232.66</v>
       </c>
       <c r="J58">
-        <v>1104.8699999999999</v>
+        <v>5311.9</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>925.35</v>
+        <v>5060.1000000000004</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
         <v>4</v>
@@ -3174,40 +3186,40 @@
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>2252.3000000000002</v>
+        <v>1810.1</v>
       </c>
       <c r="F59">
-        <v>2189.8000000000002</v>
+        <v>1745.93</v>
       </c>
       <c r="G59">
-        <v>2179.61</v>
+        <v>1715.01</v>
       </c>
       <c r="H59">
-        <v>2319.87</v>
+        <v>1864.4</v>
       </c>
       <c r="I59">
-        <v>2392.4499999999998</v>
+        <v>1887.2</v>
       </c>
       <c r="J59">
-        <v>2609.85</v>
+        <v>2088.1999999999998</v>
       </c>
       <c r="K59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>2042.05</v>
+        <v>1974.55</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3218,37 +3230,37 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>44510</v>
+        <v>44522</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>4169.55</v>
+        <v>142.9</v>
       </c>
       <c r="F60">
-        <v>4107.1499999999996</v>
+        <v>133.26</v>
       </c>
       <c r="G60">
-        <v>3788.59</v>
+        <v>127.28</v>
       </c>
       <c r="H60">
-        <v>4294.6400000000003</v>
+        <v>147.19</v>
       </c>
       <c r="I60">
-        <v>4574.22</v>
+        <v>149.35</v>
       </c>
       <c r="J60">
-        <v>4830.2700000000004</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="K60" t="s">
         <v>3</v>
       </c>
       <c r="L60">
-        <v>3861.95</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N60" t="s">
         <v>4</v>
@@ -3262,40 +3274,40 @@
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>44509</v>
+        <v>44517</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>2006.35</v>
+        <v>230.3</v>
       </c>
       <c r="F61">
-        <v>1940.16</v>
+        <v>218.03</v>
       </c>
       <c r="G61">
-        <v>1849.85</v>
+        <v>214.41</v>
       </c>
       <c r="H61">
-        <v>2066.54</v>
+        <v>237.21</v>
       </c>
       <c r="I61">
-        <v>2111.6</v>
+        <v>241.3</v>
       </c>
       <c r="J61">
-        <v>2406.8000000000002</v>
+        <v>258</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L61">
-        <v>1966.85</v>
+        <v>213.5</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3306,37 +3318,37 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>44504</v>
+        <v>44516</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>1438</v>
+        <v>504</v>
       </c>
       <c r="F62">
-        <v>1348.05</v>
+        <v>485.12</v>
       </c>
       <c r="G62">
-        <v>1246.52</v>
+        <v>474.56</v>
       </c>
       <c r="H62">
-        <v>1481.14</v>
+        <v>519.12</v>
       </c>
       <c r="I62">
-        <v>1500.53</v>
+        <v>564.98</v>
       </c>
       <c r="J62">
-        <v>1557.03</v>
+        <v>657.23</v>
       </c>
       <c r="K62" t="s">
         <v>6</v>
       </c>
       <c r="L62">
-        <v>1292.45</v>
+        <v>425.5</v>
       </c>
       <c r="M62">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
         <v>6</v>
@@ -3350,40 +3362,40 @@
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>44503</v>
+        <v>44516</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>940</v>
+        <v>2288.75</v>
       </c>
       <c r="F63">
-        <v>889.59</v>
+        <v>2194.21</v>
       </c>
       <c r="G63">
-        <v>877.45</v>
+        <v>2184.1799999999998</v>
       </c>
       <c r="H63">
-        <v>968.2</v>
+        <v>2357.41</v>
       </c>
       <c r="I63">
-        <v>976.45</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J63">
-        <v>1092.05</v>
+        <v>2609.85</v>
       </c>
       <c r="K63" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L63">
-        <v>911.3</v>
+        <v>1911.7</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3394,40 +3406,40 @@
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E64">
-        <v>467.25</v>
+        <v>367.8</v>
       </c>
       <c r="F64">
-        <v>449.1</v>
+        <v>356.44</v>
       </c>
       <c r="G64">
-        <v>434.55</v>
+        <v>341.13</v>
       </c>
       <c r="H64">
-        <v>481.27</v>
+        <v>378.83</v>
       </c>
       <c r="I64">
-        <v>483.37</v>
+        <v>387.22</v>
       </c>
       <c r="J64">
-        <v>540.63</v>
+        <v>433.87</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L64">
-        <v>467.45</v>
+        <v>374.15</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3438,37 +3450,37 @@
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>2376.5500000000002</v>
+        <v>926.25</v>
       </c>
       <c r="F65">
-        <v>2227.59</v>
+        <v>869.94</v>
       </c>
       <c r="G65">
-        <v>2195.98</v>
+        <v>866.86</v>
       </c>
       <c r="H65">
-        <v>2447.7800000000002</v>
+        <v>954.04</v>
       </c>
       <c r="I65">
-        <v>2447.85</v>
+        <v>959.1</v>
       </c>
       <c r="J65">
-        <v>2581.4299999999998</v>
+        <v>1056.0999999999999</v>
       </c>
       <c r="K65" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L65">
-        <v>2332.1</v>
+        <v>918.2</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N65" t="s">
         <v>4</v>
@@ -3482,37 +3494,37 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>44503</v>
+        <v>44512</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>3960.1</v>
+        <v>922.15</v>
       </c>
       <c r="F66">
-        <v>3811.12</v>
+        <v>866.97</v>
       </c>
       <c r="G66">
-        <v>3778.9</v>
+        <v>846.17</v>
       </c>
       <c r="H66">
-        <v>4078.9</v>
+        <v>949.81</v>
       </c>
       <c r="I66">
-        <v>4094.88</v>
+        <v>959.97</v>
       </c>
       <c r="J66">
-        <v>4611.7299999999996</v>
+        <v>1104.8699999999999</v>
       </c>
       <c r="K66" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L66">
-        <v>4220.7</v>
+        <v>925.35</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N66" t="s">
         <v>4</v>
@@ -3526,37 +3538,37 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>44502</v>
+        <v>44512</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>503</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="F67">
-        <v>468.45</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="G67">
-        <v>404.65</v>
+        <v>2179.61</v>
       </c>
       <c r="H67">
-        <v>518.09</v>
+        <v>2319.87</v>
       </c>
       <c r="I67">
-        <v>538.33000000000004</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J67">
-        <v>564.23</v>
+        <v>2609.85</v>
       </c>
       <c r="K67" t="s">
         <v>6</v>
       </c>
       <c r="L67">
-        <v>407.5</v>
+        <v>2042.05</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
         <v>6</v>
@@ -3570,34 +3582,37 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>44498</v>
+        <v>44510</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>183.95</v>
+        <v>4169.55</v>
       </c>
       <c r="F68">
-        <v>172.67</v>
+        <v>4107.1499999999996</v>
       </c>
       <c r="G68">
-        <v>150.44</v>
+        <v>3788.59</v>
       </c>
       <c r="H68">
-        <v>189.47</v>
+        <v>4294.6400000000003</v>
       </c>
       <c r="I68">
-        <v>220.63</v>
+        <v>4574.22</v>
+      </c>
+      <c r="J68">
+        <v>4830.2700000000004</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>166.8</v>
+        <v>3861.95</v>
       </c>
       <c r="M68">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N68" t="s">
         <v>4</v>
@@ -3611,37 +3626,37 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>44497</v>
+        <v>44509</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E69">
-        <v>1947.1</v>
+        <v>2006.35</v>
       </c>
       <c r="F69">
-        <v>1858.11</v>
+        <v>1940.16</v>
       </c>
       <c r="G69">
-        <v>1845.66</v>
+        <v>1849.85</v>
       </c>
       <c r="H69">
-        <v>2005.51</v>
+        <v>2066.54</v>
       </c>
       <c r="I69">
-        <v>2022.07</v>
+        <v>2111.6</v>
       </c>
       <c r="J69">
-        <v>2175.9699999999998</v>
+        <v>2406.8000000000002</v>
       </c>
       <c r="K69" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L69">
-        <v>2149.5500000000002</v>
+        <v>1966.85</v>
       </c>
       <c r="M69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N69" t="s">
         <v>4</v>
@@ -3655,37 +3670,40 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>50.1</v>
+        <v>1438</v>
       </c>
       <c r="F70">
-        <v>46.38</v>
+        <v>1348.05</v>
       </c>
       <c r="G70">
-        <v>45.6</v>
+        <v>1246.52</v>
       </c>
       <c r="H70">
-        <v>52.35</v>
+        <v>1481.14</v>
       </c>
       <c r="I70">
-        <v>52.7</v>
+        <v>1500.53</v>
+      </c>
+      <c r="J70">
+        <v>1557.03</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L70">
-        <v>48.8</v>
+        <v>1292.45</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -3696,37 +3714,37 @@
         <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>44491</v>
+        <v>44503</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>1243.3</v>
+        <v>940</v>
       </c>
       <c r="F71">
-        <v>1184.8599999999999</v>
+        <v>889.59</v>
       </c>
       <c r="G71">
-        <v>1112.71</v>
+        <v>877.45</v>
       </c>
       <c r="H71">
-        <v>1299.25</v>
+        <v>968.2</v>
       </c>
       <c r="I71">
-        <v>1328.27</v>
+        <v>976.45</v>
       </c>
       <c r="J71">
-        <v>1397.58</v>
+        <v>1092.05</v>
       </c>
       <c r="K71" t="s">
         <v>15</v>
       </c>
       <c r="L71">
-        <v>1270.1500000000001</v>
+        <v>911.3</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" t="s">
         <v>4</v>
@@ -3740,40 +3758,40 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>44490</v>
+        <v>44503</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E72">
-        <v>14400.05</v>
+        <v>467.25</v>
       </c>
       <c r="F72">
-        <v>13928.9</v>
+        <v>449.1</v>
       </c>
       <c r="G72">
-        <v>13651.23</v>
+        <v>434.55</v>
       </c>
       <c r="H72">
-        <v>14887.35</v>
+        <v>481.27</v>
       </c>
       <c r="I72">
-        <v>15048.05</v>
+        <v>483.37</v>
       </c>
       <c r="J72">
-        <v>15158.53</v>
+        <v>540.63</v>
       </c>
       <c r="K72" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L72">
-        <v>14644.95</v>
+        <v>467.45</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -3784,40 +3802,40 @@
         <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>44489</v>
+        <v>44503</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>14400</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="F73">
-        <v>13915.11</v>
+        <v>2227.59</v>
       </c>
       <c r="G73">
-        <v>13616.79</v>
+        <v>2195.98</v>
       </c>
       <c r="H73">
-        <v>14887.35</v>
+        <v>2447.7800000000002</v>
       </c>
       <c r="I73">
-        <v>15048</v>
+        <v>2447.85</v>
       </c>
       <c r="J73">
-        <v>15158.53</v>
+        <v>2581.4299999999998</v>
       </c>
       <c r="K73" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>14453.9</v>
+        <v>2332.1</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N73" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -3828,40 +3846,40 @@
         <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>44489</v>
+        <v>44503</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>497.95</v>
+        <v>3960.1</v>
       </c>
       <c r="F74">
-        <v>461.51</v>
+        <v>3811.12</v>
       </c>
       <c r="G74">
-        <v>455.19</v>
+        <v>3778.9</v>
       </c>
       <c r="H74">
-        <v>520.36</v>
+        <v>4078.9</v>
       </c>
       <c r="I74">
-        <v>520.41999999999996</v>
+        <v>4094.88</v>
       </c>
       <c r="J74">
-        <v>580.41999999999996</v>
+        <v>4611.7299999999996</v>
       </c>
       <c r="K74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>428.55</v>
+        <v>4220.7</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -3872,37 +3890,40 @@
         <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>44483</v>
+        <v>44502</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E75">
-        <v>8928</v>
+        <v>503</v>
       </c>
       <c r="F75">
-        <v>8199.61</v>
+        <v>468.45</v>
       </c>
       <c r="G75">
-        <v>8071.6</v>
+        <v>404.65</v>
       </c>
       <c r="H75">
-        <v>9329.76</v>
+        <v>518.09</v>
       </c>
       <c r="I75">
-        <v>9446.1</v>
+        <v>538.33000000000004</v>
+      </c>
+      <c r="J75">
+        <v>564.23</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L75">
-        <v>9105.75</v>
+        <v>407.5</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -3913,34 +3934,34 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>44483</v>
+        <v>44498</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E76">
-        <v>358</v>
+        <v>183.95</v>
       </c>
       <c r="F76">
-        <v>327.27999999999997</v>
+        <v>172.67</v>
       </c>
       <c r="G76">
-        <v>321.62</v>
+        <v>150.44</v>
       </c>
       <c r="H76">
-        <v>374.11</v>
+        <v>189.47</v>
       </c>
       <c r="I76">
-        <v>377.57</v>
+        <v>220.63</v>
       </c>
       <c r="K76" t="s">
         <v>15</v>
       </c>
       <c r="L76">
-        <v>318.55</v>
+        <v>166.8</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N76" t="s">
         <v>4</v>
@@ -3954,40 +3975,40 @@
         <v>1</v>
       </c>
       <c r="C77" s="1">
-        <v>44482</v>
+        <v>44497</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E77">
-        <v>1840.1</v>
+        <v>1947.1</v>
       </c>
       <c r="F77">
-        <v>1728.38</v>
+        <v>1858.11</v>
       </c>
       <c r="G77">
-        <v>1649.84</v>
+        <v>1845.66</v>
       </c>
       <c r="H77">
-        <v>1922.9</v>
+        <v>2005.51</v>
       </c>
       <c r="I77">
-        <v>1954.85</v>
+        <v>2022.07</v>
       </c>
       <c r="J77">
-        <v>2179.75</v>
+        <v>2175.9699999999998</v>
       </c>
       <c r="K77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>1792.45</v>
+        <v>2149.5500000000002</v>
       </c>
       <c r="M77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -3998,37 +4019,34 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>44481</v>
+        <v>44491</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E78">
-        <v>456.35</v>
+        <v>50.1</v>
       </c>
       <c r="F78">
-        <v>431.76</v>
+        <v>46.38</v>
       </c>
       <c r="G78">
-        <v>421.61</v>
+        <v>45.6</v>
       </c>
       <c r="H78">
-        <v>476.89</v>
+        <v>52.35</v>
       </c>
       <c r="I78">
-        <v>476.9</v>
-      </c>
-      <c r="J78">
-        <v>531.9</v>
+        <v>52.7</v>
       </c>
       <c r="K78" t="s">
         <v>15</v>
       </c>
       <c r="L78">
-        <v>464.65</v>
+        <v>48.8</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78" t="s">
         <v>4</v>
@@ -4042,34 +4060,34 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>44481</v>
+        <v>44491</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E79">
-        <v>96.3</v>
+        <v>1243.3</v>
       </c>
       <c r="F79">
-        <v>91.74</v>
+        <v>1184.8599999999999</v>
       </c>
       <c r="G79">
-        <v>88.31</v>
+        <v>1112.71</v>
       </c>
       <c r="H79">
-        <v>100.63</v>
+        <v>1299.25</v>
       </c>
       <c r="I79">
-        <v>106.95</v>
+        <v>1328.27</v>
       </c>
       <c r="J79">
-        <v>122.7</v>
+        <v>1397.58</v>
       </c>
       <c r="K79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L79">
-        <v>102.55</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="M79">
         <v>2</v>
@@ -4086,40 +4104,40 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>44481</v>
+        <v>44490</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E80">
-        <v>2025</v>
+        <v>14400.05</v>
       </c>
       <c r="F80">
-        <v>1869.62</v>
+        <v>13928.9</v>
       </c>
       <c r="G80">
-        <v>1853.79</v>
+        <v>13651.23</v>
       </c>
       <c r="H80">
-        <v>2116.13</v>
+        <v>14887.35</v>
       </c>
       <c r="I80">
-        <v>2147.83</v>
+        <v>15048.05</v>
       </c>
       <c r="J80">
-        <v>2419.38</v>
+        <v>15158.53</v>
       </c>
       <c r="K80" t="s">
+        <v>41</v>
+      </c>
+      <c r="L80">
+        <v>14644.95</v>
+      </c>
+      <c r="M80">
         <v>15</v>
       </c>
-      <c r="L80">
-        <v>1993.8</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
       <c r="N80" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -4130,40 +4148,40 @@
         <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>44480</v>
+        <v>44489</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E81">
-        <v>313.55</v>
+        <v>14400</v>
       </c>
       <c r="F81">
-        <v>297.8</v>
+        <v>13915.11</v>
       </c>
       <c r="G81">
-        <v>282.27</v>
+        <v>13616.79</v>
       </c>
       <c r="H81">
-        <v>323.38</v>
+        <v>14887.35</v>
       </c>
       <c r="I81">
-        <v>327.66000000000003</v>
+        <v>15048</v>
       </c>
       <c r="J81">
-        <v>334.27</v>
+        <v>15158.53</v>
       </c>
       <c r="K81" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L81">
-        <v>269.75</v>
+        <v>14453.9</v>
       </c>
       <c r="M81">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N81" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -4174,40 +4192,40 @@
         <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>44477</v>
+        <v>44489</v>
       </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E82">
-        <v>789.25</v>
+        <v>497.95</v>
       </c>
       <c r="F82">
-        <v>757.08</v>
+        <v>461.51</v>
       </c>
       <c r="G82">
-        <v>751.14</v>
+        <v>455.19</v>
       </c>
       <c r="H82">
-        <v>816.23</v>
+        <v>520.36</v>
       </c>
       <c r="I82">
-        <v>824.77</v>
+        <v>520.41999999999996</v>
       </c>
       <c r="J82">
-        <v>834.78</v>
+        <v>580.41999999999996</v>
       </c>
       <c r="K82" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L82">
-        <v>821</v>
+        <v>428.55</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -4218,40 +4236,37 @@
         <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D83" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E83">
-        <v>656.4</v>
+        <v>8928</v>
       </c>
       <c r="F83">
-        <v>653</v>
+        <v>8199.61</v>
       </c>
       <c r="G83">
-        <v>632.46</v>
+        <v>8071.6</v>
       </c>
       <c r="H83">
-        <v>685.94</v>
+        <v>9329.76</v>
       </c>
       <c r="I83">
-        <v>708.65</v>
-      </c>
-      <c r="J83">
-        <v>792.4</v>
+        <v>9446.1</v>
       </c>
       <c r="K83" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L83">
-        <v>515.79999999999995</v>
+        <v>9105.75</v>
       </c>
       <c r="M83">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -4262,40 +4277,37 @@
         <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E84">
-        <v>97.75</v>
+        <v>358</v>
       </c>
       <c r="F84">
-        <v>90.97</v>
+        <v>327.27999999999997</v>
       </c>
       <c r="G84">
-        <v>88.12</v>
+        <v>321.62</v>
       </c>
       <c r="H84">
-        <v>102.15</v>
+        <v>374.11</v>
       </c>
       <c r="I84">
-        <v>106.95</v>
-      </c>
-      <c r="J84">
-        <v>122.7</v>
+        <v>377.57</v>
       </c>
       <c r="K84" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L84">
-        <v>97.45</v>
+        <v>318.55</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -4306,40 +4318,40 @@
         <v>1</v>
       </c>
       <c r="C85" s="1">
-        <v>44477</v>
+        <v>44482</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E85">
-        <v>1965.1</v>
+        <v>1840.1</v>
       </c>
       <c r="F85">
-        <v>1863.54</v>
+        <v>1728.38</v>
       </c>
       <c r="G85">
-        <v>1850.86</v>
+        <v>1649.84</v>
       </c>
       <c r="H85">
-        <v>2053.5300000000002</v>
+        <v>1922.9</v>
       </c>
       <c r="I85">
-        <v>2073.9699999999998</v>
+        <v>1954.85</v>
       </c>
       <c r="J85">
-        <v>2147.83</v>
+        <v>2179.75</v>
       </c>
       <c r="K85" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L85">
-        <v>1946.05</v>
+        <v>1792.45</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -4350,37 +4362,37 @@
         <v>1</v>
       </c>
       <c r="C86" s="1">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E86">
-        <v>211.55</v>
+        <v>456.35</v>
       </c>
       <c r="F86">
-        <v>199.66</v>
+        <v>431.76</v>
       </c>
       <c r="G86">
-        <v>195.14</v>
+        <v>421.61</v>
       </c>
       <c r="H86">
-        <v>221.07</v>
+        <v>476.89</v>
       </c>
       <c r="I86">
-        <v>222.5</v>
+        <v>476.9</v>
       </c>
       <c r="J86">
-        <v>231.5</v>
+        <v>531.9</v>
       </c>
       <c r="K86" t="s">
         <v>15</v>
       </c>
       <c r="L86">
-        <v>197.65</v>
+        <v>464.65</v>
       </c>
       <c r="M86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N86" t="s">
         <v>4</v>
@@ -4394,37 +4406,40 @@
         <v>1</v>
       </c>
       <c r="C87" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E87">
-        <v>2141.3000000000002</v>
+        <v>96.3</v>
       </c>
       <c r="F87">
-        <v>1927.17</v>
+        <v>91.74</v>
       </c>
       <c r="G87">
-        <v>1897.63</v>
+        <v>88.31</v>
       </c>
       <c r="H87">
-        <v>2237.66</v>
+        <v>100.63</v>
       </c>
       <c r="I87">
-        <v>2357.87</v>
+        <v>106.95</v>
+      </c>
+      <c r="J87">
+        <v>122.7</v>
       </c>
       <c r="K87" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L87">
-        <v>1949.45</v>
+        <v>102.55</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -4435,31 +4450,34 @@
         <v>1</v>
       </c>
       <c r="C88" s="1">
-        <v>44476</v>
+        <v>44481</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E88">
-        <v>1304.5</v>
+        <v>2025</v>
       </c>
       <c r="F88">
-        <v>1181.8499999999999</v>
+        <v>1869.62</v>
       </c>
       <c r="G88">
-        <v>1177.8599999999999</v>
+        <v>1853.79</v>
       </c>
       <c r="H88">
-        <v>1357.02</v>
+        <v>2116.13</v>
       </c>
       <c r="I88">
-        <v>1363.2</v>
+        <v>2147.83</v>
+      </c>
+      <c r="J88">
+        <v>2419.38</v>
       </c>
       <c r="K88" t="s">
         <v>15</v>
       </c>
       <c r="L88">
-        <v>1313.25</v>
+        <v>1993.8</v>
       </c>
       <c r="M88">
         <v>2</v>
@@ -4476,34 +4494,37 @@
         <v>1</v>
       </c>
       <c r="C89" s="1">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E89">
-        <v>1046</v>
+        <v>313.55</v>
       </c>
       <c r="F89">
-        <v>991.55</v>
+        <v>297.8</v>
       </c>
       <c r="G89">
-        <v>975.33</v>
+        <v>282.27</v>
       </c>
       <c r="H89">
-        <v>1093.07</v>
+        <v>323.38</v>
       </c>
       <c r="I89">
-        <v>1100.17</v>
+        <v>327.66000000000003</v>
+      </c>
+      <c r="J89">
+        <v>334.27</v>
       </c>
       <c r="K89" t="s">
         <v>6</v>
       </c>
       <c r="L89">
-        <v>804.35</v>
+        <v>269.75</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N89" t="s">
         <v>6</v>
@@ -4517,40 +4538,40 @@
         <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E90">
-        <v>310.7</v>
+        <v>789.25</v>
       </c>
       <c r="F90">
-        <v>295.52999999999997</v>
+        <v>757.08</v>
       </c>
       <c r="G90">
-        <v>280.48</v>
+        <v>751.14</v>
       </c>
       <c r="H90">
-        <v>323.38</v>
+        <v>816.23</v>
       </c>
       <c r="I90">
-        <v>324.68</v>
+        <v>824.77</v>
       </c>
       <c r="J90">
-        <v>334.27</v>
+        <v>834.78</v>
       </c>
       <c r="K90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>273.3</v>
+        <v>821</v>
       </c>
       <c r="M90">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -4561,40 +4582,40 @@
         <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E91">
-        <v>214.3</v>
+        <v>656.4</v>
       </c>
       <c r="F91">
-        <v>206.45</v>
+        <v>653</v>
       </c>
       <c r="G91">
-        <v>205.8</v>
+        <v>632.46</v>
       </c>
       <c r="H91">
-        <v>223.94</v>
+        <v>685.94</v>
       </c>
       <c r="I91">
-        <v>225.65</v>
+        <v>708.65</v>
       </c>
       <c r="J91">
-        <v>245.35</v>
+        <v>792.4</v>
       </c>
       <c r="K91" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L91">
-        <v>214.4</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="M91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -4605,37 +4626,40 @@
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E92">
-        <v>289</v>
+        <v>97.75</v>
       </c>
       <c r="F92">
-        <v>276.52</v>
+        <v>90.97</v>
       </c>
       <c r="G92">
-        <v>272.33</v>
+        <v>88.12</v>
       </c>
       <c r="H92">
-        <v>302</v>
+        <v>102.15</v>
       </c>
       <c r="I92">
-        <v>306.18</v>
+        <v>106.95</v>
+      </c>
+      <c r="J92">
+        <v>122.7</v>
       </c>
       <c r="K92" t="s">
+        <v>41</v>
+      </c>
+      <c r="L92">
+        <v>97.45</v>
+      </c>
+      <c r="M92">
         <v>15</v>
       </c>
-      <c r="L92">
-        <v>283.05</v>
-      </c>
-      <c r="M92">
-        <v>13</v>
-      </c>
       <c r="N92" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -4646,39 +4670,379 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93">
+        <v>1965.1</v>
+      </c>
+      <c r="F93">
+        <v>1863.54</v>
+      </c>
+      <c r="G93">
+        <v>1850.86</v>
+      </c>
+      <c r="H93">
+        <v>2053.5300000000002</v>
+      </c>
+      <c r="I93">
+        <v>2073.9699999999998</v>
+      </c>
+      <c r="J93">
+        <v>2147.83</v>
+      </c>
+      <c r="K93" t="s">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>1946.05</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94">
+        <v>211.55</v>
+      </c>
+      <c r="F94">
+        <v>199.66</v>
+      </c>
+      <c r="G94">
+        <v>195.14</v>
+      </c>
+      <c r="H94">
+        <v>221.07</v>
+      </c>
+      <c r="I94">
+        <v>222.5</v>
+      </c>
+      <c r="J94">
+        <v>231.5</v>
+      </c>
+      <c r="K94" t="s">
+        <v>15</v>
+      </c>
+      <c r="L94">
+        <v>197.65</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95">
+        <v>2141.3000000000002</v>
+      </c>
+      <c r="F95">
+        <v>1927.17</v>
+      </c>
+      <c r="G95">
+        <v>1897.63</v>
+      </c>
+      <c r="H95">
+        <v>2237.66</v>
+      </c>
+      <c r="I95">
+        <v>2357.87</v>
+      </c>
+      <c r="K95" t="s">
+        <v>41</v>
+      </c>
+      <c r="L95">
+        <v>1949.45</v>
+      </c>
+      <c r="M95">
+        <v>15</v>
+      </c>
+      <c r="N95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>1304.5</v>
+      </c>
+      <c r="F96">
+        <v>1181.8499999999999</v>
+      </c>
+      <c r="G96">
+        <v>1177.8599999999999</v>
+      </c>
+      <c r="H96">
+        <v>1357.02</v>
+      </c>
+      <c r="I96">
+        <v>1363.2</v>
+      </c>
+      <c r="K96" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96">
+        <v>1313.25</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97">
+        <v>1046</v>
+      </c>
+      <c r="F97">
+        <v>991.55</v>
+      </c>
+      <c r="G97">
+        <v>975.33</v>
+      </c>
+      <c r="H97">
+        <v>1093.07</v>
+      </c>
+      <c r="I97">
+        <v>1100.17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>6</v>
+      </c>
+      <c r="L97">
+        <v>804.35</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98">
+        <v>310.7</v>
+      </c>
+      <c r="F98">
+        <v>295.52999999999997</v>
+      </c>
+      <c r="G98">
+        <v>280.48</v>
+      </c>
+      <c r="H98">
+        <v>323.38</v>
+      </c>
+      <c r="I98">
+        <v>324.68</v>
+      </c>
+      <c r="J98">
+        <v>334.27</v>
+      </c>
+      <c r="K98" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98">
+        <v>273.3</v>
+      </c>
+      <c r="M98">
+        <v>9</v>
+      </c>
+      <c r="N98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44475</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>214.3</v>
+      </c>
+      <c r="F99">
+        <v>206.45</v>
+      </c>
+      <c r="G99">
+        <v>205.8</v>
+      </c>
+      <c r="H99">
+        <v>223.94</v>
+      </c>
+      <c r="I99">
+        <v>225.65</v>
+      </c>
+      <c r="J99">
+        <v>245.35</v>
+      </c>
+      <c r="K99" t="s">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>214.4</v>
+      </c>
+      <c r="M99">
+        <v>9</v>
+      </c>
+      <c r="N99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44474</v>
+      </c>
+      <c r="D100" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100">
+        <v>289</v>
+      </c>
+      <c r="F100">
+        <v>276.52</v>
+      </c>
+      <c r="G100">
+        <v>272.33</v>
+      </c>
+      <c r="H100">
+        <v>302</v>
+      </c>
+      <c r="I100">
+        <v>306.18</v>
+      </c>
+      <c r="K100" t="s">
+        <v>15</v>
+      </c>
+      <c r="L100">
+        <v>283.05</v>
+      </c>
+      <c r="M100">
+        <v>13</v>
+      </c>
+      <c r="N100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
         <v>44470</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D101" t="s">
         <v>56</v>
       </c>
-      <c r="E93">
+      <c r="E101">
         <v>3396.6</v>
       </c>
-      <c r="F93">
+      <c r="F101">
         <v>3162.72</v>
       </c>
-      <c r="G93">
+      <c r="G101">
         <v>3027.58</v>
       </c>
-      <c r="H93">
+      <c r="H101">
         <v>3549.45</v>
       </c>
-      <c r="I93">
+      <c r="I101">
         <v>3557.23</v>
       </c>
-      <c r="J93">
+      <c r="J101">
         <v>3951.23</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K101" t="s">
         <v>15</v>
       </c>
-      <c r="L93">
+      <c r="L101">
         <v>3392.4</v>
       </c>
-      <c r="M93">
+      <c r="M101">
         <v>7</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N101" t="s">
         <v>4</v>
       </c>
     </row>

--- a/default/data/Clean/NCASH.xlsx
+++ b/default/data/Clean/NCASH.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="101">
   <si>
     <t>Cash_N500</t>
   </si>
@@ -288,6 +288,45 @@
   </si>
   <si>
     <t>GMMPFAUDLR.NS</t>
+  </si>
+  <si>
+    <t>EIHOTEL.NS</t>
+  </si>
+  <si>
+    <t>HIKAL.NS</t>
+  </si>
+  <si>
+    <t>TRIVENI.NS</t>
+  </si>
+  <si>
+    <t>GLAND.NS</t>
+  </si>
+  <si>
+    <t>PRINCEPIPE.NS</t>
+  </si>
+  <si>
+    <t>GESHIP.NS</t>
+  </si>
+  <si>
+    <t>CESC.NS</t>
+  </si>
+  <si>
+    <t>CENTURYPLY.NS</t>
+  </si>
+  <si>
+    <t>OIL.NS</t>
+  </si>
+  <si>
+    <t>BORORENEW.NS</t>
+  </si>
+  <si>
+    <t>POWERINDIA.NS</t>
+  </si>
+  <si>
+    <t>SKFINDIA.NS</t>
+  </si>
+  <si>
+    <t>METROBRAND.NS</t>
   </si>
 </sst>
 </file>
@@ -635,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,37 +741,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>44708</v>
+        <v>44741</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>527.79999999999995</v>
+        <v>127.55</v>
       </c>
       <c r="F2">
-        <v>496.4</v>
+        <v>116.07</v>
       </c>
       <c r="G2">
-        <v>483.19</v>
+        <v>96.98</v>
       </c>
       <c r="H2">
-        <v>543.63</v>
+        <v>130.1</v>
       </c>
       <c r="I2">
-        <v>571.29999999999995</v>
+        <v>130.41999999999999</v>
       </c>
       <c r="J2">
-        <v>591.48</v>
+        <v>136.16999999999999</v>
       </c>
       <c r="K2" t="s">
         <v>84</v>
       </c>
       <c r="L2">
-        <v>528.79999999999995</v>
+        <v>126.7</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>84</v>
@@ -746,40 +785,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44707</v>
+        <v>44741</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>473</v>
+        <v>13335</v>
       </c>
       <c r="F3">
-        <v>442.11</v>
+        <v>13003.97</v>
       </c>
       <c r="G3">
-        <v>439</v>
+        <v>12188.98</v>
       </c>
       <c r="H3">
-        <v>487.19</v>
+        <v>13584.13</v>
       </c>
       <c r="I3">
-        <v>489.9</v>
+        <v>13601.7</v>
       </c>
       <c r="J3">
-        <v>504.43</v>
+        <v>13615.98</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="L3">
-        <v>449.65</v>
+        <v>13394.05</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -790,40 +829,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44705</v>
+        <v>44741</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4">
-        <v>162</v>
+        <v>260.45</v>
       </c>
       <c r="F4">
-        <v>151.94</v>
+        <v>259.33999999999997</v>
       </c>
       <c r="G4">
-        <v>149.62</v>
+        <v>239.78</v>
       </c>
       <c r="H4">
-        <v>166.86</v>
+        <v>265.66000000000003</v>
       </c>
       <c r="I4">
-        <v>167.07</v>
+        <v>285.12</v>
       </c>
       <c r="J4">
-        <v>171.33</v>
+        <v>336.45</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>154.55000000000001</v>
+        <v>238.5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -834,40 +873,40 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>44704</v>
+        <v>44741</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5">
-        <v>4764.45</v>
+        <v>526.1</v>
       </c>
       <c r="F5">
-        <v>4647.95</v>
+        <v>476.17</v>
       </c>
       <c r="G5">
-        <v>4608</v>
+        <v>356.08</v>
       </c>
       <c r="H5">
-        <v>4898.2</v>
+        <v>536.62</v>
       </c>
       <c r="I5">
-        <v>4907.38</v>
+        <v>646.84</v>
       </c>
       <c r="J5">
-        <v>5267.35</v>
+        <v>671.08</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L5">
-        <v>4205.2</v>
+        <v>539.65</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -878,37 +917,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>44698</v>
+        <v>44740</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>2579</v>
+        <v>239.9</v>
       </c>
       <c r="F6">
-        <v>2356.9299999999998</v>
+        <v>202.16666667000001</v>
       </c>
       <c r="G6">
-        <v>2339.94</v>
+        <v>114.11666667</v>
       </c>
       <c r="H6">
-        <v>2656.37</v>
+        <v>244.69800000000001</v>
       </c>
       <c r="I6">
-        <v>2769.23</v>
+        <v>247.38333333</v>
       </c>
       <c r="J6">
-        <v>3108.23</v>
+        <v>251.14824999999999</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
       <c r="L6">
-        <v>2558.5500000000002</v>
+        <v>230.3</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>4</v>
@@ -922,40 +961,40 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>44690</v>
+        <v>44740</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E7">
-        <v>246.45</v>
+        <v>2674.95</v>
       </c>
       <c r="F7">
-        <v>233.21</v>
+        <v>2611.25</v>
       </c>
       <c r="G7">
-        <v>228.2</v>
+        <v>2361.5500000000002</v>
       </c>
       <c r="H7">
-        <v>253.84</v>
+        <v>2728.4490000000001</v>
       </c>
       <c r="I7">
-        <v>267.47000000000003</v>
+        <v>2925.6</v>
       </c>
       <c r="J7">
-        <v>302.67</v>
+        <v>2927.973</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="L7">
-        <v>240.75</v>
+        <v>2652.9</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -966,40 +1005,40 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>44685</v>
+        <v>44740</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>467.35</v>
+        <v>607.5</v>
       </c>
       <c r="F8">
-        <v>428.38</v>
+        <v>597.32749999999999</v>
       </c>
       <c r="G8">
-        <v>406.93</v>
+        <v>591.43333332999998</v>
       </c>
       <c r="H8">
-        <v>481.32</v>
+        <v>619.65</v>
       </c>
       <c r="I8">
-        <v>481.37</v>
+        <v>630.529</v>
       </c>
       <c r="J8">
-        <v>532.62</v>
+        <v>648.14200000000005</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>435.45</v>
+        <v>592.95000000000005</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1010,37 +1049,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>44683</v>
+        <v>44740</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>3818</v>
+        <v>384.1</v>
       </c>
       <c r="F9">
-        <v>3627.28</v>
+        <v>363.19400000000002</v>
       </c>
       <c r="G9">
-        <v>3546.88</v>
+        <v>354.03333333</v>
       </c>
       <c r="H9">
-        <v>3928.6</v>
+        <v>391.78199999999998</v>
       </c>
       <c r="I9">
-        <v>3932.54</v>
+        <v>391.81099999999998</v>
       </c>
       <c r="J9">
-        <v>4001.57</v>
+        <v>399.51666667000001</v>
       </c>
       <c r="K9" t="s">
         <v>3</v>
       </c>
       <c r="L9">
-        <v>2628.85</v>
+        <v>391</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
         <v>4</v>
@@ -1054,37 +1093,40 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>44676</v>
+        <v>44740</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E10">
-        <v>1825.1</v>
+        <v>73</v>
       </c>
       <c r="F10">
-        <v>1689.06</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="G10">
-        <v>1674.97</v>
+        <v>57.85</v>
       </c>
       <c r="H10">
-        <v>1879.85</v>
+        <v>74.460000000000008</v>
       </c>
       <c r="I10">
-        <v>2081.42</v>
+        <v>74.569999999999993</v>
+      </c>
+      <c r="J10">
+        <v>78.659000000000006</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="L10">
-        <v>1729.15</v>
+        <v>71</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1095,34 +1137,37 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>44671</v>
+        <v>44740</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>112.8</v>
+        <v>26.85</v>
       </c>
       <c r="F11">
-        <v>104.5</v>
+        <v>25.75</v>
       </c>
       <c r="G11">
-        <v>103.7</v>
+        <v>23.95</v>
       </c>
       <c r="H11">
-        <v>116.18</v>
+        <v>27.387</v>
       </c>
       <c r="I11">
-        <v>119</v>
+        <v>27.745000000000001</v>
+      </c>
+      <c r="J11">
+        <v>28.15</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11">
-        <v>101.55</v>
+        <v>27.4</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
         <v>4</v>
@@ -1136,37 +1181,40 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>44671</v>
+        <v>44740</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E12">
-        <v>2196</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F12">
-        <v>2000.38</v>
+        <v>40.0075</v>
       </c>
       <c r="G12">
-        <v>1952.76</v>
+        <v>31.666666670000001</v>
       </c>
       <c r="H12">
-        <v>2261.88</v>
+        <v>41.003999999999998</v>
       </c>
       <c r="I12">
-        <v>2528.98</v>
+        <v>44.433333330000004</v>
+      </c>
+      <c r="J12">
+        <v>46.024999999999999</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>1801.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1177,40 +1225,40 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>44670</v>
+        <v>44740</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E13">
-        <v>36.299999999999997</v>
+        <v>706.2</v>
       </c>
       <c r="F13">
-        <v>34.4</v>
+        <v>679.8</v>
       </c>
       <c r="G13">
-        <v>34.33</v>
+        <v>556.1</v>
       </c>
       <c r="H13">
-        <v>37.39</v>
+        <v>720.32400000000007</v>
       </c>
       <c r="I13">
-        <v>38.200000000000003</v>
+        <v>731.10950000000003</v>
       </c>
       <c r="J13">
-        <v>40.03</v>
+        <v>736.11500000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="L13">
-        <v>32.1</v>
+        <v>688.8</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1221,37 +1269,37 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>44664</v>
+        <v>44739</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E14">
-        <v>2127.0500000000002</v>
+        <v>518.20000000000005</v>
       </c>
       <c r="F14">
-        <v>2008.05</v>
+        <v>482.56666667000002</v>
       </c>
       <c r="G14">
-        <v>1929.24</v>
+        <v>391.18333332999998</v>
       </c>
       <c r="H14">
-        <v>2190.86</v>
+        <v>528.56400000000008</v>
       </c>
       <c r="I14">
-        <v>2238.4699999999998</v>
+        <v>536.0675</v>
       </c>
       <c r="J14">
-        <v>2338.2800000000002</v>
+        <v>560.30700000000002</v>
       </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L14">
-        <v>2028.7</v>
+        <v>513</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
         <v>4</v>
@@ -1265,37 +1313,34 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>44664</v>
+        <v>44720</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E15">
-        <v>132.05000000000001</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="F15">
-        <v>129.08000000000001</v>
+        <v>269.64999999999998</v>
       </c>
       <c r="G15">
-        <v>123.17</v>
+        <v>261.85000000000002</v>
       </c>
       <c r="H15">
-        <v>136.01</v>
+        <v>292.33200000000011</v>
       </c>
       <c r="I15">
-        <v>138.41999999999999</v>
-      </c>
-      <c r="J15">
-        <v>161.87</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L15">
-        <v>124.65</v>
+        <v>249.65</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
         <v>4</v>
@@ -1309,37 +1354,40 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>44664</v>
+        <v>44715</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E16">
-        <v>163.85</v>
+        <v>696.75</v>
       </c>
       <c r="F16">
-        <v>154.72999999999999</v>
+        <v>641.47</v>
       </c>
       <c r="G16">
-        <v>153.76</v>
+        <v>629.34</v>
       </c>
       <c r="H16">
-        <v>168.77</v>
+        <v>717.65</v>
       </c>
       <c r="I16">
-        <v>183.58</v>
+        <v>743.35</v>
+      </c>
+      <c r="J16">
+        <v>829.9</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>138.30000000000001</v>
+        <v>622.65</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1350,40 +1398,40 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>44664</v>
+        <v>44714</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1032.8499999999999</v>
+        <v>1144.8</v>
       </c>
       <c r="F17">
-        <v>959.21</v>
+        <v>1085.6500000000001</v>
       </c>
       <c r="G17">
-        <v>940.79</v>
+        <v>1039.23</v>
       </c>
       <c r="H17">
-        <v>1063.8399999999999</v>
+        <v>1179.1400000000001</v>
       </c>
       <c r="I17">
-        <v>1083.23</v>
+        <v>1192.17</v>
       </c>
       <c r="J17">
-        <v>1222.6300000000001</v>
+        <v>1307.17</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>1075.5999999999999</v>
+        <v>748.5</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1394,37 +1442,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>44659</v>
+        <v>44712</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E18">
-        <v>831</v>
+        <v>3500.15</v>
       </c>
       <c r="F18">
-        <v>787.99</v>
+        <v>3250.47</v>
       </c>
       <c r="G18">
-        <v>766.29</v>
+        <v>3144.01</v>
       </c>
       <c r="H18">
-        <v>855.93</v>
+        <v>3605.15</v>
       </c>
       <c r="I18">
-        <v>858.5</v>
+        <v>3715.67</v>
       </c>
       <c r="J18">
-        <v>904.6</v>
+        <v>4159.17</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L18">
-        <v>845</v>
+        <v>2876.45</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
         <v>4</v>
@@ -1438,37 +1486,34 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>44656</v>
+        <v>44712</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>4128.3</v>
+        <v>2255.4499999999998</v>
       </c>
       <c r="F19">
-        <v>4020.78</v>
+        <v>2040.74</v>
       </c>
       <c r="G19">
-        <v>3967.08</v>
+        <v>2018.29</v>
       </c>
       <c r="H19">
-        <v>4247.25</v>
+        <v>2323.11</v>
       </c>
       <c r="I19">
-        <v>4252.1499999999996</v>
-      </c>
-      <c r="J19">
-        <v>4381.33</v>
+        <v>2529.7199999999998</v>
       </c>
       <c r="K19" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L19">
-        <v>4484.8</v>
+        <v>2325.4</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
         <v>4</v>
@@ -1482,40 +1527,40 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>44650</v>
+        <v>44712</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E20">
-        <v>215.75</v>
+        <v>3652.6</v>
       </c>
       <c r="F20">
-        <v>208.7</v>
+        <v>3477.09</v>
       </c>
       <c r="G20">
-        <v>205.69</v>
+        <v>3439.38</v>
       </c>
       <c r="H20">
-        <v>222.22</v>
+        <v>3740.67</v>
       </c>
       <c r="I20">
-        <v>239.33</v>
+        <v>3762.18</v>
       </c>
       <c r="J20">
-        <v>279.33</v>
+        <v>4042.52</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>223.8</v>
+        <v>3155.75</v>
       </c>
       <c r="M20">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1526,34 +1571,34 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>44648</v>
+        <v>44712</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>420.6</v>
+        <v>598.54999999999995</v>
       </c>
       <c r="F21">
-        <v>395.14</v>
+        <v>565.82000000000005</v>
       </c>
       <c r="G21">
-        <v>391.39</v>
+        <v>558.96</v>
       </c>
       <c r="H21">
-        <v>433.22</v>
+        <v>616.51</v>
       </c>
       <c r="I21">
-        <v>457.28</v>
+        <v>617.65</v>
       </c>
       <c r="J21">
-        <v>530.33000000000004</v>
+        <v>665.2</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21">
-        <v>414.9</v>
+        <v>536.79999999999995</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -1570,40 +1615,40 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>44643</v>
+        <v>44708</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>3119.1</v>
+        <v>527.79999999999995</v>
       </c>
       <c r="F22">
-        <v>2918.47</v>
+        <v>496.4</v>
       </c>
       <c r="G22">
-        <v>2831.24</v>
+        <v>483.19</v>
       </c>
       <c r="H22">
-        <v>3212.67</v>
+        <v>543.63</v>
       </c>
       <c r="I22">
-        <v>3232.32</v>
+        <v>571.29999999999995</v>
       </c>
       <c r="J22">
-        <v>3667.02</v>
+        <v>591.48</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="L22">
-        <v>3430.5</v>
+        <v>528.79999999999995</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1614,40 +1659,40 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>44642</v>
+        <v>44707</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E23">
-        <v>635.45000000000005</v>
+        <v>473</v>
       </c>
       <c r="F23">
-        <v>630.04</v>
+        <v>442.11</v>
       </c>
       <c r="G23">
-        <v>617.62</v>
+        <v>439</v>
       </c>
       <c r="H23">
-        <v>654.51</v>
+        <v>487.19</v>
       </c>
       <c r="I23">
-        <v>706.2</v>
+        <v>489.9</v>
       </c>
       <c r="J23">
-        <v>739.58</v>
+        <v>504.43</v>
       </c>
       <c r="K23" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="L23">
-        <v>724.1</v>
+        <v>449.65</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1658,40 +1703,40 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>44641</v>
+        <v>44705</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E24">
-        <v>190.35</v>
+        <v>162</v>
       </c>
       <c r="F24">
-        <v>190.15</v>
+        <v>151.94</v>
       </c>
       <c r="G24">
-        <v>188.55</v>
+        <v>149.62</v>
       </c>
       <c r="H24">
-        <v>196.06</v>
+        <v>166.86</v>
       </c>
       <c r="I24">
-        <v>197.35</v>
+        <v>167.07</v>
       </c>
       <c r="J24">
-        <v>210.38</v>
+        <v>171.33</v>
       </c>
       <c r="K24" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="L24">
-        <v>203.55</v>
+        <v>154.55000000000001</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1702,40 +1747,40 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>44641</v>
+        <v>44704</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E25">
-        <v>186.7</v>
+        <v>4764.45</v>
       </c>
       <c r="F25">
-        <v>170.28</v>
+        <v>4647.95</v>
       </c>
       <c r="G25">
-        <v>168.28</v>
+        <v>4608</v>
       </c>
       <c r="H25">
-        <v>192.3</v>
+        <v>4898.2</v>
       </c>
       <c r="I25">
-        <v>199.22</v>
+        <v>4907.38</v>
       </c>
       <c r="J25">
-        <v>213.33</v>
+        <v>5267.35</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>205.2</v>
+        <v>4205.2</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1746,34 +1791,37 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>44637</v>
+        <v>44698</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>2598</v>
+        <v>2579</v>
       </c>
       <c r="F26">
-        <v>2443.84</v>
+        <v>2356.9299999999998</v>
       </c>
       <c r="G26">
-        <v>2347.8000000000002</v>
+        <v>2339.94</v>
       </c>
       <c r="H26">
-        <v>2675.94</v>
+        <v>2656.37</v>
       </c>
       <c r="I26">
-        <v>2787.03</v>
+        <v>2769.23</v>
+      </c>
+      <c r="J26">
+        <v>3108.23</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L26">
-        <v>2945.45</v>
+        <v>2558.5500000000002</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>4</v>
@@ -1787,34 +1835,37 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>44636</v>
+        <v>44690</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E27">
-        <v>3091.65</v>
+        <v>246.45</v>
       </c>
       <c r="F27">
-        <v>2882.96</v>
+        <v>233.21</v>
       </c>
       <c r="G27">
-        <v>3184.4</v>
+        <v>228.2</v>
       </c>
       <c r="H27">
-        <v>3285.6</v>
+        <v>253.84</v>
       </c>
       <c r="I27">
-        <v>3481.92</v>
+        <v>267.47000000000003</v>
+      </c>
+      <c r="J27">
+        <v>302.67</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L27">
-        <v>3431.35</v>
+        <v>240.75</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
         <v>4</v>
@@ -1828,40 +1879,40 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>44636</v>
+        <v>44685</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E28">
-        <v>555.15</v>
+        <v>467.35</v>
       </c>
       <c r="F28">
-        <v>524.04</v>
+        <v>428.38</v>
       </c>
       <c r="G28">
-        <v>523.72</v>
+        <v>406.93</v>
       </c>
       <c r="H28">
-        <v>571.79999999999995</v>
+        <v>481.32</v>
       </c>
       <c r="I28">
-        <v>596.04999999999995</v>
+        <v>481.37</v>
       </c>
       <c r="J28">
-        <v>634.13</v>
+        <v>532.62</v>
       </c>
       <c r="K28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>675</v>
+        <v>435.45</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1872,37 +1923,40 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>44635</v>
+        <v>44683</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>200.3</v>
+        <v>3818</v>
       </c>
       <c r="F29">
-        <v>196.6</v>
+        <v>3627.28</v>
       </c>
       <c r="G29">
-        <v>206.31</v>
+        <v>3546.88</v>
       </c>
       <c r="H29">
-        <v>208.18</v>
+        <v>3928.6</v>
       </c>
       <c r="I29">
-        <v>217.02</v>
+        <v>3932.54</v>
+      </c>
+      <c r="J29">
+        <v>4001.57</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>220.15</v>
+        <v>2628.85</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1913,40 +1967,37 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>44634</v>
+        <v>44676</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E30">
-        <v>2998.9</v>
+        <v>1825.1</v>
       </c>
       <c r="F30">
-        <v>2959.21</v>
+        <v>1689.06</v>
       </c>
       <c r="G30">
-        <v>2950.79</v>
+        <v>1674.97</v>
       </c>
       <c r="H30">
-        <v>3088.87</v>
+        <v>1879.85</v>
       </c>
       <c r="I30">
-        <v>3110.77</v>
-      </c>
-      <c r="J30">
-        <v>3471.73</v>
+        <v>2081.42</v>
       </c>
       <c r="K30" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L30">
-        <v>2997.8</v>
+        <v>1729.15</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1957,40 +2008,37 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>44634</v>
+        <v>44671</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E31">
-        <v>1103.6500000000001</v>
+        <v>112.8</v>
       </c>
       <c r="F31">
-        <v>1047.53</v>
+        <v>104.5</v>
       </c>
       <c r="G31">
-        <v>1019.89</v>
+        <v>103.7</v>
       </c>
       <c r="H31">
-        <v>1135.5999999999999</v>
+        <v>116.18</v>
       </c>
       <c r="I31">
-        <v>1136.76</v>
-      </c>
-      <c r="J31">
-        <v>1206.57</v>
+        <v>119</v>
       </c>
       <c r="K31" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L31">
-        <v>1167.7</v>
+        <v>101.55</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2001,40 +2049,37 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>44634</v>
+        <v>44671</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E32">
-        <v>447.8</v>
+        <v>2196</v>
       </c>
       <c r="F32">
-        <v>443.76</v>
+        <v>2000.38</v>
       </c>
       <c r="G32">
-        <v>415.06</v>
+        <v>1952.76</v>
       </c>
       <c r="H32">
-        <v>459.45</v>
+        <v>2261.88</v>
       </c>
       <c r="I32">
-        <v>461.23</v>
-      </c>
-      <c r="J32">
-        <v>480.93</v>
+        <v>2528.98</v>
       </c>
       <c r="K32" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L32">
-        <v>459.8</v>
+        <v>1801.4</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2045,37 +2090,37 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>44634</v>
+        <v>44670</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E33">
-        <v>1458.55</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="F33">
-        <v>1368.38</v>
+        <v>34.4</v>
       </c>
       <c r="G33">
-        <v>1362.97</v>
+        <v>34.33</v>
       </c>
       <c r="H33">
-        <v>1502.31</v>
+        <v>37.39</v>
       </c>
       <c r="I33">
-        <v>1612.77</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="J33">
-        <v>1865.62</v>
+        <v>40.03</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L33">
-        <v>1637.35</v>
+        <v>32.1</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
         <v>4</v>
@@ -2089,37 +2134,37 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>44634</v>
+        <v>44664</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>723</v>
+        <v>2127.0500000000002</v>
       </c>
       <c r="F34">
-        <v>689.85</v>
+        <v>2008.05</v>
       </c>
       <c r="G34">
-        <v>679.1</v>
+        <v>1929.24</v>
       </c>
       <c r="H34">
-        <v>744.69</v>
+        <v>2190.86</v>
       </c>
       <c r="I34">
-        <v>763.47</v>
+        <v>2238.4699999999998</v>
       </c>
       <c r="J34">
-        <v>890.58</v>
+        <v>2338.2800000000002</v>
       </c>
       <c r="K34" t="s">
         <v>3</v>
       </c>
       <c r="L34">
-        <v>946.15</v>
+        <v>2028.7</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
         <v>4</v>
@@ -2133,37 +2178,37 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>44631</v>
+        <v>44664</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>128.15</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="F35">
-        <v>126.18</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="G35">
-        <v>122.51</v>
+        <v>123.17</v>
       </c>
       <c r="H35">
-        <v>131.99</v>
+        <v>136.01</v>
       </c>
       <c r="I35">
-        <v>139.12</v>
+        <v>138.41999999999999</v>
       </c>
       <c r="J35">
-        <v>165.38</v>
+        <v>161.87</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
       </c>
       <c r="L35">
-        <v>134.19999999999999</v>
+        <v>124.65</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N35" t="s">
         <v>4</v>
@@ -2177,37 +2222,34 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>44629</v>
+        <v>44664</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>65.650000000000006</v>
+        <v>163.85</v>
       </c>
       <c r="F36">
-        <v>63.68</v>
+        <v>154.72999999999999</v>
       </c>
       <c r="G36">
-        <v>56.47</v>
+        <v>153.76</v>
       </c>
       <c r="H36">
-        <v>67.62</v>
+        <v>168.77</v>
       </c>
       <c r="I36">
-        <v>74.33</v>
-      </c>
-      <c r="J36">
-        <v>80.83</v>
+        <v>183.58</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L36">
-        <v>73.400000000000006</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
         <v>4</v>
@@ -2221,40 +2263,40 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>44624</v>
+        <v>44664</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>341.7</v>
+        <v>1032.8499999999999</v>
       </c>
       <c r="F37">
-        <v>327.39999999999998</v>
+        <v>959.21</v>
       </c>
       <c r="G37">
-        <v>327.10000000000002</v>
+        <v>940.79</v>
       </c>
       <c r="H37">
-        <v>351.95</v>
+        <v>1063.8399999999999</v>
       </c>
       <c r="I37">
-        <v>357.28</v>
+        <v>1083.23</v>
       </c>
       <c r="J37">
-        <v>399.23</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="K37" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L37">
-        <v>310.8</v>
+        <v>1075.5999999999999</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2265,37 +2307,37 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>44623</v>
+        <v>44659</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E38">
-        <v>725.3</v>
+        <v>831</v>
       </c>
       <c r="F38">
-        <v>702.5</v>
+        <v>787.99</v>
       </c>
       <c r="G38">
-        <v>696.01</v>
+        <v>766.29</v>
       </c>
       <c r="H38">
-        <v>747.06</v>
+        <v>855.93</v>
       </c>
       <c r="I38">
-        <v>749.02</v>
+        <v>858.5</v>
       </c>
       <c r="J38">
-        <v>829.07</v>
+        <v>904.6</v>
       </c>
       <c r="K38" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L38">
-        <v>861.1</v>
+        <v>845</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
         <v>4</v>
@@ -2309,37 +2351,37 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>44617</v>
+        <v>44656</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E39">
-        <v>1981.95</v>
+        <v>4128.3</v>
       </c>
       <c r="F39">
-        <v>1978.68</v>
+        <v>4020.78</v>
       </c>
       <c r="G39">
-        <v>1958.01</v>
+        <v>3967.08</v>
       </c>
       <c r="H39">
-        <v>2034.08</v>
+        <v>4247.25</v>
       </c>
       <c r="I39">
-        <v>2041.41</v>
+        <v>4252.1499999999996</v>
       </c>
       <c r="J39">
-        <v>2090.85</v>
+        <v>4381.33</v>
       </c>
       <c r="K39" t="s">
         <v>3</v>
       </c>
       <c r="L39">
-        <v>2224.6</v>
+        <v>4484.8</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N39" t="s">
         <v>4</v>
@@ -2353,37 +2395,37 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>44606</v>
+        <v>44650</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>553.25</v>
+        <v>215.75</v>
       </c>
       <c r="F40">
-        <v>534.80999999999995</v>
+        <v>208.7</v>
       </c>
       <c r="G40">
-        <v>520.91999999999996</v>
+        <v>205.69</v>
       </c>
       <c r="H40">
-        <v>569.85</v>
+        <v>222.22</v>
       </c>
       <c r="I40">
-        <v>584.75</v>
+        <v>239.33</v>
       </c>
       <c r="J40">
-        <v>651.35</v>
+        <v>279.33</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40">
-        <v>495.45</v>
+        <v>223.8</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
         <v>4</v>
@@ -2397,40 +2439,40 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>44601</v>
+        <v>44648</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E41">
-        <v>1324</v>
+        <v>420.6</v>
       </c>
       <c r="F41">
-        <v>1301.1600000000001</v>
+        <v>395.14</v>
       </c>
       <c r="G41">
-        <v>1293.48</v>
+        <v>391.39</v>
       </c>
       <c r="H41">
-        <v>1363.72</v>
+        <v>433.22</v>
       </c>
       <c r="I41">
-        <v>1423.83</v>
+        <v>457.28</v>
       </c>
       <c r="J41">
-        <v>1570.18</v>
+        <v>530.33000000000004</v>
       </c>
       <c r="K41" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L41">
-        <v>1192.8499999999999</v>
+        <v>414.9</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2441,40 +2483,40 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>44599</v>
+        <v>44643</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E42">
-        <v>452.75</v>
+        <v>3119.1</v>
       </c>
       <c r="F42">
-        <v>430.28</v>
+        <v>2918.47</v>
       </c>
       <c r="G42">
-        <v>377.77</v>
+        <v>2831.24</v>
       </c>
       <c r="H42">
-        <v>466.33</v>
+        <v>3212.67</v>
       </c>
       <c r="I42">
-        <v>468.63</v>
+        <v>3232.32</v>
       </c>
       <c r="J42">
-        <v>490.85</v>
+        <v>3667.02</v>
       </c>
       <c r="K42" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L42">
-        <v>391.9</v>
+        <v>3430.5</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2485,34 +2527,37 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>44599</v>
+        <v>44642</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E43">
-        <v>2142</v>
+        <v>635.45000000000005</v>
       </c>
       <c r="F43">
-        <v>2069.15</v>
+        <v>630.04</v>
       </c>
       <c r="G43">
-        <v>2052.2199999999998</v>
+        <v>617.62</v>
       </c>
       <c r="H43">
-        <v>2206.2600000000002</v>
+        <v>654.51</v>
       </c>
       <c r="I43">
-        <v>2250.3000000000002</v>
+        <v>706.2</v>
+      </c>
+      <c r="J43">
+        <v>739.58</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>2176.9499999999998</v>
+        <v>724.1</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N43" t="s">
         <v>4</v>
@@ -2526,40 +2571,40 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>44599</v>
+        <v>44641</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>133.6</v>
+        <v>190.35</v>
       </c>
       <c r="F44">
-        <v>128.38</v>
+        <v>190.15</v>
       </c>
       <c r="G44">
-        <v>124.6</v>
+        <v>188.55</v>
       </c>
       <c r="H44">
-        <v>137.61000000000001</v>
+        <v>196.06</v>
       </c>
       <c r="I44">
-        <v>138.07</v>
+        <v>197.35</v>
       </c>
       <c r="J44">
-        <v>142.80000000000001</v>
+        <v>210.38</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>121.6</v>
+        <v>203.55</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2570,40 +2615,40 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>44596</v>
+        <v>44641</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E45">
-        <v>4092</v>
+        <v>186.7</v>
       </c>
       <c r="F45">
-        <v>3776.95</v>
+        <v>170.28</v>
       </c>
       <c r="G45">
-        <v>3746.76</v>
+        <v>168.28</v>
       </c>
       <c r="H45">
-        <v>4214.76</v>
+        <v>192.3</v>
       </c>
       <c r="I45">
-        <v>4242.17</v>
+        <v>199.22</v>
       </c>
       <c r="J45">
-        <v>4730.0200000000004</v>
+        <v>213.33</v>
       </c>
       <c r="K45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L45">
-        <v>3947.4</v>
+        <v>205.2</v>
       </c>
       <c r="M45">
         <v>8</v>
       </c>
       <c r="N45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2614,40 +2659,37 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>44595</v>
+        <v>44637</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E46">
-        <v>13206</v>
+        <v>2598</v>
       </c>
       <c r="F46">
-        <v>12389.2</v>
+        <v>2443.84</v>
       </c>
       <c r="G46">
-        <v>12025.37</v>
+        <v>2347.8000000000002</v>
       </c>
       <c r="H46">
-        <v>13579.15</v>
+        <v>2675.94</v>
       </c>
       <c r="I46">
-        <v>13602.18</v>
-      </c>
-      <c r="J46">
-        <v>13936.05</v>
+        <v>2787.03</v>
       </c>
       <c r="K46" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L46">
-        <v>12185.55</v>
+        <v>2945.45</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2658,40 +2700,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>44580</v>
+        <v>44636</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E47">
-        <v>1222.5</v>
+        <v>3091.65</v>
       </c>
       <c r="F47">
-        <v>1152.56</v>
+        <v>2882.96</v>
       </c>
       <c r="G47">
-        <v>1113.9000000000001</v>
+        <v>3184.4</v>
       </c>
       <c r="H47">
-        <v>1259.17</v>
+        <v>3285.6</v>
       </c>
       <c r="I47">
-        <v>1274.53</v>
-      </c>
-      <c r="J47">
-        <v>1327.78</v>
+        <v>3481.92</v>
       </c>
       <c r="K47" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L47">
-        <v>1048.5999999999999</v>
+        <v>3431.35</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2702,37 +2741,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>44575</v>
+        <v>44636</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E48">
-        <v>499.65</v>
+        <v>555.15</v>
       </c>
       <c r="F48">
-        <v>468.25</v>
+        <v>524.04</v>
       </c>
       <c r="G48">
-        <v>464.03</v>
+        <v>523.72</v>
       </c>
       <c r="H48">
-        <v>514.64</v>
+        <v>571.79999999999995</v>
       </c>
       <c r="I48">
-        <v>515.6</v>
+        <v>596.04999999999995</v>
       </c>
       <c r="J48">
-        <v>529.22</v>
+        <v>634.13</v>
       </c>
       <c r="K48" t="s">
         <v>3</v>
       </c>
       <c r="L48">
-        <v>469.95</v>
+        <v>675</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N48" t="s">
         <v>4</v>
@@ -2746,34 +2785,31 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>44573</v>
+        <v>44635</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>596.4</v>
+        <v>200.3</v>
       </c>
       <c r="F49">
-        <v>568.29</v>
+        <v>196.6</v>
       </c>
       <c r="G49">
-        <v>551.22</v>
+        <v>206.31</v>
       </c>
       <c r="H49">
-        <v>614.29</v>
+        <v>208.18</v>
       </c>
       <c r="I49">
-        <v>669</v>
-      </c>
-      <c r="J49">
-        <v>780.4</v>
+        <v>217.02</v>
       </c>
       <c r="K49" t="s">
         <v>6</v>
       </c>
       <c r="L49">
-        <v>676.55</v>
+        <v>220.15</v>
       </c>
       <c r="M49">
         <v>10</v>
@@ -2790,40 +2826,40 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>44571</v>
+        <v>44634</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <v>31.8</v>
+        <v>2998.9</v>
       </c>
       <c r="F50">
-        <v>29.37</v>
+        <v>2959.21</v>
       </c>
       <c r="G50">
-        <v>28.98</v>
+        <v>2950.79</v>
       </c>
       <c r="H50">
-        <v>32.75</v>
+        <v>3088.87</v>
       </c>
       <c r="I50">
-        <v>32.799999999999997</v>
+        <v>3110.77</v>
       </c>
       <c r="J50">
-        <v>33.520000000000003</v>
+        <v>3471.73</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L50">
-        <v>30.65</v>
+        <v>2997.8</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2834,40 +2870,40 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>44571</v>
+        <v>44634</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E51">
-        <v>382.05</v>
+        <v>1103.6500000000001</v>
       </c>
       <c r="F51">
-        <v>367</v>
+        <v>1047.53</v>
       </c>
       <c r="G51">
-        <v>356.22</v>
+        <v>1019.89</v>
       </c>
       <c r="H51">
-        <v>391.12</v>
+        <v>1135.5999999999999</v>
       </c>
       <c r="I51">
-        <v>393.51</v>
+        <v>1136.76</v>
       </c>
       <c r="J51">
-        <v>403.35</v>
+        <v>1206.57</v>
       </c>
       <c r="K51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>1167.7</v>
+      </c>
+      <c r="M51">
         <v>3</v>
       </c>
-      <c r="L51">
-        <v>434.7</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
       <c r="N51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -2878,40 +2914,40 @@
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>44568</v>
+        <v>44634</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E52">
-        <v>158.69999999999999</v>
+        <v>447.8</v>
       </c>
       <c r="F52">
-        <v>147.59</v>
+        <v>443.76</v>
       </c>
       <c r="G52">
-        <v>147.49</v>
+        <v>415.06</v>
       </c>
       <c r="H52">
-        <v>163.46</v>
+        <v>459.45</v>
       </c>
       <c r="I52">
-        <v>166.75</v>
+        <v>461.23</v>
       </c>
       <c r="J52">
-        <v>184.75</v>
+        <v>480.93</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L52">
-        <v>157.75</v>
+        <v>459.8</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -2922,37 +2958,37 @@
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>44568</v>
+        <v>44634</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E53">
-        <v>200.65</v>
+        <v>1458.55</v>
       </c>
       <c r="F53">
-        <v>190.7</v>
+        <v>1368.38</v>
       </c>
       <c r="G53">
-        <v>183.28</v>
+        <v>1362.97</v>
       </c>
       <c r="H53">
-        <v>206.67</v>
+        <v>1502.31</v>
       </c>
       <c r="I53">
-        <v>214.8</v>
+        <v>1612.77</v>
       </c>
       <c r="J53">
-        <v>223.1</v>
+        <v>1865.62</v>
       </c>
       <c r="K53" t="s">
         <v>15</v>
       </c>
       <c r="L53">
-        <v>201.05</v>
+        <v>1637.35</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
         <v>4</v>
@@ -2966,37 +3002,37 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>44566</v>
+        <v>44634</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E54">
-        <v>1903.9</v>
+        <v>723</v>
       </c>
       <c r="F54">
-        <v>1755.34</v>
+        <v>689.85</v>
       </c>
       <c r="G54">
-        <v>1642.64</v>
+        <v>679.1</v>
       </c>
       <c r="H54">
-        <v>1961.02</v>
+        <v>744.69</v>
       </c>
       <c r="I54">
-        <v>1969.95</v>
+        <v>763.47</v>
       </c>
       <c r="J54">
-        <v>2061.4699999999998</v>
+        <v>890.58</v>
       </c>
       <c r="K54" t="s">
         <v>3</v>
       </c>
       <c r="L54">
-        <v>1977.45</v>
+        <v>946.15</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N54" t="s">
         <v>4</v>
@@ -3010,37 +3046,37 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>44539</v>
+        <v>44631</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E55">
-        <v>2228.5</v>
+        <v>128.15</v>
       </c>
       <c r="F55">
-        <v>2108.85</v>
+        <v>126.18</v>
       </c>
       <c r="G55">
-        <v>1997.53</v>
+        <v>122.51</v>
       </c>
       <c r="H55">
-        <v>2295.36</v>
+        <v>131.99</v>
       </c>
       <c r="I55">
-        <v>2360.58</v>
+        <v>139.12</v>
       </c>
       <c r="J55">
-        <v>2638.53</v>
+        <v>165.38</v>
       </c>
       <c r="K55" t="s">
         <v>15</v>
       </c>
       <c r="L55">
-        <v>2226.6</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N55" t="s">
         <v>4</v>
@@ -3054,37 +3090,37 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>44533</v>
+        <v>44629</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E56">
-        <v>364.15</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="F56">
-        <v>337.79</v>
+        <v>63.68</v>
       </c>
       <c r="G56">
-        <v>318.74</v>
+        <v>56.47</v>
       </c>
       <c r="H56">
-        <v>375.07</v>
+        <v>67.62</v>
       </c>
       <c r="I56">
-        <v>385.52</v>
+        <v>74.33</v>
       </c>
       <c r="J56">
-        <v>403.45</v>
+        <v>80.83</v>
       </c>
       <c r="K56" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L56">
-        <v>424</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N56" t="s">
         <v>4</v>
@@ -3098,37 +3134,37 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>44533</v>
+        <v>44624</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E57">
-        <v>154.94999999999999</v>
+        <v>341.7</v>
       </c>
       <c r="F57">
-        <v>151.22</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="G57">
-        <v>147.36000000000001</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="H57">
-        <v>159.6</v>
+        <v>351.95</v>
       </c>
       <c r="I57">
-        <v>160.97999999999999</v>
+        <v>357.28</v>
       </c>
       <c r="J57">
-        <v>167.95</v>
+        <v>399.23</v>
       </c>
       <c r="K57" t="s">
         <v>6</v>
       </c>
       <c r="L57">
-        <v>145.9</v>
+        <v>310.8</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
         <v>6</v>
@@ -3142,37 +3178,37 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>44531</v>
+        <v>44623</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E58">
-        <v>5080.25</v>
+        <v>725.3</v>
       </c>
       <c r="F58">
-        <v>4957.96</v>
+        <v>702.5</v>
       </c>
       <c r="G58">
-        <v>4845.8599999999997</v>
+        <v>696.01</v>
       </c>
       <c r="H58">
-        <v>5220.53</v>
+        <v>747.06</v>
       </c>
       <c r="I58">
-        <v>5232.66</v>
+        <v>749.02</v>
       </c>
       <c r="J58">
-        <v>5311.9</v>
+        <v>829.07</v>
       </c>
       <c r="K58" t="s">
         <v>3</v>
       </c>
       <c r="L58">
-        <v>5060.1000000000004</v>
+        <v>861.1</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N58" t="s">
         <v>4</v>
@@ -3186,37 +3222,37 @@
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>44526</v>
+        <v>44617</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E59">
-        <v>1810.1</v>
+        <v>1981.95</v>
       </c>
       <c r="F59">
-        <v>1745.93</v>
+        <v>1978.68</v>
       </c>
       <c r="G59">
-        <v>1715.01</v>
+        <v>1958.01</v>
       </c>
       <c r="H59">
-        <v>1864.4</v>
+        <v>2034.08</v>
       </c>
       <c r="I59">
-        <v>1887.2</v>
+        <v>2041.41</v>
       </c>
       <c r="J59">
-        <v>2088.1999999999998</v>
+        <v>2090.85</v>
       </c>
       <c r="K59" t="s">
         <v>3</v>
       </c>
       <c r="L59">
-        <v>1974.55</v>
+        <v>2224.6</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N59" t="s">
         <v>4</v>
@@ -3230,37 +3266,37 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>44522</v>
+        <v>44606</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E60">
-        <v>142.9</v>
+        <v>553.25</v>
       </c>
       <c r="F60">
-        <v>133.26</v>
+        <v>534.80999999999995</v>
       </c>
       <c r="G60">
-        <v>127.28</v>
+        <v>520.91999999999996</v>
       </c>
       <c r="H60">
-        <v>147.19</v>
+        <v>569.85</v>
       </c>
       <c r="I60">
-        <v>149.35</v>
+        <v>584.75</v>
       </c>
       <c r="J60">
-        <v>156.41999999999999</v>
+        <v>651.35</v>
       </c>
       <c r="K60" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L60">
-        <v>149.30000000000001</v>
+        <v>495.45</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
         <v>4</v>
@@ -3274,34 +3310,34 @@
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>44517</v>
+        <v>44601</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>230.3</v>
+        <v>1324</v>
       </c>
       <c r="F61">
-        <v>218.03</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="G61">
-        <v>214.41</v>
+        <v>1293.48</v>
       </c>
       <c r="H61">
-        <v>237.21</v>
+        <v>1363.72</v>
       </c>
       <c r="I61">
-        <v>241.3</v>
+        <v>1423.83</v>
       </c>
       <c r="J61">
-        <v>258</v>
+        <v>1570.18</v>
       </c>
       <c r="K61" t="s">
         <v>6</v>
       </c>
       <c r="L61">
-        <v>213.5</v>
+        <v>1192.8499999999999</v>
       </c>
       <c r="M61">
         <v>4</v>
@@ -3318,37 +3354,37 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>44516</v>
+        <v>44599</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E62">
-        <v>504</v>
+        <v>452.75</v>
       </c>
       <c r="F62">
-        <v>485.12</v>
+        <v>430.28</v>
       </c>
       <c r="G62">
-        <v>474.56</v>
+        <v>377.77</v>
       </c>
       <c r="H62">
-        <v>519.12</v>
+        <v>466.33</v>
       </c>
       <c r="I62">
-        <v>564.98</v>
+        <v>468.63</v>
       </c>
       <c r="J62">
-        <v>657.23</v>
+        <v>490.85</v>
       </c>
       <c r="K62" t="s">
         <v>6</v>
       </c>
       <c r="L62">
-        <v>425.5</v>
+        <v>391.9</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N62" t="s">
         <v>6</v>
@@ -3362,40 +3398,37 @@
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>44516</v>
+        <v>44599</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63">
-        <v>2288.75</v>
+        <v>2142</v>
       </c>
       <c r="F63">
-        <v>2194.21</v>
+        <v>2069.15</v>
       </c>
       <c r="G63">
-        <v>2184.1799999999998</v>
+        <v>2052.2199999999998</v>
       </c>
       <c r="H63">
-        <v>2357.41</v>
+        <v>2206.2600000000002</v>
       </c>
       <c r="I63">
-        <v>2392.4499999999998</v>
-      </c>
-      <c r="J63">
-        <v>2609.85</v>
+        <v>2250.3000000000002</v>
       </c>
       <c r="K63" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L63">
-        <v>1911.7</v>
+        <v>2176.9499999999998</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3406,37 +3439,37 @@
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>44515</v>
+        <v>44599</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E64">
-        <v>367.8</v>
+        <v>133.6</v>
       </c>
       <c r="F64">
-        <v>356.44</v>
+        <v>128.38</v>
       </c>
       <c r="G64">
-        <v>341.13</v>
+        <v>124.6</v>
       </c>
       <c r="H64">
-        <v>378.83</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="I64">
-        <v>387.22</v>
+        <v>138.07</v>
       </c>
       <c r="J64">
-        <v>433.87</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="K64" t="s">
         <v>6</v>
       </c>
       <c r="L64">
-        <v>374.15</v>
+        <v>121.6</v>
       </c>
       <c r="M64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N64" t="s">
         <v>6</v>
@@ -3450,40 +3483,40 @@
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>44515</v>
+        <v>44596</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E65">
-        <v>926.25</v>
+        <v>4092</v>
       </c>
       <c r="F65">
-        <v>869.94</v>
+        <v>3776.95</v>
       </c>
       <c r="G65">
-        <v>866.86</v>
+        <v>3746.76</v>
       </c>
       <c r="H65">
-        <v>954.04</v>
+        <v>4214.76</v>
       </c>
       <c r="I65">
-        <v>959.1</v>
+        <v>4242.17</v>
       </c>
       <c r="J65">
-        <v>1056.0999999999999</v>
+        <v>4730.0200000000004</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L65">
-        <v>918.2</v>
+        <v>3947.4</v>
       </c>
       <c r="M65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3494,40 +3527,40 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>44512</v>
+        <v>44595</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E66">
-        <v>922.15</v>
+        <v>13206</v>
       </c>
       <c r="F66">
-        <v>866.97</v>
+        <v>12389.2</v>
       </c>
       <c r="G66">
-        <v>846.17</v>
+        <v>12025.37</v>
       </c>
       <c r="H66">
-        <v>949.81</v>
+        <v>13579.15</v>
       </c>
       <c r="I66">
-        <v>959.97</v>
+        <v>13602.18</v>
       </c>
       <c r="J66">
-        <v>1104.8699999999999</v>
+        <v>13936.05</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L66">
-        <v>925.35</v>
+        <v>12185.55</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -3538,37 +3571,37 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>44512</v>
+        <v>44580</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E67">
-        <v>2252.3000000000002</v>
+        <v>1222.5</v>
       </c>
       <c r="F67">
-        <v>2189.8000000000002</v>
+        <v>1152.56</v>
       </c>
       <c r="G67">
-        <v>2179.61</v>
+        <v>1113.9000000000001</v>
       </c>
       <c r="H67">
-        <v>2319.87</v>
+        <v>1259.17</v>
       </c>
       <c r="I67">
-        <v>2392.4499999999998</v>
+        <v>1274.53</v>
       </c>
       <c r="J67">
-        <v>2609.85</v>
+        <v>1327.78</v>
       </c>
       <c r="K67" t="s">
         <v>6</v>
       </c>
       <c r="L67">
-        <v>2042.05</v>
+        <v>1048.5999999999999</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
         <v>6</v>
@@ -3582,34 +3615,34 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>44510</v>
+        <v>44575</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E68">
-        <v>4169.55</v>
+        <v>499.65</v>
       </c>
       <c r="F68">
-        <v>4107.1499999999996</v>
+        <v>468.25</v>
       </c>
       <c r="G68">
-        <v>3788.59</v>
+        <v>464.03</v>
       </c>
       <c r="H68">
-        <v>4294.6400000000003</v>
+        <v>514.64</v>
       </c>
       <c r="I68">
-        <v>4574.22</v>
+        <v>515.6</v>
       </c>
       <c r="J68">
-        <v>4830.2700000000004</v>
+        <v>529.22</v>
       </c>
       <c r="K68" t="s">
         <v>3</v>
       </c>
       <c r="L68">
-        <v>3861.95</v>
+        <v>469.95</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -3626,40 +3659,40 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>44509</v>
+        <v>44573</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E69">
-        <v>2006.35</v>
+        <v>596.4</v>
       </c>
       <c r="F69">
-        <v>1940.16</v>
+        <v>568.29</v>
       </c>
       <c r="G69">
-        <v>1849.85</v>
+        <v>551.22</v>
       </c>
       <c r="H69">
-        <v>2066.54</v>
+        <v>614.29</v>
       </c>
       <c r="I69">
-        <v>2111.6</v>
+        <v>669</v>
       </c>
       <c r="J69">
-        <v>2406.8000000000002</v>
+        <v>780.4</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L69">
-        <v>1966.85</v>
+        <v>676.55</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -3670,40 +3703,40 @@
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>44504</v>
+        <v>44571</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E70">
-        <v>1438</v>
+        <v>31.8</v>
       </c>
       <c r="F70">
-        <v>1348.05</v>
+        <v>29.37</v>
       </c>
       <c r="G70">
-        <v>1246.52</v>
+        <v>28.98</v>
       </c>
       <c r="H70">
-        <v>1481.14</v>
+        <v>32.75</v>
       </c>
       <c r="I70">
-        <v>1500.53</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J70">
-        <v>1557.03</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="K70" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L70">
-        <v>1292.45</v>
+        <v>30.65</v>
       </c>
       <c r="M70">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N70" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -3714,37 +3747,37 @@
         <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>44503</v>
+        <v>44571</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E71">
-        <v>940</v>
+        <v>382.05</v>
       </c>
       <c r="F71">
-        <v>889.59</v>
+        <v>367</v>
       </c>
       <c r="G71">
-        <v>877.45</v>
+        <v>356.22</v>
       </c>
       <c r="H71">
-        <v>968.2</v>
+        <v>391.12</v>
       </c>
       <c r="I71">
-        <v>976.45</v>
+        <v>393.51</v>
       </c>
       <c r="J71">
-        <v>1092.05</v>
+        <v>403.35</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>911.3</v>
+        <v>434.7</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71" t="s">
         <v>4</v>
@@ -3758,37 +3791,37 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>44503</v>
+        <v>44568</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>467.25</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="F72">
-        <v>449.1</v>
+        <v>147.59</v>
       </c>
       <c r="G72">
-        <v>434.55</v>
+        <v>147.49</v>
       </c>
       <c r="H72">
-        <v>481.27</v>
+        <v>163.46</v>
       </c>
       <c r="I72">
-        <v>483.37</v>
+        <v>166.75</v>
       </c>
       <c r="J72">
-        <v>540.63</v>
+        <v>184.75</v>
       </c>
       <c r="K72" t="s">
         <v>15</v>
       </c>
       <c r="L72">
-        <v>467.45</v>
+        <v>157.75</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72" t="s">
         <v>4</v>
@@ -3802,34 +3835,34 @@
         <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>44503</v>
+        <v>44568</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E73">
-        <v>2376.5500000000002</v>
+        <v>200.65</v>
       </c>
       <c r="F73">
-        <v>2227.59</v>
+        <v>190.7</v>
       </c>
       <c r="G73">
-        <v>2195.98</v>
+        <v>183.28</v>
       </c>
       <c r="H73">
-        <v>2447.7800000000002</v>
+        <v>206.67</v>
       </c>
       <c r="I73">
-        <v>2447.85</v>
+        <v>214.8</v>
       </c>
       <c r="J73">
-        <v>2581.4299999999998</v>
+        <v>223.1</v>
       </c>
       <c r="K73" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L73">
-        <v>2332.1</v>
+        <v>201.05</v>
       </c>
       <c r="M73">
         <v>10</v>
@@ -3846,37 +3879,37 @@
         <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>44503</v>
+        <v>44566</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E74">
-        <v>3960.1</v>
+        <v>1903.9</v>
       </c>
       <c r="F74">
-        <v>3811.12</v>
+        <v>1755.34</v>
       </c>
       <c r="G74">
-        <v>3778.9</v>
+        <v>1642.64</v>
       </c>
       <c r="H74">
-        <v>4078.9</v>
+        <v>1961.02</v>
       </c>
       <c r="I74">
-        <v>4094.88</v>
+        <v>1969.95</v>
       </c>
       <c r="J74">
-        <v>4611.7299999999996</v>
+        <v>2061.4699999999998</v>
       </c>
       <c r="K74" t="s">
         <v>3</v>
       </c>
       <c r="L74">
-        <v>4220.7</v>
+        <v>1977.45</v>
       </c>
       <c r="M74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N74" t="s">
         <v>4</v>
@@ -3890,40 +3923,40 @@
         <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>44502</v>
+        <v>44539</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E75">
-        <v>503</v>
+        <v>2228.5</v>
       </c>
       <c r="F75">
-        <v>468.45</v>
+        <v>2108.85</v>
       </c>
       <c r="G75">
-        <v>404.65</v>
+        <v>1997.53</v>
       </c>
       <c r="H75">
-        <v>518.09</v>
+        <v>2295.36</v>
       </c>
       <c r="I75">
-        <v>538.33000000000004</v>
+        <v>2360.58</v>
       </c>
       <c r="J75">
-        <v>564.23</v>
+        <v>2638.53</v>
       </c>
       <c r="K75" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L75">
-        <v>407.5</v>
+        <v>2226.6</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -3934,34 +3967,37 @@
         <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>183.95</v>
+        <v>364.15</v>
       </c>
       <c r="F76">
-        <v>172.67</v>
+        <v>337.79</v>
       </c>
       <c r="G76">
-        <v>150.44</v>
+        <v>318.74</v>
       </c>
       <c r="H76">
-        <v>189.47</v>
+        <v>375.07</v>
       </c>
       <c r="I76">
-        <v>220.63</v>
+        <v>385.52</v>
+      </c>
+      <c r="J76">
+        <v>403.45</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>166.8</v>
+        <v>424</v>
       </c>
       <c r="M76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N76" t="s">
         <v>4</v>
@@ -3975,40 +4011,40 @@
         <v>1</v>
       </c>
       <c r="C77" s="1">
-        <v>44497</v>
+        <v>44533</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>1947.1</v>
+        <v>154.94999999999999</v>
       </c>
       <c r="F77">
-        <v>1858.11</v>
+        <v>151.22</v>
       </c>
       <c r="G77">
-        <v>1845.66</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="H77">
-        <v>2005.51</v>
+        <v>159.6</v>
       </c>
       <c r="I77">
-        <v>2022.07</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="J77">
-        <v>2175.9699999999998</v>
+        <v>167.95</v>
       </c>
       <c r="K77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L77">
+        <v>145.9</v>
+      </c>
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="L77">
-        <v>2149.5500000000002</v>
-      </c>
-      <c r="M77">
-        <v>8</v>
-      </c>
       <c r="N77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -4019,34 +4055,37 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>44491</v>
+        <v>44531</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>50.1</v>
+        <v>5080.25</v>
       </c>
       <c r="F78">
-        <v>46.38</v>
+        <v>4957.96</v>
       </c>
       <c r="G78">
-        <v>45.6</v>
+        <v>4845.8599999999997</v>
       </c>
       <c r="H78">
-        <v>52.35</v>
+        <v>5220.53</v>
       </c>
       <c r="I78">
-        <v>52.7</v>
+        <v>5232.66</v>
+      </c>
+      <c r="J78">
+        <v>5311.9</v>
       </c>
       <c r="K78" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>48.8</v>
+        <v>5060.1000000000004</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N78" t="s">
         <v>4</v>
@@ -4060,37 +4099,37 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>44491</v>
+        <v>44526</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E79">
-        <v>1243.3</v>
+        <v>1810.1</v>
       </c>
       <c r="F79">
-        <v>1184.8599999999999</v>
+        <v>1745.93</v>
       </c>
       <c r="G79">
-        <v>1112.71</v>
+        <v>1715.01</v>
       </c>
       <c r="H79">
-        <v>1299.25</v>
+        <v>1864.4</v>
       </c>
       <c r="I79">
-        <v>1328.27</v>
+        <v>1887.2</v>
       </c>
       <c r="J79">
-        <v>1397.58</v>
+        <v>2088.1999999999998</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>1270.1500000000001</v>
+        <v>1974.55</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N79" t="s">
         <v>4</v>
@@ -4104,40 +4143,40 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>44490</v>
+        <v>44522</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E80">
-        <v>14400.05</v>
+        <v>142.9</v>
       </c>
       <c r="F80">
-        <v>13928.9</v>
+        <v>133.26</v>
       </c>
       <c r="G80">
-        <v>13651.23</v>
+        <v>127.28</v>
       </c>
       <c r="H80">
-        <v>14887.35</v>
+        <v>147.19</v>
       </c>
       <c r="I80">
-        <v>15048.05</v>
+        <v>149.35</v>
       </c>
       <c r="J80">
-        <v>15158.53</v>
+        <v>156.41999999999999</v>
       </c>
       <c r="K80" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>14644.95</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N80" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -4148,40 +4187,40 @@
         <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>44489</v>
+        <v>44517</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>14400</v>
+        <v>230.3</v>
       </c>
       <c r="F81">
-        <v>13915.11</v>
+        <v>218.03</v>
       </c>
       <c r="G81">
-        <v>13616.79</v>
+        <v>214.41</v>
       </c>
       <c r="H81">
-        <v>14887.35</v>
+        <v>237.21</v>
       </c>
       <c r="I81">
-        <v>15048</v>
+        <v>241.3</v>
       </c>
       <c r="J81">
-        <v>15158.53</v>
+        <v>258</v>
       </c>
       <c r="K81" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L81">
-        <v>14453.9</v>
+        <v>213.5</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -4192,37 +4231,37 @@
         <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>44489</v>
+        <v>44516</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>497.95</v>
+        <v>504</v>
       </c>
       <c r="F82">
-        <v>461.51</v>
+        <v>485.12</v>
       </c>
       <c r="G82">
-        <v>455.19</v>
+        <v>474.56</v>
       </c>
       <c r="H82">
-        <v>520.36</v>
+        <v>519.12</v>
       </c>
       <c r="I82">
-        <v>520.41999999999996</v>
+        <v>564.98</v>
       </c>
       <c r="J82">
-        <v>580.41999999999996</v>
+        <v>657.23</v>
       </c>
       <c r="K82" t="s">
         <v>6</v>
       </c>
       <c r="L82">
-        <v>428.55</v>
+        <v>425.5</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N82" t="s">
         <v>6</v>
@@ -4236,37 +4275,40 @@
         <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>44483</v>
+        <v>44516</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>8928</v>
+        <v>2288.75</v>
       </c>
       <c r="F83">
-        <v>8199.61</v>
+        <v>2194.21</v>
       </c>
       <c r="G83">
-        <v>8071.6</v>
+        <v>2184.1799999999998</v>
       </c>
       <c r="H83">
-        <v>9329.76</v>
+        <v>2357.41</v>
       </c>
       <c r="I83">
-        <v>9446.1</v>
+        <v>2392.4499999999998</v>
+      </c>
+      <c r="J83">
+        <v>2609.85</v>
       </c>
       <c r="K83" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L83">
-        <v>9105.75</v>
+        <v>1911.7</v>
       </c>
       <c r="M83">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -4277,37 +4319,40 @@
         <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E84">
-        <v>358</v>
+        <v>367.8</v>
       </c>
       <c r="F84">
-        <v>327.27999999999997</v>
+        <v>356.44</v>
       </c>
       <c r="G84">
-        <v>321.62</v>
+        <v>341.13</v>
       </c>
       <c r="H84">
-        <v>374.11</v>
+        <v>378.83</v>
       </c>
       <c r="I84">
-        <v>377.57</v>
+        <v>387.22</v>
+      </c>
+      <c r="J84">
+        <v>433.87</v>
       </c>
       <c r="K84" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L84">
-        <v>318.55</v>
+        <v>374.15</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N84" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -4318,40 +4363,40 @@
         <v>1</v>
       </c>
       <c r="C85" s="1">
-        <v>44482</v>
+        <v>44515</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>1840.1</v>
+        <v>926.25</v>
       </c>
       <c r="F85">
-        <v>1728.38</v>
+        <v>869.94</v>
       </c>
       <c r="G85">
-        <v>1649.84</v>
+        <v>866.86</v>
       </c>
       <c r="H85">
-        <v>1922.9</v>
+        <v>954.04</v>
       </c>
       <c r="I85">
-        <v>1954.85</v>
+        <v>959.1</v>
       </c>
       <c r="J85">
-        <v>2179.75</v>
+        <v>1056.0999999999999</v>
       </c>
       <c r="K85" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L85">
-        <v>1792.45</v>
+        <v>918.2</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -4362,37 +4407,37 @@
         <v>1</v>
       </c>
       <c r="C86" s="1">
-        <v>44481</v>
+        <v>44512</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>456.35</v>
+        <v>922.15</v>
       </c>
       <c r="F86">
-        <v>431.76</v>
+        <v>866.97</v>
       </c>
       <c r="G86">
-        <v>421.61</v>
+        <v>846.17</v>
       </c>
       <c r="H86">
-        <v>476.89</v>
+        <v>949.81</v>
       </c>
       <c r="I86">
-        <v>476.9</v>
+        <v>959.97</v>
       </c>
       <c r="J86">
-        <v>531.9</v>
+        <v>1104.8699999999999</v>
       </c>
       <c r="K86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L86">
-        <v>464.65</v>
+        <v>925.35</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N86" t="s">
         <v>4</v>
@@ -4406,40 +4451,40 @@
         <v>1</v>
       </c>
       <c r="C87" s="1">
-        <v>44481</v>
+        <v>44512</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>96.3</v>
+        <v>2252.3000000000002</v>
       </c>
       <c r="F87">
-        <v>91.74</v>
+        <v>2189.8000000000002</v>
       </c>
       <c r="G87">
-        <v>88.31</v>
+        <v>2179.61</v>
       </c>
       <c r="H87">
-        <v>100.63</v>
+        <v>2319.87</v>
       </c>
       <c r="I87">
-        <v>106.95</v>
+        <v>2392.4499999999998</v>
       </c>
       <c r="J87">
-        <v>122.7</v>
+        <v>2609.85</v>
       </c>
       <c r="K87" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L87">
-        <v>102.55</v>
+        <v>2042.05</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -4450,34 +4495,34 @@
         <v>1</v>
       </c>
       <c r="C88" s="1">
-        <v>44481</v>
+        <v>44510</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>2025</v>
+        <v>4169.55</v>
       </c>
       <c r="F88">
-        <v>1869.62</v>
+        <v>4107.1499999999996</v>
       </c>
       <c r="G88">
-        <v>1853.79</v>
+        <v>3788.59</v>
       </c>
       <c r="H88">
-        <v>2116.13</v>
+        <v>4294.6400000000003</v>
       </c>
       <c r="I88">
-        <v>2147.83</v>
+        <v>4574.22</v>
       </c>
       <c r="J88">
-        <v>2419.38</v>
+        <v>4830.2700000000004</v>
       </c>
       <c r="K88" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>1993.8</v>
+        <v>3861.95</v>
       </c>
       <c r="M88">
         <v>2</v>
@@ -4494,40 +4539,40 @@
         <v>1</v>
       </c>
       <c r="C89" s="1">
-        <v>44480</v>
+        <v>44509</v>
       </c>
       <c r="D89" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E89">
-        <v>313.55</v>
+        <v>2006.35</v>
       </c>
       <c r="F89">
-        <v>297.8</v>
+        <v>1940.16</v>
       </c>
       <c r="G89">
-        <v>282.27</v>
+        <v>1849.85</v>
       </c>
       <c r="H89">
-        <v>323.38</v>
+        <v>2066.54</v>
       </c>
       <c r="I89">
-        <v>327.66000000000003</v>
+        <v>2111.6</v>
       </c>
       <c r="J89">
-        <v>334.27</v>
+        <v>2406.8000000000002</v>
       </c>
       <c r="K89" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L89">
-        <v>269.75</v>
+        <v>1966.85</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -4538,40 +4583,40 @@
         <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>44477</v>
+        <v>44504</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>789.25</v>
+        <v>1438</v>
       </c>
       <c r="F90">
-        <v>757.08</v>
+        <v>1348.05</v>
       </c>
       <c r="G90">
-        <v>751.14</v>
+        <v>1246.52</v>
       </c>
       <c r="H90">
-        <v>816.23</v>
+        <v>1481.14</v>
       </c>
       <c r="I90">
-        <v>824.77</v>
+        <v>1500.53</v>
       </c>
       <c r="J90">
-        <v>834.78</v>
+        <v>1557.03</v>
       </c>
       <c r="K90" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L90">
-        <v>821</v>
+        <v>1292.45</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -4582,40 +4627,40 @@
         <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E91">
-        <v>656.4</v>
+        <v>940</v>
       </c>
       <c r="F91">
-        <v>653</v>
+        <v>889.59</v>
       </c>
       <c r="G91">
-        <v>632.46</v>
+        <v>877.45</v>
       </c>
       <c r="H91">
-        <v>685.94</v>
+        <v>968.2</v>
       </c>
       <c r="I91">
-        <v>708.65</v>
+        <v>976.45</v>
       </c>
       <c r="J91">
-        <v>792.4</v>
+        <v>1092.05</v>
       </c>
       <c r="K91" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L91">
-        <v>515.79999999999995</v>
+        <v>911.3</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -4626,40 +4671,40 @@
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E92">
-        <v>97.75</v>
+        <v>467.25</v>
       </c>
       <c r="F92">
-        <v>90.97</v>
+        <v>449.1</v>
       </c>
       <c r="G92">
-        <v>88.12</v>
+        <v>434.55</v>
       </c>
       <c r="H92">
-        <v>102.15</v>
+        <v>481.27</v>
       </c>
       <c r="I92">
-        <v>106.95</v>
+        <v>483.37</v>
       </c>
       <c r="J92">
-        <v>122.7</v>
+        <v>540.63</v>
       </c>
       <c r="K92" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L92">
-        <v>97.45</v>
+        <v>467.45</v>
       </c>
       <c r="M92">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -4670,37 +4715,37 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E93">
-        <v>1965.1</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="F93">
-        <v>1863.54</v>
+        <v>2227.59</v>
       </c>
       <c r="G93">
-        <v>1850.86</v>
+        <v>2195.98</v>
       </c>
       <c r="H93">
-        <v>2053.5300000000002</v>
+        <v>2447.7800000000002</v>
       </c>
       <c r="I93">
-        <v>2073.9699999999998</v>
+        <v>2447.85</v>
       </c>
       <c r="J93">
-        <v>2147.83</v>
+        <v>2581.4299999999998</v>
       </c>
       <c r="K93" t="s">
         <v>3</v>
       </c>
       <c r="L93">
-        <v>1946.05</v>
+        <v>2332.1</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N93" t="s">
         <v>4</v>
@@ -4714,37 +4759,37 @@
         <v>1</v>
       </c>
       <c r="C94" s="1">
-        <v>44477</v>
+        <v>44503</v>
       </c>
       <c r="D94" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E94">
-        <v>211.55</v>
+        <v>3960.1</v>
       </c>
       <c r="F94">
-        <v>199.66</v>
+        <v>3811.12</v>
       </c>
       <c r="G94">
-        <v>195.14</v>
+        <v>3778.9</v>
       </c>
       <c r="H94">
-        <v>221.07</v>
+        <v>4078.9</v>
       </c>
       <c r="I94">
-        <v>222.5</v>
+        <v>4094.88</v>
       </c>
       <c r="J94">
-        <v>231.5</v>
+        <v>4611.7299999999996</v>
       </c>
       <c r="K94" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>197.65</v>
+        <v>4220.7</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N94" t="s">
         <v>4</v>
@@ -4758,37 +4803,40 @@
         <v>1</v>
       </c>
       <c r="C95" s="1">
-        <v>44476</v>
+        <v>44502</v>
       </c>
       <c r="D95" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>2141.3000000000002</v>
+        <v>503</v>
       </c>
       <c r="F95">
-        <v>1927.17</v>
+        <v>468.45</v>
       </c>
       <c r="G95">
-        <v>1897.63</v>
+        <v>404.65</v>
       </c>
       <c r="H95">
-        <v>2237.66</v>
+        <v>518.09</v>
       </c>
       <c r="I95">
-        <v>2357.87</v>
+        <v>538.33000000000004</v>
+      </c>
+      <c r="J95">
+        <v>564.23</v>
       </c>
       <c r="K95" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="L95">
-        <v>1949.45</v>
+        <v>407.5</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -4799,34 +4847,34 @@
         <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>44476</v>
+        <v>44498</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E96">
-        <v>1304.5</v>
+        <v>183.95</v>
       </c>
       <c r="F96">
-        <v>1181.8499999999999</v>
+        <v>172.67</v>
       </c>
       <c r="G96">
-        <v>1177.8599999999999</v>
+        <v>150.44</v>
       </c>
       <c r="H96">
-        <v>1357.02</v>
+        <v>189.47</v>
       </c>
       <c r="I96">
-        <v>1363.2</v>
+        <v>220.63</v>
       </c>
       <c r="K96" t="s">
         <v>15</v>
       </c>
       <c r="L96">
-        <v>1313.25</v>
+        <v>166.8</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N96" t="s">
         <v>4</v>
@@ -4840,37 +4888,40 @@
         <v>1</v>
       </c>
       <c r="C97" s="1">
-        <v>44476</v>
+        <v>44497</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E97">
-        <v>1046</v>
+        <v>1947.1</v>
       </c>
       <c r="F97">
-        <v>991.55</v>
+        <v>1858.11</v>
       </c>
       <c r="G97">
-        <v>975.33</v>
+        <v>1845.66</v>
       </c>
       <c r="H97">
-        <v>1093.07</v>
+        <v>2005.51</v>
       </c>
       <c r="I97">
-        <v>1100.17</v>
+        <v>2022.07</v>
+      </c>
+      <c r="J97">
+        <v>2175.9699999999998</v>
       </c>
       <c r="K97" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L97">
-        <v>804.35</v>
+        <v>2149.5500000000002</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -4881,40 +4932,37 @@
         <v>1</v>
       </c>
       <c r="C98" s="1">
-        <v>44476</v>
+        <v>44491</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E98">
-        <v>310.7</v>
+        <v>50.1</v>
       </c>
       <c r="F98">
-        <v>295.52999999999997</v>
+        <v>46.38</v>
       </c>
       <c r="G98">
-        <v>280.48</v>
+        <v>45.6</v>
       </c>
       <c r="H98">
-        <v>323.38</v>
+        <v>52.35</v>
       </c>
       <c r="I98">
-        <v>324.68</v>
-      </c>
-      <c r="J98">
-        <v>334.27</v>
+        <v>52.7</v>
       </c>
       <c r="K98" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L98">
-        <v>273.3</v>
+        <v>48.8</v>
       </c>
       <c r="M98">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -4925,37 +4973,37 @@
         <v>1</v>
       </c>
       <c r="C99" s="1">
-        <v>44475</v>
+        <v>44491</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E99">
-        <v>214.3</v>
+        <v>1243.3</v>
       </c>
       <c r="F99">
-        <v>206.45</v>
+        <v>1184.8599999999999</v>
       </c>
       <c r="G99">
-        <v>205.8</v>
+        <v>1112.71</v>
       </c>
       <c r="H99">
-        <v>223.94</v>
+        <v>1299.25</v>
       </c>
       <c r="I99">
-        <v>225.65</v>
+        <v>1328.27</v>
       </c>
       <c r="J99">
-        <v>245.35</v>
+        <v>1397.58</v>
       </c>
       <c r="K99" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L99">
-        <v>214.4</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="M99">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N99" t="s">
         <v>4</v>
@@ -4969,37 +5017,40 @@
         <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E100">
-        <v>289</v>
+        <v>14400.05</v>
       </c>
       <c r="F100">
-        <v>276.52</v>
+        <v>13928.9</v>
       </c>
       <c r="G100">
-        <v>272.33</v>
+        <v>13651.23</v>
       </c>
       <c r="H100">
-        <v>302</v>
+        <v>14887.35</v>
       </c>
       <c r="I100">
-        <v>306.18</v>
+        <v>15048.05</v>
+      </c>
+      <c r="J100">
+        <v>15158.53</v>
       </c>
       <c r="K100" t="s">
+        <v>41</v>
+      </c>
+      <c r="L100">
+        <v>14644.95</v>
+      </c>
+      <c r="M100">
         <v>15</v>
       </c>
-      <c r="L100">
-        <v>283.05</v>
-      </c>
-      <c r="M100">
-        <v>13</v>
-      </c>
       <c r="N100" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -5010,39 +5061,901 @@
         <v>1</v>
       </c>
       <c r="C101" s="1">
+        <v>44489</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>14400</v>
+      </c>
+      <c r="F101">
+        <v>13915.11</v>
+      </c>
+      <c r="G101">
+        <v>13616.79</v>
+      </c>
+      <c r="H101">
+        <v>14887.35</v>
+      </c>
+      <c r="I101">
+        <v>15048</v>
+      </c>
+      <c r="J101">
+        <v>15158.53</v>
+      </c>
+      <c r="K101" t="s">
+        <v>41</v>
+      </c>
+      <c r="L101">
+        <v>14453.9</v>
+      </c>
+      <c r="M101">
+        <v>15</v>
+      </c>
+      <c r="N101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44489</v>
+      </c>
+      <c r="D102" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102">
+        <v>497.95</v>
+      </c>
+      <c r="F102">
+        <v>461.51</v>
+      </c>
+      <c r="G102">
+        <v>455.19</v>
+      </c>
+      <c r="H102">
+        <v>520.36</v>
+      </c>
+      <c r="I102">
+        <v>520.41999999999996</v>
+      </c>
+      <c r="J102">
+        <v>580.41999999999996</v>
+      </c>
+      <c r="K102" t="s">
+        <v>6</v>
+      </c>
+      <c r="L102">
+        <v>428.55</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44483</v>
+      </c>
+      <c r="D103" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103">
+        <v>8928</v>
+      </c>
+      <c r="F103">
+        <v>8199.61</v>
+      </c>
+      <c r="G103">
+        <v>8071.6</v>
+      </c>
+      <c r="H103">
+        <v>9329.76</v>
+      </c>
+      <c r="I103">
+        <v>9446.1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103">
+        <v>9105.75</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44483</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104">
+        <v>358</v>
+      </c>
+      <c r="F104">
+        <v>327.27999999999997</v>
+      </c>
+      <c r="G104">
+        <v>321.62</v>
+      </c>
+      <c r="H104">
+        <v>374.11</v>
+      </c>
+      <c r="I104">
+        <v>377.57</v>
+      </c>
+      <c r="K104" t="s">
+        <v>15</v>
+      </c>
+      <c r="L104">
+        <v>318.55</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44482</v>
+      </c>
+      <c r="D105" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105">
+        <v>1840.1</v>
+      </c>
+      <c r="F105">
+        <v>1728.38</v>
+      </c>
+      <c r="G105">
+        <v>1649.84</v>
+      </c>
+      <c r="H105">
+        <v>1922.9</v>
+      </c>
+      <c r="I105">
+        <v>1954.85</v>
+      </c>
+      <c r="J105">
+        <v>2179.75</v>
+      </c>
+      <c r="K105" t="s">
+        <v>6</v>
+      </c>
+      <c r="L105">
+        <v>1792.45</v>
+      </c>
+      <c r="M105">
+        <v>9</v>
+      </c>
+      <c r="N105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44481</v>
+      </c>
+      <c r="D106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106">
+        <v>456.35</v>
+      </c>
+      <c r="F106">
+        <v>431.76</v>
+      </c>
+      <c r="G106">
+        <v>421.61</v>
+      </c>
+      <c r="H106">
+        <v>476.89</v>
+      </c>
+      <c r="I106">
+        <v>476.9</v>
+      </c>
+      <c r="J106">
+        <v>531.9</v>
+      </c>
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106">
+        <v>464.65</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44481</v>
+      </c>
+      <c r="D107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107">
+        <v>96.3</v>
+      </c>
+      <c r="F107">
+        <v>91.74</v>
+      </c>
+      <c r="G107">
+        <v>88.31</v>
+      </c>
+      <c r="H107">
+        <v>100.63</v>
+      </c>
+      <c r="I107">
+        <v>106.95</v>
+      </c>
+      <c r="J107">
+        <v>122.7</v>
+      </c>
+      <c r="K107" t="s">
+        <v>17</v>
+      </c>
+      <c r="L107">
+        <v>102.55</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44481</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108">
+        <v>2025</v>
+      </c>
+      <c r="F108">
+        <v>1869.62</v>
+      </c>
+      <c r="G108">
+        <v>1853.79</v>
+      </c>
+      <c r="H108">
+        <v>2116.13</v>
+      </c>
+      <c r="I108">
+        <v>2147.83</v>
+      </c>
+      <c r="J108">
+        <v>2419.38</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108">
+        <v>1993.8</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44480</v>
+      </c>
+      <c r="D109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109">
+        <v>313.55</v>
+      </c>
+      <c r="F109">
+        <v>297.8</v>
+      </c>
+      <c r="G109">
+        <v>282.27</v>
+      </c>
+      <c r="H109">
+        <v>323.38</v>
+      </c>
+      <c r="I109">
+        <v>327.66000000000003</v>
+      </c>
+      <c r="J109">
+        <v>334.27</v>
+      </c>
+      <c r="K109" t="s">
+        <v>6</v>
+      </c>
+      <c r="L109">
+        <v>269.75</v>
+      </c>
+      <c r="M109">
+        <v>7</v>
+      </c>
+      <c r="N109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110">
+        <v>789.25</v>
+      </c>
+      <c r="F110">
+        <v>757.08</v>
+      </c>
+      <c r="G110">
+        <v>751.14</v>
+      </c>
+      <c r="H110">
+        <v>816.23</v>
+      </c>
+      <c r="I110">
+        <v>824.77</v>
+      </c>
+      <c r="J110">
+        <v>834.78</v>
+      </c>
+      <c r="K110" t="s">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>821</v>
+      </c>
+      <c r="M110">
+        <v>6</v>
+      </c>
+      <c r="N110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D111" t="s">
+        <v>51</v>
+      </c>
+      <c r="E111">
+        <v>656.4</v>
+      </c>
+      <c r="F111">
+        <v>653</v>
+      </c>
+      <c r="G111">
+        <v>632.46</v>
+      </c>
+      <c r="H111">
+        <v>685.94</v>
+      </c>
+      <c r="I111">
+        <v>708.65</v>
+      </c>
+      <c r="J111">
+        <v>792.4</v>
+      </c>
+      <c r="K111" t="s">
+        <v>6</v>
+      </c>
+      <c r="L111">
+        <v>515.79999999999995</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112">
+        <v>97.75</v>
+      </c>
+      <c r="F112">
+        <v>90.97</v>
+      </c>
+      <c r="G112">
+        <v>88.12</v>
+      </c>
+      <c r="H112">
+        <v>102.15</v>
+      </c>
+      <c r="I112">
+        <v>106.95</v>
+      </c>
+      <c r="J112">
+        <v>122.7</v>
+      </c>
+      <c r="K112" t="s">
+        <v>41</v>
+      </c>
+      <c r="L112">
+        <v>97.45</v>
+      </c>
+      <c r="M112">
+        <v>15</v>
+      </c>
+      <c r="N112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113">
+        <v>1965.1</v>
+      </c>
+      <c r="F113">
+        <v>1863.54</v>
+      </c>
+      <c r="G113">
+        <v>1850.86</v>
+      </c>
+      <c r="H113">
+        <v>2053.5300000000002</v>
+      </c>
+      <c r="I113">
+        <v>2073.9699999999998</v>
+      </c>
+      <c r="J113">
+        <v>2147.83</v>
+      </c>
+      <c r="K113" t="s">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>1946.05</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D114" t="s">
+        <v>52</v>
+      </c>
+      <c r="E114">
+        <v>211.55</v>
+      </c>
+      <c r="F114">
+        <v>199.66</v>
+      </c>
+      <c r="G114">
+        <v>195.14</v>
+      </c>
+      <c r="H114">
+        <v>221.07</v>
+      </c>
+      <c r="I114">
+        <v>222.5</v>
+      </c>
+      <c r="J114">
+        <v>231.5</v>
+      </c>
+      <c r="K114" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114">
+        <v>197.65</v>
+      </c>
+      <c r="M114">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D115" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115">
+        <v>2141.3000000000002</v>
+      </c>
+      <c r="F115">
+        <v>1927.17</v>
+      </c>
+      <c r="G115">
+        <v>1897.63</v>
+      </c>
+      <c r="H115">
+        <v>2237.66</v>
+      </c>
+      <c r="I115">
+        <v>2357.87</v>
+      </c>
+      <c r="K115" t="s">
+        <v>41</v>
+      </c>
+      <c r="L115">
+        <v>1949.45</v>
+      </c>
+      <c r="M115">
+        <v>15</v>
+      </c>
+      <c r="N115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>1304.5</v>
+      </c>
+      <c r="F116">
+        <v>1181.8499999999999</v>
+      </c>
+      <c r="G116">
+        <v>1177.8599999999999</v>
+      </c>
+      <c r="H116">
+        <v>1357.02</v>
+      </c>
+      <c r="I116">
+        <v>1363.2</v>
+      </c>
+      <c r="K116" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116">
+        <v>1313.25</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D117" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117">
+        <v>1046</v>
+      </c>
+      <c r="F117">
+        <v>991.55</v>
+      </c>
+      <c r="G117">
+        <v>975.33</v>
+      </c>
+      <c r="H117">
+        <v>1093.07</v>
+      </c>
+      <c r="I117">
+        <v>1100.17</v>
+      </c>
+      <c r="K117" t="s">
+        <v>6</v>
+      </c>
+      <c r="L117">
+        <v>804.35</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44476</v>
+      </c>
+      <c r="D118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118">
+        <v>310.7</v>
+      </c>
+      <c r="F118">
+        <v>295.52999999999997</v>
+      </c>
+      <c r="G118">
+        <v>280.48</v>
+      </c>
+      <c r="H118">
+        <v>323.38</v>
+      </c>
+      <c r="I118">
+        <v>324.68</v>
+      </c>
+      <c r="J118">
+        <v>334.27</v>
+      </c>
+      <c r="K118" t="s">
+        <v>6</v>
+      </c>
+      <c r="L118">
+        <v>273.3</v>
+      </c>
+      <c r="M118">
+        <v>9</v>
+      </c>
+      <c r="N118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44475</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>214.3</v>
+      </c>
+      <c r="F119">
+        <v>206.45</v>
+      </c>
+      <c r="G119">
+        <v>205.8</v>
+      </c>
+      <c r="H119">
+        <v>223.94</v>
+      </c>
+      <c r="I119">
+        <v>225.65</v>
+      </c>
+      <c r="J119">
+        <v>245.35</v>
+      </c>
+      <c r="K119" t="s">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>214.4</v>
+      </c>
+      <c r="M119">
+        <v>9</v>
+      </c>
+      <c r="N119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44474</v>
+      </c>
+      <c r="D120" t="s">
+        <v>55</v>
+      </c>
+      <c r="E120">
+        <v>289</v>
+      </c>
+      <c r="F120">
+        <v>276.52</v>
+      </c>
+      <c r="G120">
+        <v>272.33</v>
+      </c>
+      <c r="H120">
+        <v>302</v>
+      </c>
+      <c r="I120">
+        <v>306.18</v>
+      </c>
+      <c r="K120" t="s">
+        <v>15</v>
+      </c>
+      <c r="L120">
+        <v>283.05</v>
+      </c>
+      <c r="M120">
+        <v>13</v>
+      </c>
+      <c r="N120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
         <v>44470</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D121" t="s">
         <v>56</v>
       </c>
-      <c r="E101">
+      <c r="E121">
         <v>3396.6</v>
       </c>
-      <c r="F101">
+      <c r="F121">
         <v>3162.72</v>
       </c>
-      <c r="G101">
+      <c r="G121">
         <v>3027.58</v>
       </c>
-      <c r="H101">
+      <c r="H121">
         <v>3549.45</v>
       </c>
-      <c r="I101">
+      <c r="I121">
         <v>3557.23</v>
       </c>
-      <c r="J101">
+      <c r="J121">
         <v>3951.23</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K121" t="s">
         <v>15</v>
       </c>
-      <c r="L101">
+      <c r="L121">
         <v>3392.4</v>
       </c>
-      <c r="M101">
+      <c r="M121">
         <v>7</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N121" t="s">
         <v>4</v>
       </c>
     </row>
